--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.555</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.571</v>
+        <v>18.275</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2535912993.991</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1428980.073</v>
+        <v>33.394</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.635</v>
+        <v>14.455</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1463241.639044969</v>
+        <v>15.7487467906136</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1307490.262031355</v>
+        <v>15.81706609617043</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-192714.9598874165</v>
+        <v>15.82934844497467</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2306416.339222586</v>
+        <v>15.75152971229529</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-807953.6194389131</v>
+        <v>15.79447167058072</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-533844.6361706288</v>
+        <v>15.8106584573052</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1912372.429658872</v>
+        <v>15.78665520087316</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>841425.1220420499</v>
+        <v>15.82267418578517</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1517283.365347033</v>
+        <v>15.8335288847697</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-208311.1194989759</v>
+        <v>15.83503303522876</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>168712.9723120458</v>
+        <v>15.85739020446509</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>534800.9973467099</v>
+        <v>15.86904998328951</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1112122.795077567</v>
+        <v>15.76464360028951</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-917324.3250803374</v>
+        <v>15.82514862476839</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-19055.82500682203</v>
+        <v>15.84619135450315</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-440624.2217837403</v>
+        <v>15.73385691635247</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>504180.2193688498</v>
+        <v>15.83532113495158</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1357241.747313744</v>
+        <v>15.85861112240779</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1201736.375451293</v>
+        <v>15.7200000971618</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-492504.7690623922</v>
+        <v>15.78967953389938</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>294612.3335477429</v>
+        <v>15.8184643371662</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1187585.560408157</v>
+        <v>15.77628811629423</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>675376.591385391</v>
+        <v>15.83402276015892</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1757245.182936733</v>
+        <v>15.85449424658642</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>362874.0299440035</v>
+        <v>15.86762866196348</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1138788.682079566</v>
+        <v>15.90711227235801</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1845631.378977133</v>
+        <v>15.92950942248039</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-674665.7276270731</v>
+        <v>15.75830090413194</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>382150.3398783554</v>
+        <v>15.86139819508177</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>999372.8213040384</v>
+        <v>15.89588407288888</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-206769.9288040176</v>
+        <v>15.7381871688987</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>657580.2562444768</v>
+        <v>15.85497325020875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1388748.887553973</v>
+        <v>15.88364252158347</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1117711.919844688</v>
+        <v>15.72608911151345</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-164573.3259325258</v>
+        <v>15.81026168324264</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>416597.4053726472</v>
+        <v>15.84583171005198</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-977240.1658728793</v>
+        <v>15.79686367518652</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1076841.96821866</v>
+        <v>15.86694040829116</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2088170.284622895</v>
+        <v>15.89251912004433</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>934910.4688559721</v>
+        <v>15.92476875124555</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1556073.717691267</v>
+        <v>15.96913928481871</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2090979.888744019</v>
+        <v>15.99525772882063</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-402733.1823448268</v>
+        <v>15.79616975784895</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>769291.7052984283</v>
+        <v>15.91995906390692</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1384941.61826716</v>
+        <v>15.96257833826982</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1337266.215962852</v>
+        <v>15.75788987039633</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1059068.957691311</v>
+        <v>15.84417003451955</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2091812.17553574</v>
+        <v>15.85669935369068</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1491665.217476737</v>
+        <v>15.76197306539592</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1542450.578764546</v>
+        <v>15.82101415817096</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2138837.022735025</v>
+        <v>15.8377066188766</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-885630.3188262609</v>
+        <v>15.80675884504388</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4030381.741751217</v>
+        <v>15.85602126068646</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4789052.122295633</v>
+        <v>15.86695457109281</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1741415.803553856</v>
+        <v>15.87094470020161</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2219644.070445444</v>
+        <v>15.90053765099154</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2328420.714141514</v>
+        <v>15.91150569606546</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-908300.8908186957</v>
+        <v>15.77892289985075</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1005527.564831425</v>
+        <v>15.86118078619281</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1881129.355906677</v>
+        <v>15.88268119572391</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-656508.5361489591</v>
+        <v>15.7385978956077</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>634325.1614912896</v>
+        <v>15.8653058772093</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1111372.835329536</v>
+        <v>15.88924094591317</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1096103.970324855</v>
+        <v>15.72357755655339</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>169810.1864552727</v>
+        <v>15.81616330648293</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>693219.1242393273</v>
+        <v>15.84591627452627</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1014128.904379332</v>
+        <v>15.79427251521733</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1391747.087087407</v>
+        <v>15.87079445494924</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2001432.518950532</v>
+        <v>15.89161498626389</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>856994.9825396956</v>
+        <v>15.90925697852853</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1347456.494383694</v>
+        <v>15.95929741674111</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1726633.60005414</v>
+        <v>15.98177270073504</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-586306.5071529021</v>
+        <v>15.77096343054914</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>844707.577030804</v>
+        <v>15.90565876659953</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1243403.025437152</v>
+        <v>15.94078652297276</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-509600.869159434</v>
+        <v>15.74512824711485</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>744891.1861896616</v>
+        <v>15.89025526591463</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1353564.863147383</v>
+        <v>15.92030122193227</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1033012.601205467</v>
+        <v>15.7309478086609</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>362555.9536582943</v>
+        <v>15.84116366778765</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>886921.3263556244</v>
+        <v>15.87862234427201</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-704873.3808013529</v>
+        <v>15.81927568367124</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1710313.311547469</v>
+        <v>15.9107903513339</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2588917.916952515</v>
+        <v>15.93740768490338</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1163530.374945992</v>
+        <v>15.97616041020174</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1691603.374647151</v>
+        <v>16.03270751380639</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2071264.141681025</v>
+        <v>16.05938798966834</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-527093.8334822225</v>
+        <v>15.81543619865896</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1050960.254361697</v>
+        <v>15.9752029940668</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1477587.247107886</v>
+        <v>16.01940545178895</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-403563.0032237292</v>
+        <v>15.75238800085772</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>873919.6963059898</v>
+        <v>15.83787308494394</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1742207.36236221</v>
+        <v>15.84991326162086</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1155078.288414238</v>
+        <v>15.75561802355594</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>858195.8176597399</v>
+        <v>15.81366119244877</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1232449.446223523</v>
+        <v>15.82982485968273</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-671035.9366142837</v>
+        <v>15.800659020876</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3155702.986757768</v>
+        <v>15.84910915671984</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3696811.030669577</v>
+        <v>15.85958325642788</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1394642.115486949</v>
+        <v>15.86401298699962</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1928873.094196465</v>
+        <v>15.89289243846927</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1894882.915853722</v>
+        <v>15.90342706264108</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-484689.9376128064</v>
+        <v>15.77274069224845</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>623530.7705314996</v>
+        <v>15.85373532098213</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1265583.000907088</v>
+        <v>15.87451231588969</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26628.08251344438</v>
+        <v>15.73573507550343</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>969302.5867997854</v>
+        <v>15.86141625419812</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1366212.957779865</v>
+        <v>15.88468107939583</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-736594.0657294205</v>
+        <v>15.71985270139333</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>315212.7167180184</v>
+        <v>15.81114444712398</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>723889.3048144232</v>
+        <v>15.8401665131598</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-570686.8497573471</v>
+        <v>15.79074444764713</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1566749.265805102</v>
+        <v>15.86621189550747</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2085373.066242568</v>
+        <v>15.88640252126477</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1035036.514642697</v>
+        <v>15.90519469296184</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1507118.770689059</v>
+        <v>15.95419974434059</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1751960.321930676</v>
+        <v>15.97605105790023</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-123664.9102257788</v>
+        <v>15.76781085622638</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>904294.5489940932</v>
+        <v>15.90085052122967</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1263262.802332523</v>
+        <v>15.93497816637983</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-45603.14275391516</v>
+        <v>15.74279531262527</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>903032.0539476145</v>
+        <v>15.88692632544561</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1506818.107972192</v>
+        <v>15.91627299822096</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-836242.5671101087</v>
+        <v>15.72757722026875</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>387603.115558709</v>
+        <v>15.83652199024737</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>843237.2781495828</v>
+        <v>15.87322376462604</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-515977.61336603</v>
+        <v>15.81614462123232</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1685996.775053201</v>
+        <v>15.90662599286501</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2517859.918553952</v>
+        <v>15.93258856862217</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1278693.785475407</v>
+        <v>15.97257668637132</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1778169.117406653</v>
+        <v>16.02807846376131</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2039643.51271834</v>
+        <v>16.0540381786821</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-182172.1142350023</v>
+        <v>15.81268118648472</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1066426.562615603</v>
+        <v>15.97082489106324</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1498519.369186503</v>
+        <v>16.01398232922032</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1263021.213713961</v>
+        <v>15.73906089594529</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-1093272.729004167</v>
+        <v>15.80648292147226</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-210192.0509317814</v>
+        <v>15.81851397704644</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2076971.94303166</v>
+        <v>15.74036781614747</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-810230.4906553653</v>
+        <v>15.78183556364696</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-620208.5567625714</v>
+        <v>15.79768761232704</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-1613123.939677896</v>
+        <v>15.77544190840533</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>831583.2208018493</v>
+        <v>15.8102233740103</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1347884.016285417</v>
+        <v>15.82078012092285</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>190083.1584326235</v>
+        <v>15.81828545682813</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>390294.9151162007</v>
+        <v>15.84008289293382</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>856698.4826522163</v>
+        <v>15.85192653233998</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>896133.142061368</v>
+        <v>15.74892179825619</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>954602.8037629824</v>
+        <v>15.80758043256591</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1592840.752078459</v>
+        <v>15.8281182826181</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-478246.5819938648</v>
+        <v>15.71886488809547</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>364549.4307037746</v>
+        <v>15.81916277008746</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1166287.195008688</v>
+        <v>15.84214273158431</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1154521.27294266</v>
+        <v>15.70280523178443</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-604375.3918780704</v>
+        <v>15.77053950524561</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>148502.1975197227</v>
+        <v>15.79890672368071</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1326214.526665593</v>
+        <v>15.75917069081104</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>259823.2167011111</v>
+        <v>15.81526781394435</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1283160.478237089</v>
+        <v>15.83536330131508</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-19517.92551133068</v>
+        <v>15.84315278955374</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>831179.4575830473</v>
+        <v>15.88189840896361</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1605972.36444739</v>
+        <v>15.90471008299684</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-465580.7262655467</v>
+        <v>15.73510656844294</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>409616.8457222077</v>
+        <v>15.83582192239132</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>889310.2564737378</v>
+        <v>15.86964144637945</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-104231.1803205698</v>
+        <v>15.72560284912893</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>569296.2876830063</v>
+        <v>15.84130520352106</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1302294.218952693</v>
+        <v>15.86975283391041</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1018803.963742997</v>
+        <v>15.71131773520309</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-283298.1572368356</v>
+        <v>15.79360002167702</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>337309.2252852205</v>
+        <v>15.82884811982879</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-884591.0370670817</v>
+        <v>15.78231405145289</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>838168.9493687727</v>
+        <v>15.85079961312744</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1887607.733012504</v>
+        <v>15.876077720519</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>603551.4327316229</v>
+        <v>15.90357220595763</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1199089.137421524</v>
+        <v>15.94719280246707</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1895991.759878483</v>
+        <v>15.97380047581592</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-199910.9813380188</v>
+        <v>15.77617200933974</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>751064.9159594864</v>
+        <v>15.89765490962188</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1284758.781531952</v>
+        <v>15.93971058987565</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1237636.339177901</v>
+        <v>15.76018666452354</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>205369.4257465176</v>
+        <v>15.83092504807678</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1351962.938066321</v>
+        <v>15.84292288875918</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1622675.57337795</v>
+        <v>15.76440805663164</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1310096.191491139</v>
+        <v>15.81025825945709</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1633042.926204012</v>
+        <v>15.82606005761684</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-515524.7905833905</v>
+        <v>15.79993534974588</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3920352.681767618</v>
+        <v>15.83835956494682</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4593427.539884234</v>
+        <v>15.84890723335594</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1042235.618076989</v>
+        <v>15.85179703088444</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1451419.747901909</v>
+        <v>15.87573561938481</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1617875.206517311</v>
+        <v>15.88738913880439</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-575162.5427138585</v>
+        <v>15.77883062495895</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-31313.95458851868</v>
+        <v>15.84298133321246</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>752492.7364331502</v>
+        <v>15.86349881410557</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>124775.5018069673</v>
+        <v>15.75529798151987</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1382182.333095343</v>
+        <v>15.85988569722666</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1892763.977620868</v>
+        <v>15.88253152169292</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-694000.9154642002</v>
+        <v>15.7441302986067</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>592980.4987176507</v>
+        <v>15.81752707461548</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1076147.166065221</v>
+        <v>15.84549004962958</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-325755.0486414916</v>
+        <v>15.80074600785657</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2160360.68118914</v>
+        <v>15.86156688304323</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2870908.888361823</v>
+        <v>15.88137270479307</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1291332.590139893</v>
+        <v>15.89889053707721</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2147565.203386918</v>
+        <v>15.94044018504779</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2613102.802380078</v>
+        <v>15.96275743874993</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>272574.0643347986</v>
+        <v>15.78657597365501</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1338295.918396543</v>
+        <v>15.89432914376064</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1716676.16683361</v>
+        <v>15.9277435640433</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>132960.6713372125</v>
+        <v>15.75621586895795</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1084850.675169084</v>
+        <v>15.87611122158927</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1777083.761937567</v>
+        <v>15.90421067583135</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-913928.1443861864</v>
+        <v>15.74655311895498</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>295878.1410006353</v>
+        <v>15.83443901332942</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>852363.096540097</v>
+        <v>15.86925899719528</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-471418.2964651763</v>
+        <v>15.81782676342119</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1857346.440611427</v>
+        <v>15.89098333343812</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2870886.84369769</v>
+        <v>15.91595998045317</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1350591.917169141</v>
+        <v>15.95195004363208</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2064233.150928635</v>
+        <v>15.99838780144233</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2529067.695994958</v>
+        <v>16.02443746867293</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27434.67341924369</v>
+        <v>15.82037893790392</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1270941.004540796</v>
+        <v>15.94883564441099</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1783465.252731679</v>
+        <v>15.99044334607361</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-938570.7021496149</v>
+        <v>15.73561103365757</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-56505.53259076903</v>
+        <v>15.84584223163058</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>629608.7232944733</v>
+        <v>15.86158936358011</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-698701.5014028191</v>
+        <v>15.74252340864341</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>818416.7352793647</v>
+        <v>15.81844089125332</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1139076.113261839</v>
+        <v>15.83938902517192</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-233544.8622990652</v>
+        <v>15.79851069339162</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2290792.833099109</v>
+        <v>15.86196472200666</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2675355.873888212</v>
+        <v>15.87567625412198</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>679465.186637135</v>
+        <v>15.87656827962789</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>803293.294744417</v>
+        <v>15.91526073519452</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>862719.9824954499</v>
+        <v>15.92950894866108</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-492138.4258438046</v>
+        <v>15.76058190086622</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-296978.3040185778</v>
+        <v>15.86547818205909</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>138466.7809990813</v>
+        <v>15.89255294621053</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-37517.65267396213</v>
+        <v>15.74029371888733</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>812219.4691576642</v>
+        <v>15.90241627327039</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>987068.2464083483</v>
+        <v>15.93223676002505</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-556187.9818986605</v>
+        <v>15.72645867332105</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>481286.0058073072</v>
+        <v>15.84565244024261</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>671913.8697046649</v>
+        <v>15.88266109340512</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-336919.1515690534</v>
+        <v>15.81425027758868</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1358982.291811342</v>
+        <v>15.91293196313638</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1553150.906300958</v>
+        <v>15.93878197938742</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>723767.7544623184</v>
+        <v>15.96469606118522</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1039617.217414783</v>
+        <v>16.03016788321848</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1200922.818891527</v>
+        <v>16.05862749458672</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-43599.14828487001</v>
+        <v>15.79012528458616</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>817045.39629261</v>
+        <v>15.96234299642285</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>961590.8743590845</v>
+        <v>16.00612643778931</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>71416.09761658228</v>
+        <v>15.74720575967056</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>728680.0979803734</v>
+        <v>15.93210589527266</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1030457.284271955</v>
+        <v>15.96980770098095</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-584882.7587138317</v>
+        <v>15.73493365855791</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>324009.1515855372</v>
+        <v>15.87585018967745</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>549508.7183276054</v>
+        <v>15.9227661056393</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-266462.7404474585</v>
+        <v>15.84461239461612</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1198188.42840967</v>
+        <v>15.96176557828505</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1602370.317347198</v>
+        <v>15.9950904515218</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>758943.2095885255</v>
+        <v>16.04816605670892</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1082740.78869495</v>
+        <v>16.12141568294485</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1234512.416823145</v>
+        <v>16.15508923720081</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-120021.3379026656</v>
+        <v>15.8454428427484</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>775517.9768297056</v>
+        <v>16.04863505127996</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>950834.3803801078</v>
+        <v>16.10412650301179</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-555259.6785353348</v>
+        <v>15.70330464248457</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-975282.5113801179</v>
+        <v>15.80340012186115</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-451323.980739923</v>
+        <v>15.81983159572724</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-834518.1982573621</v>
+        <v>15.70615201634129</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-574863.4691590196</v>
+        <v>15.76994820665716</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-384797.2386396258</v>
+        <v>15.79190398874476</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-820189.7168156086</v>
+        <v>15.76013014428225</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>71835.02591365595</v>
+        <v>15.81356777681875</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>351468.101984173</v>
+        <v>15.82806719167158</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-99614.57393724036</v>
+        <v>15.82698097561133</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>145049.2643250664</v>
+        <v>15.85918389547643</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>210363.4441206083</v>
+        <v>15.873231844754</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-463279.4044107269</v>
+        <v>15.72142183563057</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-635367.3328964416</v>
+        <v>15.81102074358179</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-360565.7857318727</v>
+        <v>15.83937681697454</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-252613.4484521089</v>
+        <v>15.68177436944995</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>97421.24084036802</v>
+        <v>15.83072494119853</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>520341.7195113278</v>
+        <v>15.86239074630165</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-557693.9449591048</v>
+        <v>15.6604531119916</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-190407.0208834248</v>
+        <v>15.76401393473702</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>216098.0111591479</v>
+        <v>15.80345601014495</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-566995.167733978</v>
+        <v>15.74609099823676</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>323938.2278129841</v>
+        <v>15.83181301790576</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>802314.2603259957</v>
+        <v>15.85962188069261</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>226395.3587489602</v>
+        <v>15.87517308506347</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>521158.9116366277</v>
+        <v>15.93198505864696</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>760619.4236880122</v>
+        <v>15.96048392549081</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-288945.4367505981</v>
+        <v>15.71298014503967</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>221491.8526045035</v>
+        <v>15.86545586400852</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>442353.5296728653</v>
+        <v>15.91225059200149</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-219851.7081961274</v>
+        <v>15.69991355766175</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>149192.1618989011</v>
+        <v>15.87165930283087</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>562501.1635132155</v>
+        <v>15.9109250974685</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-572406.3911308963</v>
+        <v>15.68075797600084</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-73581.50761438791</v>
+        <v>15.80601362875299</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>266528.6627243005</v>
+        <v>15.8550883563744</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-456456.220427019</v>
+        <v>15.78777132263464</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>526747.8202805944</v>
+        <v>15.89195041721866</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1030995.584283956</v>
+        <v>15.92699210260936</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>480763.6780607653</v>
+        <v>15.9716174882324</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>791412.8148243214</v>
+        <v>16.03618632049817</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>925278.5909027443</v>
+        <v>16.06978454621257</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-117182.5959251924</v>
+        <v>15.78120505131336</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>416916.5644286195</v>
+        <v>15.96456563739614</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>699842.1753095936</v>
+        <v>16.02281476214425</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1715965.382106512</v>
+        <v>15.71460966323855</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1563169.822675727</v>
+        <v>15.7947919548053</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-874760.0813457501</v>
+        <v>15.80838815217597</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1781701.324701115</v>
+        <v>15.71563030976179</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-783808.3970878732</v>
+        <v>15.76698985501317</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-708683.7435422001</v>
+        <v>15.78491598097194</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2100110.974838385</v>
+        <v>15.75771332172702</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17202.9437803893</v>
+        <v>15.80075113979578</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>349152.8839014301</v>
+        <v>15.81267029117663</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-658847.2899809609</v>
+        <v>15.80677188271756</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-405352.4657697444</v>
+        <v>15.83380841538362</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-283166.4988335998</v>
+        <v>15.84703518296043</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1022013.784636541</v>
+        <v>15.72358591881334</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-1054678.657505322</v>
+        <v>15.7957289256575</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-795424.8532410142</v>
+        <v>15.81892193347853</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1025137.575899418</v>
+        <v>15.6886387659044</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-818295.1426355232</v>
+        <v>15.80732491213752</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-209437.6261718398</v>
+        <v>15.83310826670744</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1091886.620483469</v>
+        <v>15.67009143239563</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1007900.144593351</v>
+        <v>15.75262904264796</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-450961.3082718985</v>
+        <v>15.78447941334035</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1415298.392161708</v>
+        <v>15.73711677800127</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-478166.3778049723</v>
+        <v>15.8054882388209</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>277934.1817501858</v>
+        <v>15.82799874907172</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-480242.581337223</v>
+        <v>15.83413438123095</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>257227.6225636679</v>
+        <v>15.8812202609437</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>779130.0446076861</v>
+        <v>15.90673937767205</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-853415.6943517693</v>
+        <v>15.70601443857114</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-522429.2238466524</v>
+        <v>15.82769287747036</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-256312.5745827543</v>
+        <v>15.86559903733926</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-782294.986099779</v>
+        <v>15.6894641942715</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-631236.4204953639</v>
+        <v>15.82578498037256</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>251593.1647080701</v>
+        <v>15.85784916689593</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1072124.097304491</v>
+        <v>15.67244209783576</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-832046.1468739002</v>
+        <v>15.77167585155479</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-84298.08723910488</v>
+        <v>15.81141804140683</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1172442.476331699</v>
+        <v>15.7564420589881</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-133302.2325859858</v>
+        <v>15.83902699543699</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1003201.445356065</v>
+        <v>15.86748866582712</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-69068.96075993768</v>
+        <v>15.89459017953848</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>605825.2983506732</v>
+        <v>15.94742293988015</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1155555.552696854</v>
+        <v>15.97723994868604</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-835877.2499032082</v>
+        <v>15.74433880928592</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-263189.4036768883</v>
+        <v>15.88986949294818</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>210992.4392142887</v>
+        <v>15.93719002568192</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1026014.212327546</v>
+        <v>15.7735782582773</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>157422.4809805448</v>
+        <v>15.87737310150718</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1349890.03010146</v>
+        <v>15.89255834913452</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1158909.384666828</v>
+        <v>15.78589002151515</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1289861.137012978</v>
+        <v>15.85821061899783</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1828283.600536366</v>
+        <v>15.87844514260302</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-596053.8973829296</v>
+        <v>15.83732503012975</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3006601.148729152</v>
+        <v>15.89779758359975</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>3747735.056994202</v>
+        <v>15.91116491282168</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1226468.120653535</v>
+        <v>15.92601687055301</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1654842.862004264</v>
+        <v>15.96213405525245</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1640778.340462268</v>
+        <v>15.97490849509045</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-97591.17465537245</v>
+        <v>15.81795950100141</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>757809.9256946795</v>
+        <v>15.91774007053197</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1704236.409646396</v>
+        <v>15.94414040824373</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-356324.2557802566</v>
+        <v>15.7536077853689</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>344569.8422166351</v>
+        <v>15.9056147310621</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>697985.6476710371</v>
+        <v>15.93405210884867</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-786805.6214358937</v>
+        <v>15.74467508928049</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>165421.390246789</v>
+        <v>15.85730993243972</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>440970.6529239762</v>
+        <v>15.89271134729748</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-729664.2574699308</v>
+        <v>15.82652958040179</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>996645.9747554223</v>
+        <v>15.91982756568489</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1359129.559905919</v>
+        <v>15.94467939365574</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>577741.9020773949</v>
+        <v>15.97777433591459</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>850414.9230781998</v>
+        <v>16.03855027983954</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1017019.238491025</v>
+        <v>16.06412605095091</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-215370.3093204248</v>
+        <v>15.81527656498232</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>606874.5752527665</v>
+        <v>15.9776868030037</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>831368.1752211567</v>
+        <v>16.01999253559027</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-214975.4799648413</v>
+        <v>15.75895913181943</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>433557.1952650612</v>
+        <v>15.93219806734014</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>925960.9289506358</v>
+        <v>15.96792832399412</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-647346.2267569</v>
+        <v>15.75153372208628</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>336004.6819095663</v>
+        <v>15.88445094286864</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>682876.4857093857</v>
+        <v>15.92903850115644</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-429209.8873435117</v>
+        <v>15.85357485215522</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1229652.988059698</v>
+        <v>15.96411799888636</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1840215.267101187</v>
+        <v>15.99590307335755</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>851376.0457668313</v>
+        <v>16.05372414922675</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1182878.024994843</v>
+        <v>16.12186494982714</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1370354.067136779</v>
+        <v>16.15225500283492</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-150786.0627014978</v>
+        <v>15.86493498700004</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>768893.5299956645</v>
+        <v>16.05623185898109</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1145416.096482003</v>
+        <v>16.10943641264953</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-906908.1896603953</v>
+        <v>15.7071318873667</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1019109.559033532</v>
+        <v>15.79306442496205</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-521400.9282222123</v>
+        <v>15.80657350994959</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1226406.278004486</v>
+        <v>15.70371310749207</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1292142.813869501</v>
+        <v>15.75900828518839</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1007611.597013859</v>
+        <v>15.7770786793591</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-1226090.26098968</v>
+        <v>15.75142590249106</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-303644.010385925</v>
+        <v>15.79758764592966</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>78272.98433502163</v>
+        <v>15.80940775683103</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-345934.9659843053</v>
+        <v>15.80159474727885</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-258047.0120570167</v>
+        <v>15.82936320449195</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26616.75355130257</v>
+        <v>15.84153733530482</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1172518.619359514</v>
+        <v>15.7081417410081</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1023153.819349869</v>
+        <v>15.78650144349305</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-718116.5106720151</v>
+        <v>15.8095590986632</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-646192.9158730413</v>
+        <v>15.68268170182102</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-274897.6580908094</v>
+        <v>15.8103113675893</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>250624.8077396259</v>
+        <v>15.83688409789586</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-882276.1820871617</v>
+        <v>15.65729047533204</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-764944.6711113257</v>
+        <v>15.74659524012593</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-206293.3262797777</v>
+        <v>15.77965544854643</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1022914.14219622</v>
+        <v>15.73241163643543</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-245013.8069603128</v>
+        <v>15.80614394249504</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>401698.1434313183</v>
+        <v>15.82936986076657</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-270887.9565537</v>
+        <v>15.83264765120011</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>56642.46816460251</v>
+        <v>15.88114525062795</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>449977.6270908263</v>
+        <v>15.90632901752024</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-772151.1680617428</v>
+        <v>15.69014233103379</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-234541.3427559623</v>
+        <v>15.822400757228</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>123469.5617258466</v>
+        <v>15.8611961118078</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-401787.1694646867</v>
+        <v>15.69279420711381</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-87647.03519849069</v>
+        <v>15.84022838203722</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>477986.7973039709</v>
+        <v>15.87308749613539</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-785875.4398035299</v>
+        <v>15.66835359411471</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-562371.0956741848</v>
+        <v>15.77658361129571</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-44527.63014523275</v>
+        <v>15.81762026806403</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-712066.9409615571</v>
+        <v>15.76232384678775</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>108736.040057541</v>
+        <v>15.85216148531738</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>849566.1018472984</v>
+        <v>15.88134953565389</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>100773.0455056085</v>
+        <v>15.90783266225443</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>409378.9895277235</v>
+        <v>15.96331924475533</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>847863.0617427714</v>
+        <v>15.99299305945513</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-450708.7331466782</v>
+        <v>15.74138270791135</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>77722.54440784271</v>
+        <v>15.90055199943246</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>446027.1167613069</v>
+        <v>15.94875521812465</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1877658.93736836</v>
+        <v>15.73921179585259</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1678022.03086628</v>
+        <v>15.82590311584529</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1139078.533432852</v>
+        <v>15.83782161712062</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1738607.607708775</v>
+        <v>15.73899052012942</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1452458.125348302</v>
+        <v>15.79722473328878</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-1142553.025093114</v>
+        <v>15.81322213192701</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1997077.102705559</v>
+        <v>15.7853379036241</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-138866.1678530238</v>
+        <v>15.83391626207227</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>210205.8293809655</v>
+        <v>15.84417989961915</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-523970.8882294875</v>
+        <v>15.8417348704847</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-549381.9339450352</v>
+        <v>15.87110814729312</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-396966.6183897585</v>
+        <v>15.88219264631173</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1603570.1163041</v>
+        <v>15.7480598841275</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1658160.230774526</v>
+        <v>15.82954765204381</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1356416.317365029</v>
+        <v>15.84990831111149</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-166399.9190416634</v>
+        <v>15.74003463090782</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>627723.7979669197</v>
+        <v>15.8679102912006</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>848690.0782254867</v>
+        <v>15.89125938253756</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-734969.0532437874</v>
+        <v>15.72150843377522</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>106078.9093186954</v>
+        <v>15.81371419365059</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>407958.8678060875</v>
+        <v>15.84278278793758</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-621530.9233010758</v>
+        <v>15.79374775436292</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1143403.898166734</v>
+        <v>15.86991769942405</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1473827.652308796</v>
+        <v>15.89004539251201</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>687929.6763509746</v>
+        <v>15.90589958598369</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1054145.304847916</v>
+        <v>15.95596652156246</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1277166.277387924</v>
+        <v>15.97900114989294</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-215620.0676929844</v>
+        <v>15.76486921144299</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>624127.3127260469</v>
+        <v>15.89963157965044</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>888587.5687772407</v>
+        <v>15.93347455931779</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-15074.95726054738</v>
+        <v>15.74854723437593</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>733176.7725382957</v>
+        <v>15.89537930814405</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1192311.279549098</v>
+        <v>15.92495821396141</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-761563.4181571995</v>
+        <v>15.73060035722606</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>187407.1772615447</v>
+        <v>15.84093112807669</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>545978.3162693291</v>
+        <v>15.87785768861669</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-479673.6351411928</v>
+        <v>15.82112475844741</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1286625.719053191</v>
+        <v>15.91271120639085</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1932125.51362426</v>
+        <v>15.93873893149771</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>976248.1346774878</v>
+        <v>15.97672699552237</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1353325.33245416</v>
+        <v>16.0334160874687</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1594154.498736165</v>
+        <v>16.06068519020489</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-222574.5319566773</v>
+        <v>15.81265506414067</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>834924.586639519</v>
+        <v>15.97320721947749</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1102665.320284863</v>
+        <v>16.01625158911512</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-638956.0409198134</v>
+        <v>15.72386718259751</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-594578.7995090366</v>
+        <v>15.80061970919379</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-67784.32984650045</v>
+        <v>15.81234068252429</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1044792.063623937</v>
+        <v>15.72183347378758</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-710753.1017610832</v>
+        <v>15.77067537031537</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-385776.315243482</v>
+        <v>15.78638026552863</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-853023.7431289296</v>
+        <v>15.76457215908781</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>815210.0088510826</v>
+        <v>15.80535679340945</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>1181727.005898346</v>
+        <v>15.81553758123548</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>63806.67952140828</v>
+        <v>15.81025006089673</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>283445.7960212904</v>
+        <v>15.834696444353</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>514040.8312198672</v>
+        <v>15.84509009380671</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-556813.2407017963</v>
+        <v>15.72755154894228</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-526946.0377556302</v>
+        <v>15.79653972561963</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-79155.39722979741</v>
+        <v>15.81658746176863</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-762270.7675822672</v>
+        <v>15.69056461314857</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-644807.8243747542</v>
+        <v>15.80439598814582</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-82220.00358524162</v>
+        <v>15.82739378357888</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-949047.4604920804</v>
+        <v>15.66750779877863</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-1045874.631700997</v>
+        <v>15.7463069960429</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-377691.3930121567</v>
+        <v>15.77494895451767</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1233555.185316694</v>
+        <v>15.73529554032137</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-521104.1451362172</v>
+        <v>15.800360375023</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>228387.5448771158</v>
+        <v>15.82034513793795</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-420055.9554004885</v>
+        <v>15.82345274771237</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-142467.8232585122</v>
+        <v>15.86622987659321</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>374757.7103387828</v>
+        <v>15.88796590128347</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-750542.8760735814</v>
+        <v>15.69756793629903</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-465949.3210646225</v>
+        <v>15.81409714290866</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-50257.25963512587</v>
+        <v>15.84760199470721</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-145714.368418735</v>
+        <v>15.70820167589932</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>193385.2169749269</v>
+        <v>15.83989502277658</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>674475.5996243922</v>
+        <v>15.86870655950001</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-809129.5426486846</v>
+        <v>15.68635645462947</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-455242.4733116396</v>
+        <v>15.78220213903518</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12949.57331938725</v>
+        <v>15.81820056511058</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-534598.8482449068</v>
+        <v>15.77101306924964</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>597399.3591985396</v>
+        <v>15.85057840637659</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1337742.032086627</v>
+        <v>15.8760784283714</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>295548.4571079124</v>
+        <v>15.90183436904259</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>631083.4099628624</v>
+        <v>15.95080374666497</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1002708.601953485</v>
+        <v>15.9765400552344</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-255348.9548575479</v>
+        <v>15.75422659394715</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>216520.8085897588</v>
+        <v>15.89496297711545</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>540329.0337075349</v>
+        <v>15.93711757607944</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-982948.7019731379</v>
+        <v>15.69134303303055</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1456824.490695751</v>
+        <v>15.76768115065405</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1385031.058184285</v>
+        <v>15.77911283459807</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-734073.1223509737</v>
+        <v>15.68454635491493</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1415474.629887669</v>
+        <v>15.7317766591397</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1341138.59201534</v>
+        <v>15.74711637561197</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1132008.868414666</v>
+        <v>15.72848935715062</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-730625.7580364378</v>
+        <v>15.76790757589012</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-717749.8955049823</v>
+        <v>15.77771307698703</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-848777.2708873281</v>
+        <v>15.76199499330298</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-964466.2224923137</v>
+        <v>15.78608263042257</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-791733.6919621787</v>
+        <v>15.79687043316843</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-750464.6902940811</v>
+        <v>15.67908624858408</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1123694.656469191</v>
+        <v>15.74630897470602</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1033225.801500709</v>
+        <v>15.765713814467</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-753099.0406953564</v>
+        <v>15.65790788800078</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-864940.12504759</v>
+        <v>15.77162603975975</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-688313.588448715</v>
+        <v>15.79447811052698</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-636435.5397142041</v>
+        <v>15.62950722698524</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1041038.284076252</v>
+        <v>15.70665719353566</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-754691.5344645589</v>
+        <v>15.73507681309704</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1119940.124930509</v>
+        <v>15.69881526672381</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-900359.5599872003</v>
+        <v>15.76245590544438</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-606334.6164641826</v>
+        <v>15.78215405984419</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-761221.6665574496</v>
+        <v>15.77464646027603</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-550020.7398415393</v>
+        <v>15.81724941881334</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-301012.1370258305</v>
+        <v>15.83995462441231</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-726090.5924607062</v>
+        <v>15.64794884696423</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-714490.2719475181</v>
+        <v>15.76295301472359</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-605053.436502774</v>
+        <v>15.79586496941818</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-81629.37338084934</v>
+        <v>15.67669307139361</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-62973.07998677902</v>
+        <v>15.80868417558917</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>207672.9206322797</v>
+        <v>15.83749796826327</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-512834.3830561036</v>
+        <v>15.64932552897396</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-566607.378456019</v>
+        <v>15.74389201223944</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-292541.1256769472</v>
+        <v>15.77984125755579</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-449066.1499146088</v>
+        <v>15.73607173983748</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>91081.63581031383</v>
+        <v>15.81452950326061</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>553642.3061742807</v>
+        <v>15.83987001522995</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-13932.95612250862</v>
+        <v>15.85567343566837</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>175348.8534466193</v>
+        <v>15.90460432173504</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>422594.6483869589</v>
+        <v>15.93145520308738</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-202504.0859011428</v>
+        <v>15.70681911024988</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-50319.38623038569</v>
+        <v>15.84656073902207</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>84430.51777626915</v>
+        <v>15.88830828500575</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>77581.85145682177</v>
+        <v>15.74457539082246</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>530754.1229917785</v>
+        <v>15.82299531376901</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>1424282.601675869</v>
+        <v>15.83654408545763</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1195964.303892465</v>
+        <v>15.74678203181035</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>197473.6526894044</v>
+        <v>15.7959350287732</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>426980.9049246556</v>
+        <v>15.81387161136723</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-292631.6180991738</v>
+        <v>15.78763836145375</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2171507.820534755</v>
+        <v>15.82884857623902</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2686057.53845611</v>
+        <v>15.84076609270359</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>911598.6358945161</v>
+        <v>15.84347642576582</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1225301.412629222</v>
+        <v>15.86882584252744</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1440410.886992014</v>
+        <v>15.88170591399475</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>455269.0356654216</v>
+        <v>15.76261653491373</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>869062.0967424066</v>
+        <v>15.83189333907147</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1465512.290241964</v>
+        <v>15.85519439759922</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-245838.2186185772</v>
+        <v>15.71756051665244</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>158677.4817892936</v>
+        <v>15.83391504631777</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>633551.2882811683</v>
+        <v>15.85983926366653</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-1083103.851178116</v>
+        <v>15.69894834277196</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-897392.2816520779</v>
+        <v>15.77860936799068</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-525233.1170561352</v>
+        <v>15.81070671659593</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1121706.95451256</v>
+        <v>15.76476212159581</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-75620.04205746585</v>
+        <v>15.83073934885411</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>514330.2828733465</v>
+        <v>15.85344390724888</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-124791.8847519841</v>
+        <v>15.86715112334939</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>266195.9255898012</v>
+        <v>15.9119136479083</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>624367.5105261973</v>
+        <v>15.93694114705299</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-513696.9190087807</v>
+        <v>15.74179278575352</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-18171.15181581923</v>
+        <v>15.85971885613243</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>230302.6384592699</v>
+        <v>15.89805001184009</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>78665.90020455752</v>
+        <v>15.72603615028988</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>483250.8226669398</v>
+        <v>15.86013433892209</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>978032.9580623474</v>
+        <v>15.89220642224639</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-814906.4284383338</v>
+        <v>15.70950162574631</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-347453.1549610179</v>
+        <v>15.80596335504877</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-22347.59536314368</v>
+        <v>15.84581860256148</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-600610.2432858723</v>
+        <v>15.79200475392063</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>690958.301315595</v>
+        <v>15.87228730769427</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1347262.338624099</v>
+        <v>15.90082626268905</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>600205.2815369732</v>
+        <v>15.93715981591291</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>967908.0844488326</v>
+        <v>15.98764338975369</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1236037.291447415</v>
+        <v>16.01691706622429</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-97366.94572992341</v>
+        <v>15.78961398101142</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>520964.708694077</v>
+        <v>15.93149936569629</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>826374.2365717567</v>
+        <v>15.97910390101348</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-283642.7557063985</v>
+        <v>15.76119474351884</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1368241.333850406</v>
+        <v>15.84007362628762</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>2409283.890845165</v>
+        <v>15.85179809394501</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-993474.1794845033</v>
+        <v>15.76262826425785</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1023501.242041649</v>
+        <v>15.81517480137301</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1804302.53855572</v>
+        <v>15.83083867857391</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-96028.75443814596</v>
+        <v>15.80438426259721</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3584534.81923177</v>
+        <v>15.84820145213087</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>4527026.70188727</v>
+        <v>15.85841590002961</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2173341.925663446</v>
+        <v>15.86122721994528</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2254774.712413979</v>
+        <v>15.88747197112512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2751705.815066955</v>
+        <v>15.89804915365278</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-435749.1377560077</v>
+        <v>15.77584605973449</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1086201.274925702</v>
+        <v>15.84973520189165</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1959643.9999714</v>
+        <v>15.8697758843233</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-399925.4297312584</v>
+        <v>15.74105984155341</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>550788.635395818</v>
+        <v>15.85734543220802</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>1005546.127486411</v>
+        <v>15.88014405929907</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-993307.5595376004</v>
+        <v>15.72362762540854</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-172481.6653251879</v>
+        <v>15.80690971641983</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>354876.4528717574</v>
+        <v>15.83526640200229</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-981265.6518631934</v>
+        <v>15.78969964380069</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>828415.4872559085</v>
+        <v>15.85845537502913</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1458654.648169513</v>
+        <v>15.87829476958554</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>665502.6406927847</v>
+        <v>15.89229369388895</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>976802.7444626063</v>
+        <v>15.93711588861805</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1330896.480059702</v>
+        <v>15.95901375279171</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-549850.9711854929</v>
+        <v>15.76341737785972</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>467140.452326479</v>
+        <v>15.88570269415101</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>911412.6288981208</v>
+        <v>15.91900354829503</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-491766.5641289515</v>
+        <v>15.74595610621552</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>458717.7549826379</v>
+        <v>15.87976141759396</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1122241.026031073</v>
+        <v>15.90820689231011</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1076576.353822421</v>
+        <v>15.72911917873017</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-61631.94365504765</v>
+        <v>15.8291660771812</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>566296.9490462631</v>
+        <v>15.86466160555409</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-880938.8310537557</v>
+        <v>15.81203064337861</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1029596.99987747</v>
+        <v>15.89504893378885</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1997256.428840021</v>
+        <v>15.92023974992335</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>825975.0276143454</v>
+        <v>15.95382106354245</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1229215.542752261</v>
+        <v>16.00484581280368</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1722669.352711325</v>
+        <v>16.03078204476151</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-614204.8243376011</v>
+        <v>15.80376022405662</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>620203.5025426858</v>
+        <v>15.94986582149197</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1131314.71144037</v>
+        <v>15.99155857445518</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-1281226.660780724</v>
+        <v>15.77289712850712</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>655407.1834520932</v>
+        <v>15.84413510491963</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2456765.592064259</v>
+        <v>15.85611420635591</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-1659563.514400904</v>
+        <v>15.77922595522895</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2222331.041216394</v>
+        <v>15.82641145350818</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2874426.670806192</v>
+        <v>15.84219200376083</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-658751.7427244688</v>
+        <v>15.81439343218346</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>5000649.542937448</v>
+        <v>15.85392083704086</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>6162493.247707985</v>
+        <v>15.86449726051605</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1778602.861584162</v>
+        <v>15.87193267012512</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2275966.886716885</v>
+        <v>15.89621427971892</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2469025.91760914</v>
+        <v>15.90742372544538</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-385357.457128624</v>
+        <v>15.79889129441481</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>964925.2303805347</v>
+        <v>15.86466473513989</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2494691.968218522</v>
+        <v>15.8852733310669</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-611178.0011617768</v>
+        <v>15.75872394758121</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>698505.8839795871</v>
+        <v>15.86363767715208</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1370726.226534771</v>
+        <v>15.88606768791639</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1358045.919557627</v>
+        <v>15.74919590347851</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-38637.36469634867</v>
+        <v>15.82398245110802</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>511942.2430363224</v>
+        <v>15.85170994894971</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-1310236.751826393</v>
+        <v>15.80557222947653</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1409830.902532977</v>
+        <v>15.86755098550894</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2264962.199172135</v>
+        <v>15.88722486697974</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>704046.7710296983</v>
+        <v>15.90721586256844</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1398819.170066361</v>
+        <v>15.94899294096749</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1939982.064969477</v>
+        <v>15.97046432296989</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-666116.0010723373</v>
+        <v>15.79522892798937</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>685625.1253996029</v>
+        <v>15.90450672984451</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1207587.456890348</v>
+        <v>15.93783076336141</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-387129.9184687021</v>
+        <v>15.75951471391039</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>769864.9264514176</v>
+        <v>15.87953732578429</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1559859.469378642</v>
+        <v>15.90732854745034</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1189459.621277197</v>
+        <v>15.75149648776901</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>257634.1953926916</v>
+        <v>15.84061164059153</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>835604.0027596374</v>
+        <v>15.87508319027317</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-986461.8097874464</v>
+        <v>15.82224882138899</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1756722.202566686</v>
+        <v>15.89642452492939</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2866584.110999259</v>
+        <v>15.92118705547813</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1273929.32413435</v>
+        <v>15.95920864941757</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1913744.075908453</v>
+        <v>16.0058879086915</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2442166.092367533</v>
+        <v>16.03102913146627</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-544307.6770918212</v>
+        <v>15.82824851319378</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1009045.870017254</v>
+        <v>15.95798212302961</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1696552.426478945</v>
+        <v>15.99937601015978</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15501.19667449725</v>
+        <v>15.77595054032535</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1595238.236160857</v>
+        <v>15.82594204154419</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4194093.036507756</v>
+        <v>15.83487866490439</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>57453.24803044941</v>
+        <v>15.780065253656</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>5146946.562043576</v>
+        <v>15.81167588359093</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6023535.301735724</v>
+        <v>15.82342983366136</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1029335.410627583</v>
+        <v>15.80464283464603</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>8223922.4786845</v>
+        <v>15.83116249268837</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9948920.594283786</v>
+        <v>15.83904763074188</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>3218373.841852009</v>
+        <v>15.84180558694352</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3698198.665944084</v>
+        <v>15.85820961487949</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4317297.807081872</v>
+        <v>15.86687225726057</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1143129.902556848</v>
+        <v>15.79045402002374</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>1817184.44007332</v>
+        <v>15.83485211136408</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>4148420.68494061</v>
+        <v>15.85019170734092</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>415705.1516369818</v>
+        <v>15.76713174852882</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1992350.539119583</v>
+        <v>15.84116719840015</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>3140828.16860219</v>
+        <v>15.85801420339192</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>758293.2084695994</v>
+        <v>15.75979815123981</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2310628.953881009</v>
+        <v>15.81077920688598</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3285931.305670258</v>
+        <v>15.8315721947619</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-652321.266099961</v>
+        <v>15.79941888785625</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2926352.683332585</v>
+        <v>15.84167696515771</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4445409.601343819</v>
+        <v>15.85645713277855</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1551685.51175272</v>
+        <v>15.86813460707843</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2776211.646454953</v>
+        <v>15.89695166285498</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>3686984.630068532</v>
+        <v>15.91346868267781</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-112796.3602950163</v>
+        <v>15.78855579031578</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1417923.132112016</v>
+        <v>15.8637905374626</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2339789.697047046</v>
+        <v>15.88877853741328</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>380757.7667117955</v>
+        <v>15.76837664256309</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1676170.630865869</v>
+        <v>15.85343954362443</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2755354.71354488</v>
+        <v>15.87423328913067</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>555123.5487680756</v>
+        <v>15.76227767812558</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2367452.497653005</v>
+        <v>15.82366914054168</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>3138025.370509346</v>
+        <v>15.84943147864442</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-306363.3077260846</v>
+        <v>15.81243486977558</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3430960.162833879</v>
+        <v>15.86355906129036</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>5053163.943201566</v>
+        <v>15.8820847697133</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2463743.131834715</v>
+        <v>15.90731038397317</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3355656.529553547</v>
+        <v>15.93956606294438</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4192306.716893477</v>
+        <v>15.95881847258371</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-91469.00231396922</v>
+        <v>15.81377164003986</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1798877.403596886</v>
+        <v>15.90388036377787</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2965788.170531382</v>
+        <v>15.93483208137465</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-1333740.257470582</v>
+        <v>15.75636128575423</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>635704.0249009751</v>
+        <v>15.83189608758514</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1967543.891630472</v>
+        <v>15.84266223409302</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-2223639.30288704</v>
+        <v>15.75792054095974</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>369413.2335532581</v>
+        <v>15.80900451162489</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>902833.3035670823</v>
+        <v>15.82345044392162</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-1408940.132715102</v>
+        <v>15.79756112514745</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3389460.942942064</v>
+        <v>15.84021709880016</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4279888.262980343</v>
+        <v>15.84957298980275</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2036969.984880697</v>
+        <v>15.85250727870241</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2195451.532488937</v>
+        <v>15.87793249113055</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2455337.006322585</v>
+        <v>15.88790603117795</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-1285341.034125462</v>
+        <v>15.7718060814893</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>766619.0857515847</v>
+        <v>15.84333410108816</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1569269.089762411</v>
+        <v>15.8619244091979</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-637437.4546971723</v>
+        <v>15.73684674161661</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>576922.3879144978</v>
+        <v>15.84786220682383</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1004141.777497329</v>
+        <v>15.86884204788104</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1392703.239859098</v>
+        <v>15.72063167493569</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-237748.506975928</v>
+        <v>15.80102378643119</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>110410.1757826786</v>
+        <v>15.82715338993577</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-1430881.042038284</v>
+        <v>15.78325658608096</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1032600.54323196</v>
+        <v>15.84972587675826</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1594130.243782398</v>
+        <v>15.86792556561823</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>642287.7779114818</v>
+        <v>15.88182467545849</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1062907.866374517</v>
+        <v>15.92503046459967</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1349239.765606191</v>
+        <v>15.94535520861153</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-948465.4798460037</v>
+        <v>15.7599134913104</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>460537.2251742092</v>
+        <v>15.87747075481737</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>857533.2318859402</v>
+        <v>15.90825634675105</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-594751.5723821122</v>
+        <v>15.73729714542105</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>446703.6524960224</v>
+        <v>15.86457677597465</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1195574.786173657</v>
+        <v>15.8908453288938</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1334858.138250535</v>
+        <v>15.72157175305429</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-120461.9551579287</v>
+        <v>15.81750991072915</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>385462.3873837477</v>
+        <v>15.85032212984247</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-1247622.649442325</v>
+        <v>15.79984127116891</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1142357.147589507</v>
+        <v>15.87953958010484</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2139851.682385093</v>
+        <v>15.90274928292253</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1074931.486680303</v>
+        <v>15.93453514133255</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1624110.16815072</v>
+        <v>15.98342754493857</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2017846.981924004</v>
+        <v>16.00741846068345</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-844366.5388655291</v>
+        <v>15.79283593979098</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>721092.2853410357</v>
+        <v>15.93252254936228</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1223326.299120092</v>
+        <v>15.97118576264137</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-884785.1435107681</v>
+        <v>15.73792229702476</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-1326616.796110285</v>
+        <v>15.8052175208279</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-278867.0557951834</v>
+        <v>15.81695796320682</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1691159.226711838</v>
+        <v>15.73915231606038</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-1099373.285150125</v>
+        <v>15.78139787835308</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-738341.7555215624</v>
+        <v>15.79696639487152</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-1169253.672243164</v>
+        <v>15.77477126904504</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>546231.2418392852</v>
+        <v>15.81018662705867</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1228140.975464223</v>
+        <v>15.82053357881909</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-97285.23624436776</v>
+        <v>15.81829330453855</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36485.21684193701</v>
+        <v>15.8394776894855</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>352491.6828347004</v>
+        <v>15.85042568718371</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1048852.33756133</v>
+        <v>15.74711098098523</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1064908.917415432</v>
+        <v>15.80668776044515</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-358439.4845161596</v>
+        <v>15.82682867539938</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-787962.1102881908</v>
+        <v>15.72252929231037</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-75306.56455419393</v>
+        <v>15.82280271760388</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>677079.4481929898</v>
+        <v>15.84527255834965</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-1412702.005853161</v>
+        <v>15.70721793379779</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-851850.2667956225</v>
+        <v>15.77616615693536</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-140625.9034955187</v>
+        <v>15.80404818263578</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1518052.391973549</v>
+        <v>15.76391385701055</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>34529.90494342509</v>
+        <v>15.82100715825369</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>969664.2454237653</v>
+        <v>15.84073000981828</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>73677.90507220147</v>
+        <v>15.84936597235224</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>544748.9850527189</v>
+        <v>15.8873019461425</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>997538.905307379</v>
+        <v>15.90856522643324</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-1091474.883686934</v>
+        <v>15.73925169731216</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-87606.30507477408</v>
+        <v>15.84126318599044</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>435279.0134296878</v>
+        <v>15.87448968849493</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-502046.4469271036</v>
+        <v>15.72896639613427</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>170416.4827932677</v>
+        <v>15.84459363265835</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>883555.1293579191</v>
+        <v>15.87228059665817</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1305659.188305762</v>
+        <v>15.71503861597167</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-525458.4306058433</v>
+        <v>15.79856615532864</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>54818.55289600391</v>
+        <v>15.83304459984411</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-1090450.125990597</v>
+        <v>15.78617511408047</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>614875.8505605411</v>
+        <v>15.85567858254005</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1563874.878172907</v>
+        <v>15.88035108203012</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>588301.6123710481</v>
+        <v>15.9077979362789</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1007088.942720135</v>
+        <v>15.95078576576196</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1198441.609790312</v>
+        <v>15.97566777467695</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-765030.1365565365</v>
+        <v>15.77865061279362</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>309273.101075036</v>
+        <v>15.90143534588773</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>900280.3512524768</v>
+        <v>15.94256100259432</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-2260502.524222837</v>
+        <v>15.76636469204798</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-1752835.971716572</v>
+        <v>15.81544198316322</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>516362.9502902952</v>
+        <v>15.82448157721562</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-3419917.133103387</v>
+        <v>15.76935388756468</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>191061.1672870656</v>
+        <v>15.80003375100944</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>819370.2599308561</v>
+        <v>15.81191384785918</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-2228413.525890129</v>
+        <v>15.79405772949575</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3361229.213675957</v>
+        <v>15.81980351730268</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>4825687.016419291</v>
+        <v>15.82780040468027</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>842987.4121930921</v>
+        <v>15.82869311334211</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1429556.758423547</v>
+        <v>15.84464702492702</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2114939.241544736</v>
+        <v>15.8533319261991</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1047215.000269057</v>
+        <v>15.77820124384511</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-596436.3752862335</v>
+        <v>15.82142290605499</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>1386484.598409811</v>
+        <v>15.8369067859156</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-1529647.907949246</v>
+        <v>15.75344646748845</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-198043.1242891089</v>
+        <v>15.82626320072326</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1576484.742630504</v>
+        <v>15.84331870805462</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-1766205.189264178</v>
+        <v>15.74457737689617</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-746401.9663386723</v>
+        <v>15.79432498336122</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>918268.3188174905</v>
+        <v>15.81537435490763</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-2728617.489811812</v>
+        <v>15.78436765473443</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>270711.5908031752</v>
+        <v>15.82560015870196</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2501263.876188119</v>
+        <v>15.84060184393164</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-121959.1985084177</v>
+        <v>15.84928565609088</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1281209.554897045</v>
+        <v>15.87749153380587</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2489664.514983057</v>
+        <v>15.89405033833316</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1799889.676278704</v>
+        <v>15.77080387567499</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-250240.8279133123</v>
+        <v>15.8444580350182</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1062283.317102769</v>
+        <v>15.86975427165919</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-1270601.227760453</v>
+        <v>15.75487286239737</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-203785.3750581481</v>
+        <v>15.83865516031461</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>1239484.55711908</v>
+        <v>15.85963255833973</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1863883.422630873</v>
+        <v>15.7472228604457</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-495894.9055432499</v>
+        <v>15.80732063487718</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>696741.2811901268</v>
+        <v>15.83331026654016</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-2374000.928085503</v>
+        <v>15.79748671181152</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>874537.3525279533</v>
+        <v>15.84753465773383</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2899233.488979544</v>
+        <v>15.86625933170764</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1069217.696920037</v>
+        <v>15.88845395071403</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1930906.788042621</v>
+        <v>15.92007678924169</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2916571.658469716</v>
+        <v>15.93935710482052</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1506818.159107458</v>
+        <v>15.79609210943163</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>211920.4482230285</v>
+        <v>15.88453119907035</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1702227.94526537</v>
+        <v>15.91576532275088</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-114065.3022517302</v>
+        <v>15.77237149972171</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>846826.2052482066</v>
+        <v>15.84909913642394</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>2373081.993328673</v>
+        <v>15.86130813100397</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-1011552.382577539</v>
+        <v>15.78006648858865</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2173736.213137412</v>
+        <v>15.83012678083943</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2896677.134176094</v>
+        <v>15.84639977108858</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>78199.33335705851</v>
+        <v>15.81841429070847</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>4440221.92215537</v>
+        <v>15.86038783505164</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>5498858.891398835</v>
+        <v>15.87112194592182</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1637689.849224946</v>
+        <v>15.87855151606519</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1974083.861082962</v>
+        <v>15.90343705745328</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2347413.497118372</v>
+        <v>15.91452506847798</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>707052.1593900095</v>
+        <v>15.79896500598699</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1151563.40690424</v>
+        <v>15.86872241221369</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2830998.320022511</v>
+        <v>15.89008158942206</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>343334.0242180614</v>
+        <v>15.75361313627774</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>993907.7882970155</v>
+        <v>15.866811981238</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1421635.189403208</v>
+        <v>15.89006742583198</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-627902.7442554674</v>
+        <v>15.74338458812908</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>411296.6292960711</v>
+        <v>15.82315466399509</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>770481.4934865998</v>
+        <v>15.85205826813024</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-635038.0737177014</v>
+        <v>15.80518588971245</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1385313.977967346</v>
+        <v>15.87131483747406</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1907537.151729088</v>
+        <v>15.89164261264903</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>903996.7041628908</v>
+        <v>15.91103157725588</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1178551.039697103</v>
+        <v>15.95423049966146</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1493125.722131648</v>
+        <v>15.97612950682703</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>4799.233592773646</v>
+        <v>15.78919787773927</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>828722.1850803155</v>
+        <v>15.9057979161946</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1199990.005604293</v>
+        <v>15.94052160423863</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>250534.7751315432</v>
+        <v>15.75820120965991</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>810706.2607107336</v>
+        <v>15.88806826787935</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1410926.688690044</v>
+        <v>15.91702151888399</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-678277.576229427</v>
+        <v>15.74934846860086</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>442910.3784457236</v>
+        <v>15.84493009553053</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>881513.0077054774</v>
+        <v>15.88104141890091</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-302485.7557850137</v>
+        <v>15.82709893843043</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1727713.879865577</v>
+        <v>15.90668445543153</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2524944.217637853</v>
+        <v>15.93243173435573</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1179102.608510051</v>
+        <v>15.9718095172933</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1590036.491285688</v>
+        <v>16.02045590182945</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1909427.368392793</v>
+        <v>16.04623539807894</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-115937.9428837421</v>
+        <v>15.8290818165145</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>889902.9590105094</v>
+        <v>15.96821504390229</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1480439.045787784</v>
+        <v>16.01154257176774</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-1532142.298802013</v>
+        <v>15.75520275253765</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>139600.2966982735</v>
+        <v>15.83248766059956</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1373470.851265357</v>
+        <v>15.84367855318676</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-2186458.913356309</v>
+        <v>15.75785702408785</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>316204.0422447699</v>
+        <v>15.81023784651819</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>686965.5505532009</v>
+        <v>15.82524840043494</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-1661121.123497092</v>
+        <v>15.79784895839947</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2836959.227695672</v>
+        <v>15.84161546093627</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3660495.320109471</v>
+        <v>15.85137931862605</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1818241.476152661</v>
+        <v>15.85467064023481</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2055130.126361732</v>
+        <v>15.88059473939386</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2168407.411522031</v>
+        <v>15.89104631960859</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-1376320.824646495</v>
+        <v>15.77230231744068</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>603305.1584201524</v>
+        <v>15.84554066161615</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1315932.117123513</v>
+        <v>15.86492839810658</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-603148.9233537142</v>
+        <v>15.73593146093229</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>563498.7637085026</v>
+        <v>15.84945865809188</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1019699.901587461</v>
+        <v>15.87113465122229</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1286887.914830801</v>
+        <v>15.72071424977661</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-150221.5559807182</v>
+        <v>15.80305575600723</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>247717.9052646417</v>
+        <v>15.83006459954449</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1216183.229152112</v>
+        <v>15.78397813209277</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1163125.177153652</v>
+        <v>15.85209916897722</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1808541.857606535</v>
+        <v>15.87095023544045</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>766394.3614064566</v>
+        <v>15.88559242009138</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1181639.118063341</v>
+        <v>15.92967082719698</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1420044.511034521</v>
+        <v>15.95071132970128</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-864311.6018203733</v>
+        <v>15.76109175157298</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>546845.0843547998</v>
+        <v>15.88136216948775</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1003312.971479451</v>
+        <v>15.91330714302204</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-510976.7669007861</v>
+        <v>15.73544615679464</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>451564.6386078835</v>
+        <v>15.86544234604017</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1163862.355653079</v>
+        <v>15.89256419395329</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1278248.668253703</v>
+        <v>15.72070829316964</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-125314.375304797</v>
+        <v>15.81876998397192</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>348632.9644776545</v>
+        <v>15.85265698292304</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1157792.745199529</v>
+        <v>15.79986016151829</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1103381.324912123</v>
+        <v>15.88136160415896</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2086958.764609409</v>
+        <v>15.90537309174635</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>980600.0800398596</v>
+        <v>15.93802391855482</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1478693.731414353</v>
+        <v>15.98776201384949</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1870964.142394065</v>
+        <v>16.01258139305469</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-849879.7898622516</v>
+        <v>15.79333590930063</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>630826.2998315844</v>
+        <v>15.93598766373045</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1192537.928627296</v>
+        <v>15.97607404588607</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.467</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.275</v>
+        <v>16.571</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.385</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.394</v>
+        <v>17.057</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.712</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.455</v>
+        <v>6.635</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.7487467906136</v>
+        <v>4.816468484432189</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.81706609617043</v>
+        <v>5.963043977437051</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.82934844497467</v>
+        <v>14.16954632851348</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.75152971229529</v>
+        <v>-3.638815304237839</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.79447167058072</v>
+        <v>8.852854291407011</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.8106584573052</v>
+        <v>11.13791537899884</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.78665520087316</v>
+        <v>1.379195628493948</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15.82267418578517</v>
+        <v>21.84006720504881</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.8335288847697</v>
+        <v>26.86173218244693</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.83503303522876</v>
+        <v>13.25284592008672</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>15.85739020446509</v>
+        <v>17.4795727671687</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.86904998328951</v>
+        <v>21.58369798732787</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.76464360028951</v>
+        <v>2.846376668883291</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.82514862476839</v>
+        <v>5.078217884468103</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.84619135450315</v>
+        <v>15.36984215212555</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.73385691635247</v>
+        <v>9.975998756208359</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15.83532113495158</v>
+        <v>22.00979872664362</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>15.85861112240779</v>
+        <v>32.87508612647422</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.7200000971618</v>
+        <v>-1.744882782744613</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.78967953389938</v>
+        <v>8.48457771657468</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.8184643371662</v>
+        <v>19.83740412328943</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.77628811629423</v>
+        <v>0.3213775094506435</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.83402276015892</v>
+        <v>24.27031520242794</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.85449424658642</v>
+        <v>38.17806070660149</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15.86762866196348</v>
+        <v>22.62655989409615</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15.90711227235801</v>
+        <v>37.67665121722726</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>15.92950942248039</v>
+        <v>51.38698277252756</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.75830090413194</v>
+        <v>2.214186064377229</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>15.86139819508177</v>
+        <v>23.16337732623392</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.89588407288888</v>
+        <v>35.39853556434416</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.7381871688987</v>
+        <v>12.59216705471074</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15.85497325020875</v>
+        <v>25.11600591909908</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.88364252158347</v>
+        <v>35.71013579795321</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.72608911151345</v>
+        <v>-2.751152225123411</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15.81026168324264</v>
+        <v>12.88779748543127</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.84583171005198</v>
+        <v>22.42355639623375</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.79686367518652</v>
+        <v>1.296862417043195</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>15.86694040829116</v>
+        <v>31.33596176645749</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.89251912004433</v>
+        <v>46.12572662889224</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>15.92476875124555</v>
+        <v>36.21718848857768</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>15.96913928481871</v>
+        <v>49.92341215630571</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15.99525772882063</v>
+        <v>61.72633777279196</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15.79616975784895</v>
+        <v>6.50619077198205</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>15.91995906390692</v>
+        <v>32.9358502630628</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>15.96257833826982</v>
+        <v>46.81901753794318</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.75788987039633</v>
+        <v>2.666557099874698</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.84417003451955</v>
+        <v>25.82169089963198</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15.85669935369068</v>
+        <v>35.80080719892378</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.76197306539592</v>
+        <v>-0.7338804713413918</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.82101415817096</v>
+        <v>32.46593501651932</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>15.8377066188766</v>
+        <v>38.99169778530023</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.80675884504388</v>
+        <v>6.950982968365146</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15.85602126068646</v>
+        <v>54.89495730913221</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>15.86695457109281</v>
+        <v>62.2939776552404</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>15.87094470020161</v>
+        <v>41.21327432994971</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>15.90053765099154</v>
+        <v>48.25046462455759</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>15.91150569606546</v>
+        <v>49.85112689045486</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.77892289985075</v>
+        <v>1.9285600699929</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15.86118078619281</v>
+        <v>30.70981538701198</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>15.88268119572391</v>
+        <v>43.87761975870263</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.7385978956077</v>
+        <v>4.612437112439647</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.8653058772093</v>
+        <v>26.19286885436387</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>15.88924094591317</v>
+        <v>34.1682531209283</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15.72357755655339</v>
+        <v>-5.163251336450761</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.81616330648293</v>
+        <v>18.80287682737413</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>15.84591627452627</v>
+        <v>28.71198924059539</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>15.79427251521733</v>
+        <v>-1.524057486678144</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15.87079445494924</v>
+        <v>39.07205368529999</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15.89161498626389</v>
+        <v>49.35972339879937</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>15.90925697852853</v>
+        <v>37.40682890723008</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.95929741674111</v>
+        <v>49.89385695583911</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>15.98177270073504</v>
+        <v>59.5476117144861</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.77096343054914</v>
+        <v>0.3326134805059535</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.90565876659953</v>
+        <v>37.56670269112131</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15.94078652297276</v>
+        <v>47.94050827270276</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.74512824711485</v>
+        <v>5.896196056766248</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>15.89025526591463</v>
+        <v>29.75477812780343</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>15.92030122193227</v>
+        <v>41.3308505423356</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15.7309478086609</v>
+        <v>-6.659740185401981</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>15.84116366778765</v>
+        <v>23.39629398948653</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>15.87862234427201</v>
+        <v>34.68942860977605</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.81927568367124</v>
+        <v>2.057692766400612</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>15.9107903513339</v>
+        <v>48.41826433493837</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>15.93740768490338</v>
+        <v>65.28346644058416</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>15.97616041020174</v>
+        <v>49.28703079262837</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.03270751380639</v>
+        <v>64.5815206949076</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.05938798966834</v>
+        <v>75.57757194346117</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.81543619865896</v>
+        <v>-0.01380454281029486</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>15.9752029940668</v>
+        <v>46.69573554076782</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.01940545178895</v>
+        <v>59.3236617772151</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.75238800085772</v>
+        <v>11.68867681748909</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>15.83787308494394</v>
+        <v>24.03264403864258</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15.84991326162086</v>
+        <v>32.42267115390329</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.75561802355594</v>
+        <v>2.949111441605432</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>15.81366119244877</v>
+        <v>24.97870204950164</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15.82982485968273</v>
+        <v>29.07384944940362</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.800659020876</v>
+        <v>9.043839419420232</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>15.84910915671984</v>
+        <v>46.36455191771719</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>15.85958325642788</v>
+        <v>51.64177049513502</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>15.86401298699962</v>
+        <v>36.11045502578762</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>15.89289243846927</v>
+        <v>43.97173240884485</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>15.90342706264108</v>
+        <v>43.47156257426001</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.77274069224845</v>
+        <v>8.299065724932285</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>15.85373532098213</v>
+        <v>24.96512743727945</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>15.87451231588969</v>
+        <v>34.62067891303801</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.73573507550343</v>
+        <v>16.03326010180211</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15.86141625419812</v>
+        <v>31.7930925510106</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>15.88468107939583</v>
+        <v>38.42872437892014</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.71985270139333</v>
+        <v>1.642945121303603</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>15.81114444712398</v>
+        <v>21.55561930754675</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>15.8401665131598</v>
+        <v>29.29263325546253</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.79074444764713</v>
+        <v>5.958465723834314</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>15.86621189550747</v>
+        <v>42.0249938733061</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>15.88640252126477</v>
+        <v>50.77611385358226</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>15.90519469296184</v>
+        <v>41.93972201198982</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>15.95419974434059</v>
+        <v>53.9588187813528</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>15.97605105790023</v>
+        <v>60.1924237513422</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.76781085622638</v>
+        <v>12.37025775173815</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>15.90085052122967</v>
+        <v>39.1171183399923</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>15.93497816637983</v>
+        <v>48.45724721524726</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>15.74279531262527</v>
+        <v>14.72074603220658</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>15.88692632544561</v>
+        <v>32.76238336220948</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>15.91627299822096</v>
+        <v>44.24550042291052</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.72757722026875</v>
+        <v>-2.421949896453073</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.83652199024737</v>
+        <v>23.93572886815218</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>15.87322376462604</v>
+        <v>33.7486154614698</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>15.81614462123232</v>
+        <v>5.683630162015504</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>15.90662599286501</v>
+        <v>47.95149771436522</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>15.93258856862217</v>
+        <v>63.91947688619079</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>15.97257668637132</v>
+        <v>52.62248937591272</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>16.02807846376131</v>
+        <v>67.08870981320759</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>16.0540381786821</v>
+        <v>74.66174895942791</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.81268118648472</v>
+        <v>10.19569017285385</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>15.97082489106324</v>
+        <v>47.15352982734883</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16.01398232922032</v>
+        <v>59.94324117110215</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.73906089594529</v>
+        <v>6.018876462340209</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.80648292147226</v>
+        <v>7.304985530990335</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>15.81851397704644</v>
+        <v>13.9956966166367</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>15.74036781614747</v>
+        <v>-2.231729961684072</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.78183556364696</v>
+        <v>8.636621218453193</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>15.79768761232704</v>
+        <v>10.26696583660855</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.77544190840533</v>
+        <v>3.252607329301535</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>15.8102233740103</v>
+        <v>21.94737615155024</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.82078012092285</v>
+        <v>25.89554801047035</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>15.81828545682813</v>
+        <v>17.78137507993232</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>15.84008289293382</v>
+        <v>20.09144853984199</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>15.85192653233998</v>
+        <v>25.47288328083332</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>15.74892179825619</v>
+        <v>26.15515610888254</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>15.80758043256591</v>
+        <v>26.84461673200602</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>15.8281182826181</v>
+        <v>34.37056986291827</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.71886488809547</v>
+        <v>9.318917219173795</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>15.81916277008746</v>
+        <v>20.36693765611346</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15.84214273158431</v>
+        <v>30.87673489252476</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.70280523178443</v>
+        <v>-1.550183898712833</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.77053950524561</v>
+        <v>6.616460557752699</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.79890672368071</v>
+        <v>17.79255730495338</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15.75917069081104</v>
+        <v>-1.958627609440294</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>15.81526781394435</v>
+        <v>19.02578779608712</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>15.83536330131508</v>
+        <v>32.56527277104303</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>15.84315278955374</v>
+        <v>15.19839878072935</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>15.88189840896361</v>
+        <v>32.18089057836529</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>15.90471008299684</v>
+        <v>47.64809953795359</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.73510656844294</v>
+        <v>6.089332884435759</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.83582192239132</v>
+        <v>23.94495938535577</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>15.86964144637945</v>
+        <v>33.7315797456888</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.72560284912893</v>
+        <v>14.03377249468391</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15.84130520352106</v>
+        <v>24.07771431378515</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>15.86975283391041</v>
+        <v>35.00850618930662</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.71131773520309</v>
+        <v>-1.616465304084967</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>15.79360002167702</v>
+        <v>10.804025801119</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>15.82884811982879</v>
+        <v>21.28422650960078</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.78231405145289</v>
+        <v>2.27398282552477</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>15.85079961312744</v>
+        <v>28.20353478597351</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>15.876077720519</v>
+        <v>43.9988154310144</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>15.90357220595763</v>
+        <v>29.29452152466385</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>15.94719280246707</v>
+        <v>42.81906016807974</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15.97380047581592</v>
+        <v>58.64557522143655</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>15.77617200933974</v>
+        <v>10.94825700367578</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>15.89765490962188</v>
+        <v>33.01942814145551</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>15.93971058987565</v>
+        <v>45.40591309413196</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.76018666452354</v>
+        <v>6.477278891887179</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.83092504807678</v>
+        <v>17.10007451688352</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>15.84292288875918</v>
+        <v>25.54080901870178</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.76440805663164</v>
+        <v>2.061068732407715</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>15.81025825945709</v>
+        <v>26.50960215436057</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>15.82606005761684</v>
+        <v>29.20179052432481</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>15.79993534974588</v>
+        <v>11.75785259893223</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>15.83835956494682</v>
+        <v>44.71667313207295</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>15.84890723335594</v>
+        <v>49.71765740008034</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>15.85179703088444</v>
+        <v>27.27242605846214</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>15.87573561938481</v>
+        <v>31.8596913937455</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.88738913880439</v>
+        <v>33.72578369674143</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.77883062495895</v>
+        <v>8.998427156617339</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.84298133321246</v>
+        <v>15.22939854994161</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.86349881410557</v>
+        <v>24.20961322051124</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.75529798151987</v>
+        <v>17.17739079108078</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>15.85988569722666</v>
+        <v>33.19274976920071</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>15.88253152169292</v>
+        <v>39.69593403799913</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>15.7441302986067</v>
+        <v>5.578338271215761</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.81752707461548</v>
+        <v>24.14085779394683</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.84549004962958</v>
+        <v>31.10971577164665</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.80074600785657</v>
+        <v>11.40046744605384</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>15.86156688304323</v>
+        <v>43.36023144551117</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.88137270479307</v>
+        <v>52.49454194401055</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>15.89889053707721</v>
+        <v>40.63548147101181</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15.94044018504779</v>
+        <v>57.2434666247168</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>15.96275743874993</v>
+        <v>66.27330432647423</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>15.78657597365501</v>
+        <v>20.99125445196585</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15.89432914376064</v>
+        <v>42.11698450012967</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>15.9277435640433</v>
+        <v>49.61758979744519</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>15.75621586895795</v>
+        <v>17.51462946296739</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>15.87611122158927</v>
+        <v>31.30686000890373</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>15.90421067583135</v>
+        <v>41.33684066402526</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>15.74655311895498</v>
+        <v>0.5925002474320333</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>15.83443901332942</v>
+        <v>20.44281349413352</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>15.86925899719528</v>
+        <v>29.57353203805631</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>15.81782676342119</v>
+        <v>8.694051232457399</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>15.89098333343812</v>
+        <v>42.7501360099031</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.91595998045317</v>
+        <v>57.57225064575182</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>15.95195004363208</v>
+        <v>45.38937134998898</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>15.99838780144233</v>
+        <v>61.13615995469466</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>16.02443746867293</v>
+        <v>71.39292619949761</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>15.82037893790392</v>
+        <v>16.20665880104751</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>15.94883564441099</v>
+        <v>44.24825523218882</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.99044334607361</v>
+        <v>55.80589492348017</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.73561103365757</v>
+        <v>0.5031021335945987</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.84584223163058</v>
+        <v>14.67992211042202</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>15.86158936358011</v>
+        <v>25.70735933944921</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>15.74252340864341</v>
+        <v>2.871386839593365</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.81844089125332</v>
+        <v>30.48360946485821</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>15.83938902517192</v>
+        <v>36.31975190758103</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>15.79851069339162</v>
+        <v>11.79957176796513</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>15.86196472200666</v>
+        <v>52.74891719435345</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>15.87567625412198</v>
+        <v>58.9872286628237</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>15.87656827962789</v>
+        <v>32.21863275308228</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>15.91526073519452</v>
+        <v>35.24946367128899</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>15.92950894866108</v>
+        <v>36.70399806865016</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.76058190086622</v>
+        <v>3.277549632527597</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.86547818205909</v>
+        <v>8.159307376962156</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.89255294621053</v>
+        <v>19.05158084031313</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>15.74029371888733</v>
+        <v>14.54462601721795</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>15.90241627327039</v>
+        <v>38.17403422175972</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15.93223676002505</v>
+        <v>43.03621221254316</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15.72645867332105</v>
+        <v>-1.926478607960009</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.84565244024261</v>
+        <v>30.74353055209162</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.88266109340512</v>
+        <v>36.74639340310041</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>15.81425027758868</v>
+        <v>6.131738374660628</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>15.91293196313638</v>
+        <v>53.72990483512241</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>15.93878197938742</v>
+        <v>59.1795552673158</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>15.96469606118522</v>
+        <v>46.23778015717517</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.03016788321848</v>
+        <v>59.61336302456685</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.05862749458672</v>
+        <v>66.44432743197245</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>15.79012528458616</v>
+        <v>13.70075315924297</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.96234299642285</v>
+        <v>50.94841928899812</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.00612643778931</v>
+        <v>57.20417463132686</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.74720575967056</v>
+        <v>17.84703580632649</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>15.93210589527266</v>
+        <v>38.63897416953395</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>15.96980770098095</v>
+        <v>48.18541616745855</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.73493365855791</v>
+        <v>-5.364320350030601</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>15.87585018967745</v>
+        <v>27.19468711765469</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.9227661056393</v>
+        <v>35.27270166956841</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>15.84461239461612</v>
+        <v>7.080133076949201</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>15.96176557828505</v>
+        <v>53.84403014567302</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.9950904515218</v>
+        <v>66.74889148959669</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>16.04816605670892</v>
+        <v>52.1494938240412</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.12141568294485</v>
+        <v>67.74836066226926</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.15508923720081</v>
+        <v>75.05992062984514</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>15.8454428427484</v>
+        <v>9.678489517752048</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.04863505127996</v>
+        <v>53.76916798082457</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.10412650301179</v>
+        <v>62.4006362492533</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.70330464248457</v>
+        <v>6.663793615869954</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.80340012186115</v>
+        <v>-0.08694124239010748</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.81983159572724</v>
+        <v>8.334279797235197</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>15.70615201634129</v>
+        <v>0.3994629123077491</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.76994820665716</v>
+        <v>5.125293775198703</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.79190398874476</v>
+        <v>8.584583198891055</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.76013014428225</v>
+        <v>2.283125995275034</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>15.81356777681875</v>
+        <v>16.75338858553673</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>15.82806719167158</v>
+        <v>21.28954531509338</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.82698097561133</v>
+        <v>13.14978754346798</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>15.85918389547643</v>
+        <v>19.13820759531801</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.873231844754</v>
+        <v>20.73684492045641</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.72142183563057</v>
+        <v>3.999432515466017</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.81102074358179</v>
+        <v>-0.3051947298546551</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.83937681697454</v>
+        <v>6.568722792367543</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.68177436944995</v>
+        <v>8.563262803890906</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>15.83072494119853</v>
+        <v>18.29699379732211</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>15.86239074630165</v>
+        <v>30.05752581578529</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>15.6604531119916</v>
+        <v>-1.973901316926147</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.76401393473702</v>
+        <v>9.591947384930268</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.80345601014495</v>
+        <v>22.3927725408496</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.74609099823676</v>
+        <v>-0.325710292962718</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.83181301790576</v>
+        <v>24.6797499193364</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.85962188069261</v>
+        <v>38.10613275256444</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>15.87517308506347</v>
+        <v>25.17506998939387</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>15.93198505864696</v>
+        <v>37.65770741762092</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>15.96048392549081</v>
+        <v>47.79837345666122</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>15.71298014503967</v>
+        <v>3.082459350814185</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.86545586400852</v>
+        <v>25.17357449685915</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>15.91225059200149</v>
+        <v>34.73220361980066</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>15.69991355766175</v>
+        <v>8.633048333571866</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>15.87165930283087</v>
+        <v>20.30740961927746</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>15.9109250974685</v>
+        <v>33.38205737385921</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>15.68075797600084</v>
+        <v>-4.917382556108938</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.80601362875299</v>
+        <v>12.95189642353546</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.8550883563744</v>
+        <v>25.13557794870747</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>15.78777132263464</v>
+        <v>1.013954501182642</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>15.89195041721866</v>
+        <v>32.40603852422031</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>15.92699210260936</v>
+        <v>48.50583828158377</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>15.9716174882324</v>
+        <v>38.74826494086948</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16.03618632049817</v>
+        <v>53.71370888013048</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>16.06978454621257</v>
+        <v>60.16265893406646</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>15.78120505131336</v>
+        <v>9.81825117612896</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>15.96456563739614</v>
+        <v>36.11390783704746</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16.02281476214425</v>
+        <v>50.04337127110112</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.71460966323855</v>
+        <v>-0.992709749904785</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.7947919548053</v>
+        <v>0.4837121052367639</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>15.80838815217597</v>
+        <v>7.135627849245443</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.71563030976179</v>
+        <v>-3.907505306818782</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.76698985501317</v>
+        <v>7.011610276851917</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.78491598097194</v>
+        <v>7.833637122166216</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.75771332172702</v>
+        <v>-4.89337963524572</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.80075113979578</v>
+        <v>15.75596844094427</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.81267029117663</v>
+        <v>18.99334849930701</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>15.80677188271756</v>
+        <v>5.893095001944483</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.83380841538362</v>
+        <v>9.623303858622879</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.84703518296043</v>
+        <v>11.4212860361489</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.72358591881334</v>
+        <v>0.2184800363579953</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.7957289256575</v>
+        <v>-0.2727531476606231</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.81892193347853</v>
+        <v>3.626054977179729</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>15.6886387659044</v>
+        <v>-1.550381417142185</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.80732491213752</v>
+        <v>1.907654285323654</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.83310826670744</v>
+        <v>12.08666347808206</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>15.67009143239563</v>
+        <v>-5.083408997798104</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>15.75262904264796</v>
+        <v>-3.493387561961088</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.78447941334035</v>
+        <v>7.050508688192357</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.73711677800127</v>
+        <v>-8.293284654905042</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15.8054882388209</v>
+        <v>7.519631543844994</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>15.82799874907172</v>
+        <v>20.27787115460108</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.83413438123095</v>
+        <v>3.361093279571188</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.8812202609437</v>
+        <v>22.13690116406875</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>15.90673937767205</v>
+        <v>35.42440696283845</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.70601443857114</v>
+        <v>-6.617400090332405</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.82769287747036</v>
+        <v>1.994660340451265</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.86559903733926</v>
+        <v>8.918848696552786</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.6894641942715</v>
+        <v>0.7099575775601128</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.82578498037256</v>
+        <v>3.582867907792687</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>15.85784916689593</v>
+        <v>20.3729799085049</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.67244209783576</v>
+        <v>-7.502075346427228</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.77167585155479</v>
+        <v>-2.331572573467446</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.81141804140683</v>
+        <v>13.772502827389</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.7564420589881</v>
+        <v>-6.917501815965098</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>15.83902699543699</v>
+        <v>13.02925252503019</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>15.86748866582712</v>
+        <v>34.84494083850668</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>15.89459017953848</v>
+        <v>13.58746254320232</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.94742293988015</v>
+        <v>33.13431200703616</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>15.97723994868604</v>
+        <v>49.05605735064</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.74433880928592</v>
+        <v>-9.153625210280234</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.88986949294818</v>
+        <v>7.797622604827082</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.93719002568192</v>
+        <v>21.83314646173966</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.7735782582773</v>
+        <v>1.814205732047601</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.87737310150718</v>
+        <v>17.7014868998666</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.89255834913452</v>
+        <v>33.71000458696406</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.78589002151515</v>
+        <v>-2.029939330630439</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15.85821061899783</v>
+        <v>35.19692234234289</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.87844514260302</v>
+        <v>43.38216403557314</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.83732503012975</v>
+        <v>7.511854152025505</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>15.89779758359975</v>
+        <v>56.32632562256688</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>15.91116491282168</v>
+        <v>66.36838059529957</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.92601687055301</v>
+        <v>40.66211546625554</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.96213405525245</v>
+        <v>49.41986914572126</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>15.97490849509045</v>
+        <v>49.13233208203734</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>15.81795950100141</v>
+        <v>13.54899825059456</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.91774007053197</v>
+        <v>31.42133535846594</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>15.94414040824373</v>
+        <v>51.19551283156008</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.7536077853689</v>
+        <v>7.311611996886565</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.9056147310621</v>
+        <v>23.59133668323343</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>15.93405210884867</v>
+        <v>31.80015457604383</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.74467508928049</v>
+        <v>-5.107085283455566</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.85730993243972</v>
+        <v>19.93894700464994</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.89271134729748</v>
+        <v>27.18660501613677</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.82652958040179</v>
+        <v>-1.517649147986239</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.91982756568489</v>
+        <v>38.95250494052825</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.94467939365574</v>
+        <v>47.45026291690635</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>15.97777433591459</v>
+        <v>36.02365167900044</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.03855027983954</v>
+        <v>45.66862749301468</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.06412605095091</v>
+        <v>51.56174660970987</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.81527656498232</v>
+        <v>7.802265913095096</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>15.9776868030037</v>
+        <v>37.52596291229182</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.01999253559027</v>
+        <v>45.64128216682575</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>15.75895913181943</v>
+        <v>9.907645520210043</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>15.93219806734014</v>
+        <v>27.04380104213475</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>15.96792832399412</v>
+        <v>40.05456716432196</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>15.75153372208628</v>
+        <v>-3.781777083073207</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>15.88445094286864</v>
+        <v>25.64168975280764</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.92903850115644</v>
+        <v>36.02066121198541</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.85357485215522</v>
+        <v>4.141433735677053</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>15.96411799888636</v>
+        <v>48.38125675537263</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.99590307335755</v>
+        <v>64.66419826175334</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.05372414922675</v>
+        <v>49.84613558858376</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.12186494982714</v>
+        <v>63.18540298873614</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.15225500283492</v>
+        <v>70.72922840744697</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>15.86493498700004</v>
+        <v>9.386877143600877</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>16.05623185898109</v>
+        <v>47.20718630956698</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16.10943641264953</v>
+        <v>62.69105698099682</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.7071318873667</v>
+        <v>4.621756138593474</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.79306442496205</v>
+        <v>3.265008728635395</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.80657350994959</v>
+        <v>9.28333898199153</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.70371310749207</v>
+        <v>-1.205280693848758</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.75900828518839</v>
+        <v>-2.105423560464248</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.7770786793591</v>
+        <v>1.790716414234515</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.75142590249106</v>
+        <v>0.6242617126484955</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.79758764592966</v>
+        <v>11.88231432499768</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>15.80940775683103</v>
+        <v>16.54344403017505</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.80159474727885</v>
+        <v>9.2177635363267</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.82936320449195</v>
+        <v>10.83619576377486</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.84153733530482</v>
+        <v>16.07819983441772</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.7081417410081</v>
+        <v>-6.478148302406316</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>15.78650144349305</v>
+        <v>-3.667179033794818</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>15.8095590986632</v>
+        <v>2.073467359583423</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>15.68268170182102</v>
+        <v>2.06875384973535</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.8103113675893</v>
+        <v>9.836774090542683</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>15.83688409789586</v>
+        <v>20.83144495155238</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>15.65729047533204</v>
+        <v>-5.314573328845926</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>15.74659524012593</v>
+        <v>-2.534799922969819</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.77965544854643</v>
+        <v>10.70055465998653</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>15.73241163643543</v>
+        <v>-6.011869887832306</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>15.80614394249504</v>
+        <v>10.4142982858307</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>15.82936986076657</v>
+        <v>24.07028836048384</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.83264765120011</v>
+        <v>6.957171140416172</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.88114525062795</v>
+        <v>17.39251860951404</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.90632901752024</v>
+        <v>29.92445074601068</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>15.69014233103379</v>
+        <v>-9.554186784069669</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.822400757228</v>
+        <v>7.950934956328298</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.8611961118078</v>
+        <v>19.6081334901897</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.69279420711381</v>
+        <v>6.025422009803773</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.84022838203722</v>
+        <v>13.5019721616803</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.87308749613539</v>
+        <v>26.9640843052998</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>15.66835359411471</v>
+        <v>-5.592530446348098</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>15.77658361129571</v>
+        <v>0.431228449008108</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.81762026806403</v>
+        <v>14.3878438966105</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.76232384678775</v>
+        <v>-1.516906794612824</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>15.85216148531738</v>
+        <v>18.19996947146781</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.88134953565389</v>
+        <v>35.99578040330177</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.90783266225443</v>
+        <v>19.24025070823039</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>15.96331924475533</v>
+        <v>30.42551969330081</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>15.99299305945513</v>
+        <v>46.31815685210527</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.74138270791135</v>
+        <v>-1.107014124416819</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>15.90055199943246</v>
+        <v>18.46670415299171</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>15.94875521812465</v>
+        <v>32.1091402572475</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.73921179585259</v>
+        <v>-4.456587497629849</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>15.82590311584529</v>
+        <v>-2.325382853499798</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.83782161712062</v>
+        <v>3.42805675232389</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>15.73899052012942</v>
+        <v>-5.429759221679452</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>15.79722473328878</v>
+        <v>-1.970516203989463</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>15.81322213192701</v>
+        <v>1.775906977914165</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.7853379036241</v>
+        <v>-5.929752391848895</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.83391626207227</v>
+        <v>14.09193580998114</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.84417989961915</v>
+        <v>17.85308614954866</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.8417348704847</v>
+        <v>7.069737068994499</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.87110814729312</v>
+        <v>6.656621863988702</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.88219264631173</v>
+        <v>9.134484642100594</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>15.7480598841275</v>
+        <v>-11.05467565382213</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>15.82954765204381</v>
+        <v>-11.96167154437403</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.84990831111149</v>
+        <v>-6.94830067830336</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>15.74003463090782</v>
+        <v>12.51459906687108</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>15.8679102912006</v>
+        <v>27.18231840383272</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>15.89125938253756</v>
+        <v>31.26363635511302</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>15.72150843377522</v>
+        <v>0.2154229670923069</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>15.81371419365059</v>
+        <v>17.80676503906712</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.84278278793758</v>
+        <v>24.12088010837322</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.79374775436292</v>
+        <v>4.001389167659555</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>15.86991769942405</v>
+        <v>36.90355268090038</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>15.89004539251201</v>
+        <v>43.06335884212689</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>15.90589958598369</v>
+        <v>34.9379893942024</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>15.95596652156246</v>
+        <v>45.23890001122452</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.97900114989294</v>
+        <v>51.51203235482457</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>15.76486921144299</v>
+        <v>9.389627180783037</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.89963157965044</v>
+        <v>33.52922745558062</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.93347455931779</v>
+        <v>41.13147191445778</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.74854723437593</v>
+        <v>15.2712686761761</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>15.89537930814405</v>
+        <v>30.99331363282841</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.92495821396141</v>
+        <v>40.64051266077468</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>15.73060035722606</v>
+        <v>-2.532565347906234</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>15.84093112807669</v>
+        <v>20.04711794249834</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>15.87785768861669</v>
+        <v>28.57891312662888</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>15.82112475844741</v>
+        <v>5.415497115884245</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>15.91271120639085</v>
+        <v>42.87370318901218</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>15.93873893149771</v>
+        <v>56.56292538556946</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>15.97672699552237</v>
+        <v>46.82603648577938</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>16.0334160874687</v>
+        <v>58.89183017926163</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.06068519020489</v>
+        <v>66.59793135128982</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.81265506414067</v>
+        <v>8.309305524878326</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>15.97320721947749</v>
+        <v>42.89116251155497</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.01625158911512</v>
+        <v>51.64669866057866</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.72386718259751</v>
+        <v>9.414138037059173</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.80061970919379</v>
+        <v>9.842943228348362</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.81234068252429</v>
+        <v>14.93321464117572</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.72183347378758</v>
+        <v>4.15588223078449</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.77067537031537</v>
+        <v>7.810993849576745</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.78638026552863</v>
+        <v>11.36694559129608</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.76457215908781</v>
+        <v>7.268982356753977</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>15.80535679340945</v>
+        <v>23.53862433764411</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>15.81553758123548</v>
+        <v>27.11312360358437</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.81025006089673</v>
+        <v>16.52704086549082</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>15.834696444353</v>
+        <v>19.75905864017445</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.84509009380671</v>
+        <v>23.15229416393794</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>15.72755154894228</v>
+        <v>7.214433926099296</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>15.79653972561963</v>
+        <v>7.663594137433337</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.81658746176863</v>
+        <v>14.39772786582363</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>15.69056461314857</v>
+        <v>2.844281678868501</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.80439598814582</v>
+        <v>4.808052095404999</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>15.82739378357888</v>
+        <v>14.21351469494892</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.66750779877863</v>
+        <v>-2.379195922344957</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>15.7463069960429</v>
+        <v>-4.212315792681141</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.77494895451767</v>
+        <v>8.437645541242446</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>15.73529554032137</v>
+        <v>-5.226598152357868</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>15.800360375023</v>
+        <v>6.795111085500572</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>15.82034513793795</v>
+        <v>19.44183439051522</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.82345274771237</v>
+        <v>4.893429799510802</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>15.86622987659321</v>
+        <v>11.96075457079558</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.88796590128347</v>
+        <v>25.12918795347487</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>15.69756793629903</v>
+        <v>-3.940713860998004</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>15.81409714290866</v>
+        <v>3.464231997390373</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.84760199470721</v>
+        <v>14.28027879279161</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.70820167589932</v>
+        <v>12.81677869851879</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>15.83989502277658</v>
+        <v>19.26595089843177</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.86870655950001</v>
+        <v>28.41557789613719</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.68635645462947</v>
+        <v>-1.83802301808012</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.78220213903518</v>
+        <v>5.783560180377682</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.81820056511058</v>
+        <v>15.86690299066804</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.77101306924964</v>
+        <v>5.326187362652812</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>15.85057840637659</v>
+        <v>27.05539118689249</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.8760784283714</v>
+        <v>41.26659464391911</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>15.90183436904259</v>
+        <v>24.14781578779333</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>15.95080374666497</v>
+        <v>33.86585846599456</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>15.9765400552344</v>
+        <v>44.62917669955334</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.75422659394715</v>
+        <v>8.029695612478069</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.89496297711545</v>
+        <v>21.99678317922076</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>15.93711757607944</v>
+        <v>31.58132998724251</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.69134303303055</v>
+        <v>5.094805790487005</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.76768115065405</v>
+        <v>0.03599026703710706</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.77911283459807</v>
+        <v>0.8024141686462496</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.68454635491493</v>
+        <v>6.713994720627493</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.7317766591397</v>
+        <v>-1.523425063418609</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.74711637561197</v>
+        <v>-0.6247813969986122</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.72848935715062</v>
+        <v>3.39110894602357</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.76790757589012</v>
+        <v>7.715896479422096</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.77771307698703</v>
+        <v>7.854630193715878</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.76199499330298</v>
+        <v>1.789259560886816</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.78608263042257</v>
+        <v>-0.0915313949049974</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.79687043316843</v>
+        <v>2.716634611313243</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.67908624858408</v>
+        <v>3.1193762437606</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.74630897470602</v>
+        <v>-3.081710689939362</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.765713814467</v>
+        <v>-1.578601922438642</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.65790788800078</v>
+        <v>1.67807842487877</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.77162603975975</v>
+        <v>-0.3876622153829921</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.79447811052698</v>
+        <v>2.874686472616041</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.62950722698524</v>
+        <v>2.276347931194524</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.70665719353566</v>
+        <v>-6.186314837344417</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.73507681309704</v>
+        <v>-0.1970920488241408</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.69881526672381</v>
+        <v>-5.290025364507949</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.76245590544438</v>
+        <v>-1.196573547354342</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.78215405984419</v>
+        <v>4.284680859944766</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>15.77464646027603</v>
+        <v>-5.823729364510241</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>15.81724941881334</v>
+        <v>0.1169288134652184</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.83995462441231</v>
+        <v>7.121041038280799</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.64794884696423</v>
+        <v>-5.284493521814563</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>15.76295301472359</v>
+        <v>-4.951027640555361</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.79586496941818</v>
+        <v>-1.805127427495497</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.67669307139361</v>
+        <v>13.87284688757773</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.80868417558917</v>
+        <v>14.26484742935457</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>15.83749796826327</v>
+        <v>19.95158147835529</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>15.64932552897396</v>
+        <v>3.385661059554158</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>15.74389201223944</v>
+        <v>2.106193379978246</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.77984125755579</v>
+        <v>8.62729025928526</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.73607173983748</v>
+        <v>6.064595178607563</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>15.81452950326061</v>
+        <v>17.51959968822272</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.83987001522995</v>
+        <v>27.32920125472567</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.85567343566837</v>
+        <v>15.14201838226118</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>15.90460432173504</v>
+        <v>21.19869663715403</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.93145520308738</v>
+        <v>29.11011841211307</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.70681911024988</v>
+        <v>8.96564015717026</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>15.84656073902207</v>
+        <v>13.94231524561803</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>15.88830828500575</v>
+        <v>18.34884554657273</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.74457539082246</v>
+        <v>16.33784843992257</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.82299531376901</v>
+        <v>20.71672861373783</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.83654408545763</v>
+        <v>29.35065082349089</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>15.74678203181035</v>
+        <v>2.501729647016427</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.7959350287732</v>
+        <v>17.74896678595855</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.81387161136723</v>
+        <v>20.26027450756101</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.78763836145375</v>
+        <v>12.73427115835226</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.82884857623902</v>
+        <v>36.76607510068427</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>15.84076609270359</v>
+        <v>41.78428054222506</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>15.84347642576582</v>
+        <v>29.00240825858795</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>15.86882584252744</v>
+        <v>33.61858486014754</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.88170591399475</v>
+        <v>36.78394836971961</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.76261653491373</v>
+        <v>22.43471049370795</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>15.83189333907147</v>
+        <v>28.65756902844566</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.85519439759922</v>
+        <v>37.6273307917409</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.71756051665244</v>
+        <v>11.47811064738095</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.83391504631777</v>
+        <v>18.24088998692462</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.85983926366653</v>
+        <v>26.17993107777988</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>15.69894834277196</v>
+        <v>-4.917134710021175</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>15.77860936799068</v>
+        <v>-1.401266550298446</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.81070671659593</v>
+        <v>5.644404112502166</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.76476212159581</v>
+        <v>-3.339300873438214</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.83073934885411</v>
+        <v>14.31209127819611</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.85344390724888</v>
+        <v>24.26675604968971</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>15.86715112334939</v>
+        <v>12.4107795668175</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>15.9119136479083</v>
+        <v>22.36523192750636</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>15.93694114705299</v>
+        <v>31.48419135512815</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.74179278575352</v>
+        <v>2.221869437093495</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.85971885613243</v>
+        <v>15.11513919994542</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>15.89805001184009</v>
+        <v>21.5802714274027</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>15.72603615028988</v>
+        <v>17.08415929391016</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>15.86013433892209</v>
+        <v>24.77876567751672</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>15.89220642224639</v>
+        <v>34.18878954676302</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>15.70950162574631</v>
+        <v>-1.962438458735042</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.80596335504877</v>
+        <v>8.104993566608314</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.84581860256148</v>
+        <v>15.10671610876835</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>15.79200475392063</v>
+        <v>4.05906958089688</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>15.87228730769427</v>
+        <v>28.85129625942194</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>15.90082626268905</v>
+        <v>41.44934111812846</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.93715981591291</v>
+        <v>32.9715404007304</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.98764338975369</v>
+        <v>43.62125513592533</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.01691706622429</v>
+        <v>51.38703647916083</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.78961398101142</v>
+        <v>12.70587689465082</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>15.93149936569629</v>
+        <v>31.00815653116505</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>15.97910390101348</v>
+        <v>40.04811193839812</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.76119474351884</v>
+        <v>12.9849496070344</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>15.84007362628762</v>
+        <v>28.14583047620317</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.85179809394501</v>
+        <v>37.70044891832666</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.76262826425785</v>
+        <v>5.262823984103449</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>15.81517480137301</v>
+        <v>26.2256223534769</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>15.83083867857391</v>
+        <v>34.34063454980047</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>15.80438426259721</v>
+        <v>14.69865819948691</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.84820145213087</v>
+        <v>48.79286167482943</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>15.85841590002961</v>
+        <v>57.52345669864513</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.86122721994528</v>
+        <v>45.96459464461545</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>15.88747197112512</v>
+        <v>47.10276817728491</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>15.89804915365278</v>
+        <v>54.04829775044206</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.77584605973449</v>
+        <v>9.363854540761018</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.84973520189165</v>
+        <v>31.10349512718842</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.8697758843233</v>
+        <v>43.5798089131694</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.74105984155341</v>
+        <v>9.237510525619637</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>15.85734543220802</v>
+        <v>24.33430999194571</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.88014405929907</v>
+        <v>31.55560072038638</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>15.72362762540854</v>
+        <v>-2.273621328323889</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>15.80690971641983</v>
+        <v>12.48649573188567</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>15.83526640200229</v>
+        <v>21.96946600867901</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>15.78969964380069</v>
+        <v>-0.1387957878741286</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>15.85845537502913</v>
+        <v>28.86523700446741</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>15.87829476958554</v>
+        <v>38.96617517253157</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>15.89229369388895</v>
+        <v>31.6814166721453</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>15.93711588861805</v>
+        <v>39.20939833771344</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.95901375279171</v>
+        <v>47.77223245561841</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.76341737785972</v>
+        <v>1.998978511813657</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.88570269415101</v>
+        <v>27.13284187511007</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>15.91900354829503</v>
+        <v>38.11255706632233</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>15.74595610621552</v>
+        <v>6.704631918522461</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.87976141759396</v>
+        <v>23.87449386798375</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>15.90820689231011</v>
+        <v>35.86059688418573</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>15.72911917873017</v>
+        <v>-6.434667385897553</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>15.8291660771812</v>
+        <v>14.32727058042804</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>15.86466160555409</v>
+        <v>27.17232946929648</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>15.81203064337861</v>
+        <v>-0.4735431638920513</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>15.89504893378885</v>
+        <v>34.36005953597195</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>15.92023974992335</v>
+        <v>52.00278758720665</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>15.95382106354245</v>
+        <v>38.31025951900383</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>16.00484581280368</v>
+        <v>49.40329310385887</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.03078204476151</v>
+        <v>62.97806915179272</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>15.80376022405662</v>
+        <v>-1.680092371718571</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>15.94986582149197</v>
+        <v>33.02455865518785</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>15.99155857445518</v>
+        <v>47.39414427323263</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>15.77289712850712</v>
+        <v>6.780938970149828</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>15.84413510491963</v>
+        <v>20.09358460592187</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>15.85611420635591</v>
+        <v>32.47633120940728</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>15.77922595522895</v>
+        <v>2.669653164475852</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>15.82641145350818</v>
+        <v>32.88755980846516</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.84219200376083</v>
+        <v>37.96368039226284</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>15.81439343218346</v>
+        <v>11.01777778641926</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>15.85392083704086</v>
+        <v>50.28305824917609</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.86449726051605</v>
+        <v>58.3440026174949</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>15.87193267012512</v>
+        <v>34.20734690684972</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>15.89621427971892</v>
+        <v>39.41396284777871</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.90742372544538</v>
+        <v>41.4349860360056</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.79889129441481</v>
+        <v>11.46542417605218</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>15.86466473513989</v>
+        <v>25.91145529738744</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>15.8852733310669</v>
+        <v>42.27770075666653</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>15.75872394758121</v>
+        <v>8.319161346471631</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>15.86363767715208</v>
+        <v>23.89578907654371</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>15.88606768791639</v>
+        <v>31.890791647285</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>15.74919590347851</v>
+        <v>-2.702347176714452</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>15.82398245110802</v>
+        <v>15.06775965181948</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>15.85170994894971</v>
+        <v>22.48309617588101</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>15.80557222947653</v>
+        <v>-0.1400067080474194</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>15.86755098550894</v>
+        <v>32.51186061229693</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>15.88722486697974</v>
+        <v>42.77691177548672</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>15.90721586256844</v>
+        <v>28.3399024695496</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>15.94899294096749</v>
+        <v>40.92376119452217</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>15.97046432296989</v>
+        <v>50.72541339904114</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.79522892798937</v>
+        <v>3.258037262552829</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>15.90450672984451</v>
+        <v>28.27919935096209</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>15.93783076336141</v>
+        <v>37.94088962915979</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.75951471391039</v>
+        <v>10.35031583016043</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>15.87953732578429</v>
+        <v>26.00431334490743</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>15.90732854745034</v>
+        <v>36.69284205006616</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>15.75149648776901</v>
+        <v>-2.636043945199413</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>15.84061164059153</v>
+        <v>19.53541697422875</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>15.87508319027317</v>
+        <v>28.39070669285611</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>15.82224882138899</v>
+        <v>2.117269233777124</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>15.89642452492939</v>
+        <v>39.57747320004164</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>15.92118705547813</v>
+        <v>54.73345736918026</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>15.95920864941757</v>
+        <v>41.83646521016617</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.0058879086915</v>
+        <v>55.01940916382161</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.03102913146627</v>
+        <v>65.90718223804468</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>15.82824851319378</v>
+        <v>4.126417457066074</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>15.95798212302961</v>
+        <v>36.83570933252116</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.99937601015978</v>
+        <v>51.31267928147349</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.77595054032535</v>
+        <v>15.64968109854642</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.82594204154419</v>
+        <v>21.90659393801187</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.83487866490439</v>
+        <v>32.19995768257841</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.780065253656</v>
+        <v>15.84596455155918</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>15.81167588359093</v>
+        <v>38.67321682751324</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>15.82342983366136</v>
+        <v>42.60486798974571</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.80464283464603</v>
+        <v>19.70313037969521</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>15.83116249268837</v>
+        <v>48.46403468198547</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>15.83904763074188</v>
+        <v>55.35984472015402</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.84180558694352</v>
+        <v>35.00051339822515</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.85820961487949</v>
+        <v>37.89467206584756</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>15.86687225726057</v>
+        <v>41.62889142148688</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>15.79045402002374</v>
+        <v>22.63482248771244</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>15.83485211136408</v>
+        <v>26.78988280681492</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>15.85019170734092</v>
+        <v>41.16027374163905</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>15.76713174852882</v>
+        <v>18.43696682917642</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>15.84116719840015</v>
+        <v>29.24133639871015</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.85801420339192</v>
+        <v>37.11157586396133</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>15.75979815123981</v>
+        <v>21.47268233709217</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>15.81077920688598</v>
+        <v>33.51901495659634</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.8315721947619</v>
+        <v>41.08749140827053</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>15.79941888785625</v>
+        <v>11.07645491900589</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>15.84167696515771</v>
+        <v>35.82837525002396</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.85645713277855</v>
+        <v>46.33494174481707</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>15.86813460707843</v>
+        <v>31.7814121265198</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>15.89695166285498</v>
+        <v>44.56043904706478</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>15.91346868267781</v>
+        <v>54.0651708337272</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>15.78855579031578</v>
+        <v>14.38517537687093</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>15.8637905374626</v>
+        <v>30.71073251054293</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.88877853741328</v>
+        <v>40.54270064717377</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>15.76837664256309</v>
+        <v>18.55647922230432</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>15.85343954362443</v>
+        <v>28.65506344099881</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>15.87423328913067</v>
+        <v>37.06800393895047</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.76227767812558</v>
+        <v>20.48876930219327</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>15.82366914054168</v>
+        <v>36.48777893586926</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>15.84943147864442</v>
+        <v>43.29029832610613</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.81243486977558</v>
+        <v>13.17770602785827</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>15.86355906129036</v>
+        <v>42.58359645152461</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>15.8820847697133</v>
+        <v>55.34736897111384</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>15.90731038397317</v>
+        <v>44.83722975565887</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>15.93956606294438</v>
+        <v>55.42584807389625</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>15.95881847258371</v>
+        <v>65.35839255891334</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>15.81377164003986</v>
+        <v>14.47838703330707</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>15.90388036377787</v>
+        <v>37.41348894069455</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.93483208137465</v>
+        <v>51.5713265056939</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.75636128575423</v>
+        <v>5.520289897161677</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.83189608758514</v>
+        <v>20.38693667980532</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>15.84266223409302</v>
+        <v>30.44053050164671</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>15.75792054095974</v>
+        <v>-3.419831507051589</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.80900451162489</v>
+        <v>18.74602035401652</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>15.82345044392162</v>
+        <v>23.30578537438907</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>15.79756112514745</v>
+        <v>4.853693303819542</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.84021709880016</v>
+        <v>41.41209751507154</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>15.84957298980275</v>
+        <v>48.19614940515723</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>15.85250727870241</v>
+        <v>39.00446761146694</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>15.87793249113055</v>
+        <v>40.82631648316637</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.88790603117795</v>
+        <v>43.81386969942989</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>15.7718060814893</v>
+        <v>0.4875467633705686</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>15.84333410108816</v>
+        <v>24.59466136629297</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.8619244091979</v>
+        <v>34.02446238693101</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>15.73684674161661</v>
+        <v>7.262898530071224</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>15.84786220682383</v>
+        <v>23.12303149448557</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>15.86884204788104</v>
+        <v>28.70272549127321</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>15.72063167493569</v>
+        <v>-5.009729390328518</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>15.80102378643119</v>
+        <v>12.07185597669265</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>15.82715338993577</v>
+        <v>17.2210640724633</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>15.78325658608096</v>
+        <v>-3.273710002155111</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.84972587675826</v>
+        <v>29.19986533926803</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>15.86792556561823</v>
+        <v>36.60194098144149</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>15.88182467545849</v>
+        <v>28.36281599419743</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>15.92503046459967</v>
+        <v>36.7287369542654</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>15.94535520861153</v>
+        <v>42.42373370554171</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>15.7599134913104</v>
+        <v>-3.691122990652106</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>15.87747075481737</v>
+        <v>24.94922204430196</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>15.90825634675105</v>
+        <v>33.0188322510192</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.73729714542105</v>
+        <v>6.751582137639414</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>15.86457677597465</v>
+        <v>22.22502336136351</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>15.8908453288938</v>
+        <v>33.35139076948597</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>15.72157175305429</v>
+        <v>-6.870646121156634</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>15.81750991072915</v>
+        <v>13.56133535141651</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>15.85032212984247</v>
+        <v>22.07341480065447</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>15.79984127116891</v>
+        <v>-3.120901714398746</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>15.87953958010484</v>
+        <v>32.71859450707823</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>15.90274928292253</v>
+        <v>47.67675509703322</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.93453514133255</v>
+        <v>39.90955314070263</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.98342754493857</v>
+        <v>52.33535134873205</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.00741846068345</v>
+        <v>61.24409882946112</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>15.79283593979098</v>
+        <v>-3.936711136213694</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.93252254936228</v>
+        <v>32.26215335453514</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.97118576264137</v>
+        <v>43.87555431169391</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.73792229702476</v>
+        <v>8.884603604534284</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>15.8052175208279</v>
+        <v>5.53704090789596</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.81695796320682</v>
+        <v>13.47537652838711</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>15.73915231606038</v>
+        <v>1.078454672172894</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.78139787835308</v>
+        <v>6.155842346110964</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.79696639487152</v>
+        <v>9.253410080825009</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>15.77477126904504</v>
+        <v>6.646900179956015</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>15.81018662705867</v>
+        <v>19.76527869386222</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>15.82053357881909</v>
+        <v>24.97986841398877</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.81829330453855</v>
+        <v>14.46567517920539</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>15.8394776894855</v>
+        <v>16.00913885243628</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>15.85042568718371</v>
+        <v>19.65526914139595</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.74711098098523</v>
+        <v>3.220340655524517</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>15.80668776044515</v>
+        <v>3.031005208230557</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>15.82682867539938</v>
+        <v>11.36152810248199</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>15.72252929231037</v>
+        <v>5.258927097387096</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>15.82280271760388</v>
+        <v>14.60096587681486</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>15.84527255834965</v>
+        <v>24.46382227393107</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>15.70721793379779</v>
+        <v>-5.382749630386614</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>15.77616615693536</v>
+        <v>2.942818011435818</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>15.80404818263578</v>
+        <v>13.5005931466555</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>15.76391385701055</v>
+        <v>-4.496779978744209</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>15.82100715825369</v>
+        <v>16.04499590649801</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>15.84073000981828</v>
+        <v>28.4174930571391</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>15.84936597235224</v>
+        <v>17.05886933102391</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>15.8873019461425</v>
+        <v>26.46287234179292</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.90856522643324</v>
+        <v>35.50192813247462</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>15.73925169731216</v>
+        <v>-6.680049323332439</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>15.84126318599044</v>
+        <v>13.8007003604165</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>15.87448968849493</v>
+        <v>24.46851440476342</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>15.72896639613427</v>
+        <v>8.101373917993628</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>15.84459363265835</v>
+        <v>18.12944086771137</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>15.87228059665817</v>
+        <v>28.76408223768972</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>15.71503861597167</v>
+        <v>-6.460591256111192</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>15.79856615532864</v>
+        <v>6.71466376643799</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>15.83304459984411</v>
+        <v>16.51380477713266</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>15.78617511408047</v>
+        <v>-0.8244371428981108</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>15.85567858254005</v>
+        <v>24.84271258581642</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>15.88035108203012</v>
+        <v>39.1262574734582</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>15.9077979362789</v>
+        <v>28.94820124444011</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>15.95078576576196</v>
+        <v>38.45877528211334</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.97566777467695</v>
+        <v>42.80435494891049</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>15.77865061279362</v>
+        <v>-2.167576555839196</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>15.90143534588773</v>
+        <v>22.76589513258216</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.94256100259432</v>
+        <v>36.4825647131725</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.76636469204798</v>
+        <v>6.671073040651132</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>15.81544198316322</v>
+        <v>8.673711988625779</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>15.82448157721562</v>
+        <v>17.62522971118803</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.76935388756468</v>
+        <v>0.3110872675336331</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>15.80003375100944</v>
+        <v>16.44177084135407</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.81191384785918</v>
+        <v>19.24850472809398</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.79405772949575</v>
+        <v>6.715881849131614</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>15.81980351730268</v>
+        <v>28.97098022406941</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.82780040468027</v>
+        <v>34.80170214754722</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.82869311334211</v>
+        <v>20.65243759755967</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>15.84464702492702</v>
+        <v>24.176209518036</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.8533319261991</v>
+        <v>28.2935940426945</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>15.77820124384511</v>
+        <v>9.158902769788973</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>15.82142290605499</v>
+        <v>11.92644600229113</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.8369067859156</v>
+        <v>24.10053593734618</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.75344646748845</v>
+        <v>5.14811566888392</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>15.82626320072326</v>
+        <v>14.23656009998452</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.84331870805462</v>
+        <v>26.34803499691961</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.74457737689617</v>
+        <v>1.937393344969236</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>15.79432498336122</v>
+        <v>9.819356053792303</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>15.81537435490763</v>
+        <v>22.68543532783727</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>15.78436765473443</v>
+        <v>-3.208314238606841</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>15.82560015870196</v>
+        <v>17.45308301923023</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>15.84060184393164</v>
+        <v>32.81862832420264</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>15.84928565609088</v>
+        <v>14.32055305208196</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>15.87749153380587</v>
+        <v>28.9049486032204</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.89405033833316</v>
+        <v>41.46550847947135</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.77080387567499</v>
+        <v>-3.530903086553407</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>15.8444580350182</v>
+        <v>12.93003189317505</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.86975427165919</v>
+        <v>26.87214183196603</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.75487286239737</v>
+        <v>5.72292430355032</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>15.83865516031461</v>
+        <v>14.0059793941884</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>15.85963255833973</v>
+        <v>25.21192869518925</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.7472228604457</v>
+        <v>-0.7997022031293266</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.80732063487718</v>
+        <v>11.22812907339787</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>15.83331026654016</v>
+        <v>21.71420161649834</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>15.79748671181152</v>
+        <v>-3.015646997127918</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>15.84753465773383</v>
+        <v>22.44154149547284</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>15.86625933170764</v>
+        <v>38.30808414743648</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.88845395071403</v>
+        <v>28.23062127406573</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>15.92007678924169</v>
+        <v>38.41925627100095</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.93935710482052</v>
+        <v>50.07378421796796</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>15.79609210943163</v>
+        <v>-2.620121740690676</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>15.88453119907035</v>
+        <v>18.14898956463767</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>15.91576532275088</v>
+        <v>36.1577560828414</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>15.77237149972171</v>
+        <v>14.59880742527207</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>15.84909913642394</v>
+        <v>22.93359472563979</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.86130813100397</v>
+        <v>36.17236024736376</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>15.78006648858865</v>
+        <v>5.652176570341039</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>15.83012678083943</v>
+        <v>36.93981175646993</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>15.84639977108858</v>
+        <v>44.04093026391399</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.81841429070847</v>
+        <v>16.27282241452565</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>15.86038783505164</v>
+        <v>54.4610442449488</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.87112194592182</v>
+        <v>63.72909882200944</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>15.87855151606519</v>
+        <v>37.22111063572772</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>15.90343705745328</v>
+        <v>41.66468796748856</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>15.91452506847798</v>
+        <v>46.596164300254</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>15.79896500598699</v>
+        <v>25.13319520743747</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>15.86872241221369</v>
+        <v>31.1340057135497</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>15.89008158942206</v>
+        <v>53.80603196108879</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>15.75361313627774</v>
+        <v>20.74072093931997</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.866811981238</v>
+        <v>30.50424978989129</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>15.89006742583198</v>
+        <v>36.92339708949415</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>15.74338458812908</v>
+        <v>4.917049522748734</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>15.82315466399509</v>
+        <v>22.57795356787138</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>15.85205826813024</v>
+        <v>28.68220033935488</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>15.80518588971245</v>
+        <v>5.969078138642219</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>15.87131483747406</v>
+        <v>36.5717032198604</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>15.89164261264903</v>
+        <v>44.48190876152569</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>15.91103157725588</v>
+        <v>36.24851943823344</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>15.95423049966146</v>
+        <v>42.52336288146056</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>15.97612950682703</v>
+        <v>49.71285737492313</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>15.78919787773927</v>
+        <v>15.70007842915267</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>15.9057979161946</v>
+        <v>34.94445566517823</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>15.94052160423863</v>
+        <v>43.6161621407178</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.75820120965991</v>
+        <v>19.86533585693092</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>15.88806826787935</v>
+        <v>29.42886413666568</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>15.91702151888399</v>
+        <v>39.67612802786346</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>15.74934846860086</v>
+        <v>2.474854193317048</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>15.84493009553053</v>
+        <v>24.15086494346183</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>15.88104141890091</v>
+        <v>32.63040244405104</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>15.82709893843043</v>
+        <v>10.37584978633295</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>15.90668445543153</v>
+        <v>45.3588662057796</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.93243173435573</v>
+        <v>59.09619602626744</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>15.9718095172933</v>
+        <v>46.24377074039653</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>16.02045590182945</v>
+        <v>56.92775943887141</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>16.04623539807894</v>
+        <v>65.23169509479408</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>15.8290818165145</v>
+        <v>12.50737216485215</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>15.96821504390229</v>
+        <v>39.23333944168879</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.01154257176774</v>
+        <v>54.92433798954799</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>15.75520275253765</v>
+        <v>3.57242680256264</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>15.83248766059956</v>
+        <v>16.68303727666932</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>15.84367855318676</v>
+        <v>26.35964434520813</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>15.75785702408785</v>
+        <v>-3.829528590247593</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>15.81023784651819</v>
+        <v>18.39638683525244</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>15.82524840043494</v>
+        <v>21.68908508223462</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>15.79784895839947</v>
+        <v>2.439724706154667</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>15.84161546093627</v>
+        <v>38.043993851881</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>15.85137931862605</v>
+        <v>44.56264145179437</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>15.85467064023481</v>
+        <v>37.30363824722499</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>15.88059473939386</v>
+        <v>40.13282801956375</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>15.89104631960859</v>
+        <v>41.48571232335498</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.77230231744068</v>
+        <v>-1.210717744134326</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.84554066161615</v>
+        <v>22.95188109489187</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.86492839810658</v>
+        <v>31.64994803900782</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>15.73593146093229</v>
+        <v>7.404087308469368</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>15.84945865809188</v>
+        <v>23.23417543957815</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>15.87113465122229</v>
+        <v>29.4243083290711</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>15.72071424977661</v>
+        <v>-4.185600761042691</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>15.80305575600723</v>
+        <v>13.27987422694044</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>15.83006459954449</v>
+        <v>19.39442283920141</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>15.78397813209277</v>
+        <v>-1.067608472757188</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>15.85209916897722</v>
+        <v>31.5172401289145</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>15.87095023544045</v>
+        <v>40.35628123927101</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>15.88559242009138</v>
+        <v>31.42456200617763</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>15.92967082719698</v>
+        <v>40.00505192956714</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>15.95071132970128</v>
+        <v>44.93138763707147</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>15.76109175157298</v>
+        <v>-2.664422989154852</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>15.88136216948775</v>
+        <v>27.13623397030806</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.91330714302204</v>
+        <v>36.77587430966789</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>15.73544615679464</v>
+        <v>7.700746546412169</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>15.86544234604017</v>
+        <v>22.55838919572889</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>15.89256419395329</v>
+        <v>33.55330835371383</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>15.72070829316964</v>
+        <v>-6.755344360244257</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>15.81876998397192</v>
+        <v>13.39761509918153</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>15.85265698292304</v>
+        <v>21.68207812795354</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>15.79986016151829</v>
+        <v>-2.449658905046126</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>15.88136160415896</v>
+        <v>32.77816727316825</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>15.90537309174635</v>
+        <v>48.10175316443816</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>15.93802391855482</v>
+        <v>38.63881908011857</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>15.98776201384949</v>
+        <v>50.34744185895077</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>16.01258139305469</v>
+        <v>59.56849146836685</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>15.79333590930063</v>
+        <v>-4.829171250072184</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>15.93598766373045</v>
+        <v>30.74266976984311</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>15.97607404588607</v>
+        <v>44.23698636490068</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.816468484432189</v>
+        <v>4.816468484432166</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.963043977437051</v>
+        <v>5.963043977436994</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.16954632851348</v>
+        <v>14.16954632851355</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.638815304237839</v>
+        <v>-3.638815304237864</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.852854291407011</v>
+        <v>8.852854291406899</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.13791537899884</v>
+        <v>11.13791537899963</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.379195628493948</v>
+        <v>1.379195628494546</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.84006720504881</v>
+        <v>21.8400672050494</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.86173218244693</v>
+        <v>26.86173218244776</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.25284592008672</v>
+        <v>13.252845920087</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.4795727671687</v>
+        <v>17.47957276716873</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.58369798732787</v>
+        <v>21.58369798732843</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.846376668883291</v>
+        <v>2.84637666888362</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.078217884468103</v>
+        <v>5.078217884468859</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.36984215212555</v>
+        <v>15.36984215212595</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.975998756208359</v>
+        <v>9.975998756208689</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.00979872664362</v>
+        <v>22.00979872664363</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.87508612647422</v>
+        <v>32.87508612647425</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.744882782744613</v>
+        <v>-1.744882782744694</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.48457771657468</v>
+        <v>8.484577716574249</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.83740412328943</v>
+        <v>19.83740412328937</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3213775094506435</v>
+        <v>0.3213775094505689</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.27031520242794</v>
+        <v>24.27031520242791</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.17806070660149</v>
+        <v>38.17806070660177</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.62655989409615</v>
+        <v>22.6265598940966</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>37.67665121722726</v>
+        <v>37.67665121722664</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.38698277252756</v>
+        <v>51.38698277252732</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.214186064377229</v>
+        <v>2.214186064377142</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.16337732623392</v>
+        <v>23.16337732623408</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.39853556434416</v>
+        <v>35.39853556434392</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.59216705471074</v>
+        <v>12.59216705471072</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.11600591909908</v>
+        <v>25.11600591909875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.71013579795321</v>
+        <v>35.71013579795339</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.751152225123411</v>
+        <v>-2.751152225123915</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.88779748543127</v>
+        <v>12.88779748543129</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.42355639623375</v>
+        <v>22.42355639623402</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.296862417043195</v>
+        <v>1.296862417043339</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.33596176645749</v>
+        <v>31.33596176645788</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.12572662889224</v>
+        <v>46.12572662889227</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.21718848857768</v>
+        <v>36.21718848857796</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.92341215630571</v>
+        <v>49.92341215630558</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.72633777279196</v>
+        <v>61.72633777279194</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.50619077198205</v>
+        <v>6.50619077198157</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.9358502630628</v>
+        <v>32.9358502630627</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.81901753794318</v>
+        <v>46.81901753794336</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.666557099874698</v>
+        <v>2.666557099874577</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.82169089963198</v>
+        <v>25.82169089963242</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.80080719892378</v>
+        <v>35.80080719892428</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.7338804713413918</v>
+        <v>-0.7338804713414522</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.46593501651932</v>
+        <v>32.46593501651938</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.99169778530023</v>
+        <v>38.99169778530034</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.950982968365146</v>
+        <v>6.950982968364992</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>54.89495730913221</v>
+        <v>54.89495730913222</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.2939776552404</v>
+        <v>62.2939776552407</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.21327432994971</v>
+        <v>41.21327432994944</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.25046462455759</v>
+        <v>48.25046462455835</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.85112689045486</v>
+        <v>49.85112689045432</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.9285600699929</v>
+        <v>1.928560069992473</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.70981538701198</v>
+        <v>30.70981538701175</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.87761975870263</v>
+        <v>43.8776197587021</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.612437112439647</v>
+        <v>4.612437112439574</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.19286885436387</v>
+        <v>26.19286885436419</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.1682531209283</v>
+        <v>34.16825312092807</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-5.163251336450761</v>
+        <v>-5.163251336451003</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.80287682737413</v>
+        <v>18.8028768273741</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.71198924059539</v>
+        <v>28.7119892405957</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.524057486678144</v>
+        <v>-1.524057486678542</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.07205368529999</v>
+        <v>39.07205368529946</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>49.35972339879937</v>
+        <v>49.35972339879945</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.40682890723008</v>
+        <v>37.40682890723035</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.89385695583911</v>
+        <v>49.893856955839</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.5476117144861</v>
+        <v>59.54761171448576</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3326134805059535</v>
+        <v>0.3326134805053673</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.56670269112131</v>
+        <v>37.56670269111974</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.94050827270276</v>
+        <v>47.94050827270237</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.896196056766248</v>
+        <v>5.896196056766</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.75477812780343</v>
+        <v>29.75477812780311</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.3308505423356</v>
+        <v>41.33085054233526</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-6.659740185401981</v>
+        <v>-6.659740185402233</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>23.39629398948653</v>
+        <v>23.39629398948628</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.68942860977605</v>
+        <v>34.68942860977607</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.057692766400612</v>
+        <v>2.057692766400583</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.41826433493837</v>
+        <v>48.41826433493819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>65.28346644058416</v>
+        <v>65.28346644058412</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49.28703079262837</v>
+        <v>49.2870307926286</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.5815206949076</v>
+        <v>64.58152069490785</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>75.57757194346117</v>
+        <v>75.57757194346128</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.01380454281029486</v>
+        <v>-0.01380454281045651</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.69573554076782</v>
+        <v>46.69573554076812</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.3236617772151</v>
+        <v>59.32366177721518</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.68867681748909</v>
+        <v>11.68867681748912</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.03264403864258</v>
+        <v>24.03264403864265</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.42267115390329</v>
+        <v>32.42267115390364</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.949111441605432</v>
+        <v>2.949111441605428</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.97870204950164</v>
+        <v>24.97870204950172</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.07384944940362</v>
+        <v>29.07384944940316</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.043839419420232</v>
+        <v>9.043839419420209</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>46.36455191771719</v>
+        <v>46.36455191771732</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.64177049513502</v>
+        <v>51.64177049513515</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.11045502578762</v>
+        <v>36.11045502578743</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.97173240884485</v>
+        <v>43.97173240884487</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.47156257426001</v>
+        <v>43.47156257426028</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.299065724932285</v>
+        <v>8.299065724931664</v>
       </c>
     </row>
     <row r="105">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.62067891303801</v>
+        <v>34.620678913037</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.03326010180211</v>
+        <v>16.03326010180168</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.7930925510106</v>
+        <v>31.79309255101069</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.42872437892014</v>
+        <v>38.42872437892</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.642945121303603</v>
+        <v>1.642945121303617</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.55561930754675</v>
+        <v>21.55561930754684</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.29263325546253</v>
+        <v>29.29263325546291</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.958465723834314</v>
+        <v>5.958465723834363</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.0249938733061</v>
+        <v>42.02499387330614</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.77611385358226</v>
+        <v>50.7761138535819</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.93972201198982</v>
+        <v>41.93972201198953</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.9588187813528</v>
+        <v>53.95881878135323</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.1924237513422</v>
+        <v>60.19242375134136</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>12.37025775173815</v>
+        <v>12.3702577517378</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.1171183399923</v>
+        <v>39.11711833999158</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.45724721524726</v>
+        <v>48.4572472152466</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.72074603220658</v>
+        <v>14.72074603220672</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.76238336220948</v>
+        <v>32.76238336220903</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.24550042291052</v>
+        <v>44.24550042291088</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-2.421949896453073</v>
+        <v>-2.421949896453215</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>23.93572886815218</v>
+        <v>23.93572886815184</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.7486154614698</v>
+        <v>33.74861546146968</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.683630162015504</v>
+        <v>5.683630162015369</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.95149771436522</v>
+        <v>47.95149771436485</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.91947688619079</v>
+        <v>63.91947688619077</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.62248937591272</v>
+        <v>52.6224893759126</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.08870981320759</v>
+        <v>67.08870981320744</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.66174895942791</v>
+        <v>74.66174895942794</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>10.19569017285385</v>
+        <v>10.19569017285347</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.15352982734883</v>
+        <v>47.15352982734962</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.94324117110215</v>
+        <v>59.94324117110236</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6.018876462340209</v>
+        <v>6.018876462340163</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7.304985530990335</v>
+        <v>7.304985530990914</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>13.9956966166367</v>
+        <v>13.99569661663666</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2.231729961684072</v>
+        <v>-2.231729961683753</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8.636621218453193</v>
+        <v>8.636621218452703</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.26696583660855</v>
+        <v>10.26696583660896</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.252607329301535</v>
+        <v>3.252607329301497</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.94737615155024</v>
+        <v>21.94737615154988</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.89554801047035</v>
+        <v>25.89554801047058</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.78137507993232</v>
+        <v>17.78137507993265</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.09144853984199</v>
+        <v>20.09144853984178</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.47288328083332</v>
+        <v>25.47288328083347</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.15515610888254</v>
+        <v>26.15515610888211</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.84461673200602</v>
+        <v>26.84461673200627</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.37056986291827</v>
+        <v>34.37056986291817</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.318917219173795</v>
+        <v>9.318917219173905</v>
       </c>
     </row>
     <row r="153">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.87673489252476</v>
+        <v>30.87673489252485</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.550183898712833</v>
+        <v>-1.550183898712993</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.616460557752699</v>
+        <v>6.616460557752534</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.79255730495338</v>
+        <v>17.79255730495284</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1.958627609440294</v>
+        <v>-1.958627609440514</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.02578779608712</v>
+        <v>19.02578779608691</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.56527277104303</v>
+        <v>32.56527277104313</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>15.19839878072935</v>
+        <v>15.19839878072948</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.18089057836529</v>
+        <v>32.18089057836421</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.64809953795359</v>
+        <v>47.64809953795331</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.089332884435759</v>
+        <v>6.089332884436004</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.94495938535577</v>
+        <v>23.94495938535616</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.7315797456888</v>
+        <v>33.73157974568833</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.03377249468391</v>
+        <v>14.03377249468424</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.07771431378515</v>
+        <v>24.07771431378509</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.00850618930662</v>
+        <v>35.00850618930667</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.616465304084967</v>
+        <v>-1.616465304084953</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.804025801119</v>
+        <v>10.80402580111889</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.28422650960078</v>
+        <v>21.28422650960009</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.27398282552477</v>
+        <v>2.273982825524628</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.20353478597351</v>
+        <v>28.20353478597367</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.9988154310144</v>
+        <v>43.99881543101443</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.29452152466385</v>
+        <v>29.294521524663</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.81906016807974</v>
+        <v>42.81906016807901</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.64557522143655</v>
+        <v>58.64557522143675</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.94825700367578</v>
+        <v>10.94825700367632</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.01942814145551</v>
+        <v>33.01942814145518</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.40591309413196</v>
+        <v>45.40591309413225</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.477278891887179</v>
+        <v>6.477278891887382</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.10007451688352</v>
+        <v>17.10007451688342</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.54080901870178</v>
+        <v>25.54080901870173</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.061068732407715</v>
+        <v>2.061068732408051</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.50960215436057</v>
+        <v>26.50960215436063</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.20179052432481</v>
+        <v>29.20179052432424</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.75785259893223</v>
+        <v>11.75785259893211</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.71667313207295</v>
+        <v>44.71667313207286</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>49.71765740008034</v>
+        <v>49.7176574000801</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.27242605846214</v>
+        <v>27.272426058462</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.8596913937455</v>
+        <v>31.8596913937452</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.72578369674143</v>
+        <v>33.72578369674149</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.998427156617339</v>
+        <v>8.998427156617693</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.22939854994161</v>
+        <v>15.2293985499414</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.20961322051124</v>
+        <v>24.20961322051135</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.17739079108078</v>
+        <v>17.17739079108102</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.19274976920071</v>
+        <v>33.19274976920061</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.69593403799913</v>
+        <v>39.69593403799912</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.578338271215761</v>
+        <v>5.578338271215955</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.14085779394683</v>
+        <v>24.14085779394681</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.10971577164665</v>
+        <v>31.10971577164622</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.40046744605384</v>
+        <v>11.40046744605351</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>43.36023144551117</v>
+        <v>43.36023144551068</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.49454194401055</v>
+        <v>52.49454194401063</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.63548147101181</v>
+        <v>40.63548147101162</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>57.2434666247168</v>
+        <v>57.2434666247166</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.27330432647423</v>
+        <v>66.27330432647389</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.99125445196585</v>
+        <v>20.99125445196513</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.11698450012967</v>
+        <v>42.11698450012969</v>
       </c>
     </row>
     <row r="211">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.51462946296739</v>
+        <v>17.51462946296743</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.30686000890373</v>
+        <v>31.30686000890397</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.33684066402526</v>
+        <v>41.33684066402542</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.5925002474320333</v>
+        <v>0.5925002474315786</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>20.44281349413352</v>
+        <v>20.44281349413361</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.57353203805631</v>
+        <v>29.5735320380565</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>8.694051232457399</v>
+        <v>8.694051232457337</v>
       </c>
     </row>
     <row r="219">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.57225064575182</v>
+        <v>57.57225064575144</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.38937134998898</v>
+        <v>45.38937134998923</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.13615995469466</v>
+        <v>61.1361599546938</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.39292619949761</v>
+        <v>71.39292619949774</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.20665880104751</v>
+        <v>16.20665880104774</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44.24825523218882</v>
+        <v>44.24825523218885</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.80589492348017</v>
+        <v>55.80589492347968</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.5031021335945987</v>
+        <v>0.5031021335940729</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>14.67992211042202</v>
+        <v>14.67992211042186</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.70735933944921</v>
+        <v>25.70735933944851</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.871386839593365</v>
+        <v>2.871386839592832</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.48360946485821</v>
+        <v>30.48360946485813</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.31975190758103</v>
+        <v>36.31975190758077</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.79957176796513</v>
+        <v>11.79957176796459</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.74891719435345</v>
+        <v>52.74891719435295</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.9872286628237</v>
+        <v>58.98722866282348</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.21863275308228</v>
+        <v>32.21863275308161</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.24946367128899</v>
+        <v>35.24946367128866</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.70399806865016</v>
+        <v>36.70399806865006</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3.277549632527597</v>
+        <v>3.277549632527332</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.159307376962156</v>
+        <v>8.159307376962385</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.05158084031313</v>
+        <v>19.05158084031306</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.54462601721795</v>
+        <v>14.54462601721759</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.17403422175972</v>
+        <v>38.17403422175931</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43.03621221254316</v>
+        <v>43.0362122125427</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-1.926478607960009</v>
+        <v>-1.926478607959909</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.74353055209162</v>
+        <v>30.7435305520917</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.74639340310041</v>
+        <v>36.74639340310003</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.131738374660628</v>
+        <v>6.131738374661076</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.72990483512241</v>
+        <v>53.72990483512313</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>59.1795552673158</v>
+        <v>59.17955526731589</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>46.23778015717517</v>
+        <v>46.23778015717532</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.61336302456685</v>
+        <v>59.61336302456688</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.44432743197245</v>
+        <v>66.44432743197311</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.70075315924297</v>
+        <v>13.70075315924327</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.94841928899812</v>
+        <v>50.94841928899876</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.20417463132686</v>
+        <v>57.20417463132763</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.84703580632649</v>
+        <v>17.84703580632659</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.63897416953395</v>
+        <v>38.63897416953368</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.18541616745855</v>
+        <v>48.18541616745869</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-5.364320350030601</v>
+        <v>-5.364320350030708</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.19468711765469</v>
+        <v>27.19468711765464</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.27270166956841</v>
+        <v>35.27270166956848</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.080133076949201</v>
+        <v>7.080133076949091</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>53.84403014567302</v>
+        <v>53.84403014567314</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.74889148959669</v>
+        <v>66.74889148959697</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.1494938240412</v>
+        <v>52.14949382404112</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.74836066226926</v>
+        <v>67.74836066226941</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>75.05992062984514</v>
+        <v>75.05992062984566</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.678489517752048</v>
+        <v>9.678489517752082</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.76916798082457</v>
+        <v>53.76916798082443</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.4006362492533</v>
+        <v>62.40063624925344</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.663793615869954</v>
+        <v>6.663793615869684</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-0.08694124239010748</v>
+        <v>-0.08694124238999379</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.334279797235197</v>
+        <v>8.334279797235244</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.3994629123077491</v>
+        <v>0.3994629123078983</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5.125293775198703</v>
+        <v>5.125293775198909</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>8.584583198891055</v>
+        <v>8.584583198891044</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.283125995275034</v>
+        <v>2.283125995274942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.75338858553673</v>
+        <v>16.75338858553676</v>
       </c>
     </row>
     <row r="280">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.14978754346798</v>
+        <v>13.149787543468</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.13820759531801</v>
+        <v>19.13820759531826</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.73684492045641</v>
+        <v>20.73684492045638</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.999432515466017</v>
+        <v>3.999432515465717</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-0.3051947298546551</v>
+        <v>-0.3051947298553337</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.568722792367543</v>
+        <v>6.568722792367668</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.563262803890906</v>
+        <v>8.563262803890501</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.29699379732211</v>
+        <v>18.29699379732224</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.05752581578529</v>
+        <v>30.05752581578499</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.973901316926147</v>
+        <v>-1.973901316926176</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>9.591947384930268</v>
+        <v>9.591947384930307</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.3927725408496</v>
+        <v>22.39277254084981</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-0.325710292962718</v>
+        <v>-0.3257102929629774</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.6797499193364</v>
+        <v>24.67974991933671</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.10613275256444</v>
+        <v>38.10613275256474</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.17506998939387</v>
+        <v>25.1750699893941</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.65770741762092</v>
+        <v>37.65770741762094</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.79837345666122</v>
+        <v>47.79837345666164</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.082459350814185</v>
+        <v>3.082459350814249</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.17357449685915</v>
+        <v>25.17357449685903</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.73220361980066</v>
+        <v>34.73220361980054</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.633048333571866</v>
+        <v>8.63304833357183</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.30740961927746</v>
+        <v>20.30740961927753</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.38205737385921</v>
+        <v>33.38205737385912</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-4.917382556108938</v>
+        <v>-4.917382556109187</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.95189642353546</v>
+        <v>12.95189642353558</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.13557794870747</v>
+        <v>25.13557794870762</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1.013954501182642</v>
+        <v>1.013954501182884</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.40603852422031</v>
+        <v>32.40603852422032</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.50583828158377</v>
+        <v>48.50583828158399</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.74826494086948</v>
+        <v>38.74826494086954</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.71370888013048</v>
+        <v>53.71370888012988</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.16265893406646</v>
+        <v>60.16265893406706</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.81825117612896</v>
+        <v>9.818251176128795</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.11390783704746</v>
+        <v>36.11390783704724</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.04337127110112</v>
+        <v>50.04337127110053</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-0.992709749904785</v>
+        <v>-0.9927097499050053</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.4837121052367639</v>
+        <v>0.4837121052363695</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7.135627849245443</v>
+        <v>7.135627849245013</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.907505306818782</v>
+        <v>-3.907505306819266</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.011610276851917</v>
+        <v>7.011610276852105</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.833637122166216</v>
+        <v>7.833637122165932</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-4.89337963524572</v>
+        <v>-4.89337963524545</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.75596844094427</v>
+        <v>15.75596844094402</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.99334849930701</v>
+        <v>18.99334849930716</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5.893095001944483</v>
+        <v>5.893095001944516</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>9.623303858622879</v>
+        <v>9.62330385862227</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.4212860361489</v>
+        <v>11.42128603614889</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.2184800363579953</v>
+        <v>0.2184800363579456</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-0.2727531476606231</v>
+        <v>-0.2727531476612555</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.626054977179729</v>
+        <v>3.626054977179455</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1.550381417142185</v>
+        <v>-1.550381417142335</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1.907654285323654</v>
+        <v>1.907654285323487</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>12.08666347808206</v>
+        <v>12.08666347808183</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-5.083408997798104</v>
+        <v>-5.083408997798285</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-3.493387561961088</v>
+        <v>-3.493387561961127</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>7.050508688192357</v>
+        <v>7.050508688193188</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-8.293284654905042</v>
+        <v>-8.293284654904566</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.519631543844994</v>
+        <v>7.519631543844346</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.27787115460108</v>
+        <v>20.27787115460104</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.361093279571188</v>
+        <v>3.361093279570639</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.13690116406875</v>
+        <v>22.13690116406882</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.42440696283845</v>
+        <v>35.42440696283867</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-6.617400090332405</v>
+        <v>-6.617400090333048</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1.994660340451265</v>
+        <v>1.994660340452331</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.918848696552786</v>
+        <v>8.918848696553335</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.7099575775601128</v>
+        <v>0.7099575775598179</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>3.582867907792687</v>
+        <v>3.582867907792702</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>20.3729799085049</v>
+        <v>20.37297990850513</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-7.502075346427228</v>
+        <v>-7.502075346427715</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-2.331572573467446</v>
+        <v>-2.331572573467716</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>13.772502827389</v>
+        <v>13.77250282738931</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-6.917501815965098</v>
+        <v>-6.917501815964959</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.02925252503019</v>
+        <v>13.02925252502972</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.84494083850668</v>
+        <v>34.84494083850591</v>
       </c>
     </row>
     <row r="356">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.13431200703616</v>
+        <v>33.13431200703597</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.05605735064</v>
+        <v>49.05605735063934</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-9.153625210280234</v>
+        <v>-9.153625210280746</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.797622604827082</v>
+        <v>7.797622604827197</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.83314646173966</v>
+        <v>21.83314646173978</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1.814205732047601</v>
+        <v>1.814205732047402</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.7014868998666</v>
+        <v>17.70148689986705</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.71000458696406</v>
+        <v>33.71000458696469</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.029939330630439</v>
+        <v>-2.02993933063083</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.19692234234289</v>
+        <v>35.1969223423427</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.38216403557314</v>
+        <v>43.38216403557296</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.511854152025505</v>
+        <v>7.511854152025796</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>56.32632562256688</v>
+        <v>56.32632562256648</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.36838059529957</v>
+        <v>66.36838059529994</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.66211546625554</v>
+        <v>40.66211546625561</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.41986914572126</v>
+        <v>49.41986914572162</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.13233208203734</v>
+        <v>49.13233208203742</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.54899825059456</v>
+        <v>13.54899825059451</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.42133535846594</v>
+        <v>31.42133535846523</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.19551283156008</v>
+        <v>51.1955128315597</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7.311611996886565</v>
+        <v>7.31161199688705</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.59133668323343</v>
+        <v>23.59133668323337</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.80015457604383</v>
+        <v>31.80015457604408</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-5.107085283455566</v>
+        <v>-5.10708528345585</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.93894700464994</v>
+        <v>19.93894700465008</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.18660501613677</v>
+        <v>27.18660501613679</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.517649147986239</v>
+        <v>-1.517649147986338</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.95250494052825</v>
+        <v>38.95250494052851</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>47.45026291690635</v>
+        <v>47.45026291690625</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.02365167900044</v>
+        <v>36.02365167900081</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.66862749301468</v>
+        <v>45.66862749301443</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>51.56174660970987</v>
+        <v>51.56174660970993</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.802265913095096</v>
+        <v>7.802265913095025</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.52596291229182</v>
+        <v>37.52596291229241</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.64128216682575</v>
+        <v>45.64128216682578</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.907645520210043</v>
+        <v>9.907645520210151</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.04380104213475</v>
+        <v>27.04380104213472</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.05456716432196</v>
+        <v>40.05456716432198</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-3.781777083073207</v>
+        <v>-3.78177708307342</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.64168975280764</v>
+        <v>25.6416897528076</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.02066121198541</v>
+        <v>36.0206612119858</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>4.141433735677053</v>
+        <v>4.141433735676982</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.38125675537263</v>
+        <v>48.38125675537241</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>64.66419826175334</v>
+        <v>64.66419826175374</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.84613558858376</v>
+        <v>49.84613558858327</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>63.18540298873614</v>
+        <v>63.18540298873604</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>70.72922840744697</v>
+        <v>70.72922840744717</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.386877143600877</v>
+        <v>9.386877143600657</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.20718630956698</v>
+        <v>47.2071863095672</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>62.69105698099682</v>
+        <v>62.69105698099686</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.621756138593474</v>
+        <v>4.621756138592811</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.265008728635395</v>
+        <v>3.265008728635184</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.28333898199153</v>
+        <v>9.283338981991605</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1.205280693848758</v>
+        <v>-1.205280693849007</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.105423560464248</v>
+        <v>-2.105423560464216</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1.790716414234515</v>
+        <v>1.790716414234423</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.6242617126484955</v>
+        <v>0.6242617126481758</v>
       </c>
     </row>
     <row r="414">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.54344403017505</v>
+        <v>16.54344403017486</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>9.2177635363267</v>
+        <v>9.217763536326165</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10.83619576377486</v>
+        <v>10.83619576377464</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.07819983441772</v>
+        <v>16.07819983441737</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-6.478148302406316</v>
+        <v>-6.478148302406291</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-3.667179033794818</v>
+        <v>-3.667179033795128</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.073467359583423</v>
+        <v>2.073467359583214</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.06875384973535</v>
+        <v>2.068753849735744</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.836774090542683</v>
+        <v>9.836774090542798</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.83144495155238</v>
+        <v>20.83144495155254</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.314573328845926</v>
+        <v>-5.31457332884605</v>
       </c>
     </row>
     <row r="426">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.70055465998653</v>
+        <v>10.70055465998658</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-6.011869887832306</v>
+        <v>-6.011869887832725</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.4142982858307</v>
+        <v>10.41429828583036</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.07028836048384</v>
+        <v>24.07028836048397</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.957171140416172</v>
+        <v>6.957171140416493</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.39251860951404</v>
+        <v>17.39251860951444</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.92445074601068</v>
+        <v>29.92445074601069</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-9.554186784069669</v>
+        <v>-9.554186784069492</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>7.950934956328298</v>
+        <v>7.950934956328246</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.6081334901897</v>
+        <v>19.60813349018994</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.025422009803773</v>
+        <v>6.025422009803847</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>13.5019721616803</v>
+        <v>13.50197216168064</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.9640843052998</v>
+        <v>26.96408430529959</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-5.592530446348098</v>
+        <v>-5.59253044634835</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.431228449008108</v>
+        <v>0.4312284490079765</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.3878438966105</v>
+        <v>14.38784389661034</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1.516906794612824</v>
+        <v>-1.516906794612728</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.19996947146781</v>
+        <v>18.19996947146797</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.99578040330177</v>
+        <v>35.99578040330188</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.24025070823039</v>
+        <v>19.24025070823061</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.42551969330081</v>
+        <v>30.42551969330087</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.31815685210527</v>
+        <v>46.31815685210577</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.107014124416819</v>
+        <v>-1.107014124416947</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.46670415299171</v>
+        <v>18.46670415299176</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.1091402572475</v>
+        <v>32.10914025724731</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-4.456587497629849</v>
+        <v>-4.456587497629974</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.325382853499798</v>
+        <v>-2.325382853499553</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.42805675232389</v>
+        <v>3.428056752323892</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-5.429759221679452</v>
+        <v>-5.429759221679715</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1.970516203989463</v>
+        <v>-1.970516203989122</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1.775906977914165</v>
+        <v>1.775906977914232</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-5.929752391848895</v>
+        <v>-5.929752391848668</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.09193580998114</v>
+        <v>14.09193580998161</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.85308614954866</v>
+        <v>17.85308614954857</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.069737068994499</v>
+        <v>7.069737068994524</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>6.656621863988702</v>
+        <v>6.656621863989079</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.134484642100594</v>
+        <v>9.134484642100649</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-11.05467565382213</v>
+        <v>-11.05467565382206</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-11.96167154437403</v>
+        <v>-11.96167154437398</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-6.94830067830336</v>
+        <v>-6.948300678303477</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.51459906687108</v>
+        <v>12.51459906687117</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.18231840383272</v>
+        <v>27.18231840383282</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.26363635511302</v>
+        <v>31.26363635511316</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.2154229670923069</v>
+        <v>0.2154229670920866</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.80676503906712</v>
+        <v>17.80676503906708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.12088010837322</v>
+        <v>24.12088010837354</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.001389167659555</v>
+        <v>4.001389167659926</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.90355268090038</v>
+        <v>36.90355268089981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.06335884212689</v>
+        <v>43.06335884212641</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.9379893942024</v>
+        <v>34.93798939420314</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.23890001122452</v>
+        <v>45.23890001122433</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.51203235482457</v>
+        <v>51.51203235482426</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>9.389627180783037</v>
+        <v>9.389627180783606</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.52922745558062</v>
+        <v>33.52922745558102</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.13147191445778</v>
+        <v>41.13147191445841</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.2712686761761</v>
+        <v>15.27126867617588</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.99331363282841</v>
+        <v>30.9933136328284</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.64051266077468</v>
+        <v>40.64051266077487</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-2.532565347906234</v>
+        <v>-2.532565347906301</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.04711794249834</v>
+        <v>20.04711794249828</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.57891312662888</v>
+        <v>28.57891312662895</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.415497115884245</v>
+        <v>5.415497115884371</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.87370318901218</v>
+        <v>42.87370318901262</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.56292538556946</v>
+        <v>56.56292538557002</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.82603648577938</v>
+        <v>46.8260364857793</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>58.89183017926163</v>
+        <v>58.89183017926143</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.59793135128982</v>
+        <v>66.59793135128949</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>8.309305524878326</v>
+        <v>8.309305524878431</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.89116251155497</v>
+        <v>42.89116251155468</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.64669866057866</v>
+        <v>51.64669866057891</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.414138037059173</v>
+        <v>9.414138037059342</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.842943228348362</v>
+        <v>9.842943228348055</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.93321464117572</v>
+        <v>14.93321464117539</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.15588223078449</v>
+        <v>4.155882230784551</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>7.810993849576745</v>
+        <v>7.810993849576667</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.36694559129608</v>
+        <v>11.36694559129639</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>7.268982356753977</v>
+        <v>7.268982356754032</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.53862433764411</v>
+        <v>23.53862433764349</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.11312360358437</v>
+        <v>27.11312360358448</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.52704086549082</v>
+        <v>16.52704086549103</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.75905864017445</v>
+        <v>19.7590586401741</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.15229416393794</v>
+        <v>23.15229416393754</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.214433926099296</v>
+        <v>7.21443392609908</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>7.663594137433337</v>
+        <v>7.663594137433209</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.39772786582363</v>
+        <v>14.39772786582347</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.844281678868501</v>
+        <v>2.844281678868192</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>4.808052095404999</v>
+        <v>4.808052095404843</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.21351469494892</v>
+        <v>14.21351469494835</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2.379195922344957</v>
+        <v>-2.379195922344993</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-4.212315792681141</v>
+        <v>-4.212315792681453</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8.437645541242446</v>
+        <v>8.437645541242668</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-5.226598152357868</v>
+        <v>-5.226598152357655</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>6.795111085500572</v>
+        <v>6.795111085500226</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.44183439051522</v>
+        <v>19.441834390515</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>4.893429799510802</v>
+        <v>4.89342979951094</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>11.96075457079558</v>
+        <v>11.96075457079563</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.12918795347487</v>
+        <v>25.12918795347483</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.940713860998004</v>
+        <v>-3.940713860998423</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>3.464231997390373</v>
+        <v>3.464231997389712</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.28027879279161</v>
+        <v>14.28027879279172</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.81677869851879</v>
+        <v>12.81677869851876</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.26595089843177</v>
+        <v>19.26595089843162</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.41557789613719</v>
+        <v>28.41557789613729</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.83802301808012</v>
+        <v>-1.838023018080191</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>5.783560180377682</v>
+        <v>5.783560180377298</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.86690299066804</v>
+        <v>15.86690299066815</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.326187362652812</v>
+        <v>5.32618736265257</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.05539118689249</v>
+        <v>27.05539118689199</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.26659464391911</v>
+        <v>41.26659464391885</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.14781578779333</v>
+        <v>24.14781578779314</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.86585846599456</v>
+        <v>33.8658584659948</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.62917669955334</v>
+        <v>44.62917669955339</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.029695612478069</v>
+        <v>8.029695612477827</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.99678317922076</v>
+        <v>21.99678317922116</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.58132998724251</v>
+        <v>31.58132998724304</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.094805790487005</v>
+        <v>5.094805790487269</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.03599026703710706</v>
+        <v>0.03599026703724562</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.8024141686462496</v>
+        <v>0.8024141686463526</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.713994720627493</v>
+        <v>6.713994720627509</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.523425063418609</v>
+        <v>-1.523425063418356</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.6247813969986122</v>
+        <v>-0.6247813969985163</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.39110894602357</v>
+        <v>3.391108946023731</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.715896479422096</v>
+        <v>7.715896479421895</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.854630193715878</v>
+        <v>7.854630193715794</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.789259560886816</v>
+        <v>1.789259560887047</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-0.0915313949049974</v>
+        <v>-0.09153139490556583</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.716634611313243</v>
+        <v>2.716634611313507</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.1193762437606</v>
+        <v>3.11937624376055</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-3.081710689939362</v>
+        <v>-3.081710689939237</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.578601922438642</v>
+        <v>-1.578601922438322</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.67807842487877</v>
+        <v>1.678078424878809</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.3876622153829921</v>
+        <v>-0.38766221538312</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.874686472616041</v>
+        <v>2.874686472616402</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.276347931194524</v>
+        <v>2.276347931194421</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-6.186314837344417</v>
+        <v>-6.186314837344346</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.1970920488241408</v>
+        <v>-0.1970920488242509</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-5.290025364507949</v>
+        <v>-5.290025364507761</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1.196573547354342</v>
+        <v>-1.196573547354594</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.284680859944766</v>
+        <v>4.284680859944613</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-5.823729364510241</v>
+        <v>-5.823729364510717</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>0.1169288134652184</v>
+        <v>0.1169288134653783</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.121041038280799</v>
+        <v>7.121041038280845</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-5.284493521814563</v>
+        <v>-5.2844935218149</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-4.951027640555361</v>
+        <v>-4.951027640555933</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1.805127427495497</v>
+        <v>-1.805127427495416</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.87284688757773</v>
+        <v>13.87284688757737</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.26484742935457</v>
+        <v>14.26484742935442</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.95158147835529</v>
+        <v>19.95158147835531</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>3.385661059554158</v>
+        <v>3.385661059554067</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2.106193379978246</v>
+        <v>2.106193379978272</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.62729025928526</v>
+        <v>8.627290259285385</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.064595178607563</v>
+        <v>6.064595178607645</v>
       </c>
     </row>
     <row r="579">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.32920125472567</v>
+        <v>27.32920125472548</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.14201838226118</v>
+        <v>15.14201838226115</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.19869663715403</v>
+        <v>21.19869663715412</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.11011841211307</v>
+        <v>29.11011841211271</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.96564015717026</v>
+        <v>8.965640157170169</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>13.94231524561803</v>
+        <v>13.94231524561867</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.34884554657273</v>
+        <v>18.34884554657285</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.33784843992257</v>
+        <v>16.33784843992278</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.71672861373783</v>
+        <v>20.71672861373827</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.35065082349089</v>
+        <v>29.35065082349087</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.501729647016427</v>
+        <v>2.501729647015893</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.74896678595855</v>
+        <v>17.74896678595879</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.26027450756101</v>
+        <v>20.26027450756096</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.73427115835226</v>
+        <v>12.73427115835209</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.76607510068427</v>
+        <v>36.76607510068383</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.78428054222506</v>
+        <v>41.7842805422249</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.00240825858795</v>
+        <v>29.00240825858799</v>
       </c>
     </row>
     <row r="597">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.78394836971961</v>
+        <v>36.78394836971928</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.43471049370795</v>
+        <v>22.4347104937079</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.65756902844566</v>
+        <v>28.65756902844603</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.6273307917409</v>
+        <v>37.62733079174144</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.47811064738095</v>
+        <v>11.4781106473808</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.24088998692462</v>
+        <v>18.24088998692453</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.17993107777988</v>
+        <v>26.17993107778045</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-4.917134710021175</v>
+        <v>-4.917134710021527</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1.401266550298446</v>
+        <v>-1.401266550298216</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.644404112502166</v>
+        <v>5.644404112502285</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-3.339300873438214</v>
+        <v>-3.339300873438136</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.31209127819611</v>
+        <v>14.31209127819613</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.26675604968971</v>
+        <v>24.26675604968973</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.4107795668175</v>
+        <v>12.4107795668176</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.36523192750636</v>
+        <v>22.3652319275062</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.48419135512815</v>
+        <v>31.48419135512812</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.221869437093495</v>
+        <v>2.221869437093051</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.11513919994542</v>
+        <v>15.11513919994572</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.5802714274027</v>
+        <v>21.58027142740256</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.08415929391016</v>
+        <v>17.08415929391025</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.77876567751672</v>
+        <v>24.77876567751692</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.18878954676302</v>
+        <v>34.1887895467636</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.962438458735042</v>
+        <v>-1.962438458735276</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>8.104993566608314</v>
+        <v>8.104993566607911</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.10671610876835</v>
+        <v>15.10671610876861</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.05906958089688</v>
+        <v>4.059069580897043</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.85129625942194</v>
+        <v>28.85129625942205</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.44934111812846</v>
+        <v>41.44934111812812</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.9715404007304</v>
+        <v>32.97154040073039</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>43.62125513592533</v>
+        <v>43.62125513592542</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.38703647916083</v>
+        <v>51.38703647916065</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.70587689465082</v>
+        <v>12.70587689465062</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.00815653116505</v>
+        <v>31.00815653116499</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.04811193839812</v>
+        <v>40.04811193839807</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.9849496070344</v>
+        <v>12.98494960703479</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.14583047620317</v>
+        <v>28.1458304762031</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.70044891832666</v>
+        <v>37.7004489183264</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.262823984103449</v>
+        <v>5.262823984103543</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.2256223534769</v>
+        <v>26.22562235347657</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.34063454980047</v>
+        <v>34.34063454980016</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.69865819948691</v>
+        <v>14.69865819948667</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>48.79286167482943</v>
+        <v>48.79286167482922</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.52345669864513</v>
+        <v>57.52345669864552</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>45.96459464461545</v>
+        <v>45.96459464461557</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.10276817728491</v>
+        <v>47.10276817728512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.04829775044206</v>
+        <v>54.04829775044213</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.363854540761018</v>
+        <v>9.363854540760849</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.10349512718842</v>
+        <v>31.10349512718786</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.5798089131694</v>
+        <v>43.5798089131689</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.237510525619637</v>
+        <v>9.237510525619633</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.33430999194571</v>
+        <v>24.33430999194536</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.55560072038638</v>
+        <v>31.55560072038637</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-2.273621328323889</v>
+        <v>-2.273621328323726</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>12.48649573188567</v>
+        <v>12.48649573188542</v>
       </c>
     </row>
     <row r="652">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-0.1387957878741286</v>
+        <v>-0.138795787874157</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.86523700446741</v>
+        <v>28.86523700446719</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.96617517253157</v>
+        <v>38.96617517253198</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.6814166721453</v>
+        <v>31.68141667214496</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.20939833771344</v>
+        <v>39.20939833771369</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.77223245561841</v>
+        <v>47.77223245561868</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1.998978511813657</v>
+        <v>1.998978511813197</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.13284187511007</v>
+        <v>27.13284187510962</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.11255706632233</v>
+        <v>38.11255706632262</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.704631918522461</v>
+        <v>6.704631918522937</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.87449386798375</v>
+        <v>23.87449386798368</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.86059688418573</v>
+        <v>35.86059688418592</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-6.434667385897553</v>
+        <v>-6.434667385897511</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>14.32727058042804</v>
+        <v>14.32727058042776</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.17232946929648</v>
+        <v>27.17232946929679</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-0.4735431638920513</v>
+        <v>-0.4735431638918879</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.36005953597195</v>
+        <v>34.36005953597169</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>52.00278758720665</v>
+        <v>52.00278758720647</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.31025951900383</v>
+        <v>38.31025951900423</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.40329310385887</v>
+        <v>49.40329310385867</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.97806915179272</v>
+        <v>62.97806915179282</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-1.680092371718571</v>
+        <v>-1.68009237171818</v>
       </c>
     </row>
     <row r="675">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.39414427323263</v>
+        <v>47.3941442732327</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>6.780938970149828</v>
+        <v>6.780938970149428</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.09358460592187</v>
+        <v>20.09358460592136</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.47633120940728</v>
+        <v>32.47633120940702</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2.669653164475852</v>
+        <v>2.669653164475241</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.88755980846516</v>
+        <v>32.88755980846491</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.96368039226284</v>
+        <v>37.96368039226262</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.01777778641926</v>
+        <v>11.01777778641863</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>50.28305824917609</v>
+        <v>50.28305824917591</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.3440026174949</v>
+        <v>58.34400261749493</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.20734690684972</v>
+        <v>34.20734690685026</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.41396284777871</v>
+        <v>39.41396284777875</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.4349860360056</v>
+        <v>41.43498603600559</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>11.46542417605218</v>
+        <v>11.46542417605245</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.91145529738744</v>
+        <v>25.91145529738701</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.27770075666653</v>
+        <v>42.27770075666654</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>8.319161346471631</v>
+        <v>8.319161346471766</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>23.89578907654371</v>
+        <v>23.89578907654359</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.890791647285</v>
+        <v>31.89079164728491</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2.702347176714452</v>
+        <v>-2.70234717671415</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>15.06775965181948</v>
+        <v>15.06775965181946</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.48309617588101</v>
+        <v>22.48309617588141</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-0.1400067080474194</v>
+        <v>-0.1400067080471938</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.51186061229693</v>
+        <v>32.51186061229606</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.77691177548672</v>
+        <v>42.77691177548532</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.3399024695496</v>
+        <v>28.33990246954932</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.92376119452217</v>
+        <v>40.92376119452246</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.72541339904114</v>
+        <v>50.72541339904029</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.258037262552829</v>
+        <v>3.258037262553337</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.27919935096209</v>
+        <v>28.27919935096159</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.94088962915979</v>
+        <v>37.94088962916018</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.35031583016043</v>
+        <v>10.35031583016075</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.00431334490743</v>
+        <v>26.0043133449077</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.69284205006616</v>
+        <v>36.6928420500659</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2.636043945199413</v>
+        <v>-2.63604394519958</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>19.53541697422875</v>
+        <v>19.53541697422888</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.39070669285611</v>
+        <v>28.39070669285683</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.117269233777124</v>
+        <v>2.117269233777266</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.57747320004164</v>
+        <v>39.5774732000416</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.73345736918026</v>
+        <v>54.73345736918059</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.83646521016617</v>
+        <v>41.83646521016683</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.01940916382161</v>
+        <v>55.01940916382136</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.90718223804468</v>
+        <v>65.90718223804464</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.126417457066074</v>
+        <v>4.126417457066283</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.83570933252116</v>
+        <v>36.83570933252101</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.31267928147349</v>
+        <v>51.31267928147317</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.64968109854642</v>
+        <v>15.64968109854641</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.90659393801187</v>
+        <v>21.90659393801181</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.19995768257841</v>
+        <v>32.19995768257839</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.84596455155918</v>
+        <v>15.84596455155889</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.67321682751324</v>
+        <v>38.67321682751372</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>42.60486798974571</v>
+        <v>42.60486798974558</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.70313037969521</v>
+        <v>19.70313037969464</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>48.46403468198547</v>
+        <v>48.464034681985</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>55.35984472015402</v>
+        <v>55.35984472015362</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.00051339822515</v>
+        <v>35.00051339822522</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.89467206584756</v>
+        <v>37.89467206584725</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.62889142148688</v>
+        <v>41.62889142148698</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.63482248771244</v>
+        <v>22.6348224877125</v>
       </c>
     </row>
     <row r="735">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.16027374163905</v>
+        <v>41.16027374163868</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.43696682917642</v>
+        <v>18.43696682917633</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.24133639871015</v>
+        <v>29.24133639871045</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.11157586396133</v>
+        <v>37.11157586396192</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.47268233709217</v>
+        <v>21.47268233709196</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.51901495659634</v>
+        <v>33.51901495659631</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>41.08749140827053</v>
+        <v>41.0874914082704</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.07645491900589</v>
+        <v>11.07645491900579</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.82837525002396</v>
+        <v>35.8283752500239</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>46.33494174481707</v>
+        <v>46.33494174481658</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.7814121265198</v>
+        <v>31.78141212651976</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.56043904706478</v>
+        <v>44.56043904706443</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.0651708337272</v>
+        <v>54.06517083372731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.38517537687093</v>
+        <v>14.38517537687144</v>
       </c>
     </row>
     <row r="750">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.54270064717377</v>
+        <v>40.54270064717451</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.55647922230432</v>
+        <v>18.5564792223041</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.65506344099881</v>
+        <v>28.65506344099865</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.06800393895047</v>
+        <v>37.0680039389507</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.48876930219327</v>
+        <v>20.48876930219369</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.48777893586926</v>
+        <v>36.48777893586959</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>43.29029832610613</v>
+        <v>43.29029832610599</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.17770602785827</v>
+        <v>13.1777060278585</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.58359645152461</v>
+        <v>42.58359645152442</v>
       </c>
     </row>
     <row r="760">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.83722975565887</v>
+        <v>44.83722975565883</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>55.42584807389625</v>
+        <v>55.42584807389614</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>65.35839255891334</v>
+        <v>65.35839255891365</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>14.47838703330707</v>
+        <v>14.47838703330711</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.41348894069455</v>
+        <v>37.41348894069424</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.5713265056939</v>
+        <v>51.57132650569358</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>5.520289897161677</v>
+        <v>5.520289897161698</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.38693667980532</v>
+        <v>20.38693667980528</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.44053050164671</v>
+        <v>30.44053050164666</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3.419831507051589</v>
+        <v>-3.419831507051606</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>18.74602035401652</v>
+        <v>18.74602035401612</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.30578537438907</v>
+        <v>23.30578537438867</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4.853693303819542</v>
+        <v>4.853693303819687</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.41209751507154</v>
+        <v>41.41209751507078</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.19614940515723</v>
+        <v>48.19614940515726</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.00446761146694</v>
+        <v>39.00446761146705</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.82631648316637</v>
+        <v>40.82631648316615</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.81386969942989</v>
+        <v>43.81386969943043</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>0.4875467633705686</v>
+        <v>0.4875467633703572</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.59466136629297</v>
+        <v>24.59466136629294</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.02446238693101</v>
+        <v>34.02446238693114</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.262898530071224</v>
+        <v>7.262898530071558</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.12303149448557</v>
+        <v>23.12303149448611</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.70272549127321</v>
+        <v>28.70272549127345</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-5.009729390328518</v>
+        <v>-5.009729390328433</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.07185597669265</v>
+        <v>12.07185597669281</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.2210640724633</v>
+        <v>17.22106407246367</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.273710002155111</v>
+        <v>-3.273710002155306</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.19986533926803</v>
+        <v>29.19986533926829</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.60194098144149</v>
+        <v>36.60194098144164</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.36281599419743</v>
+        <v>28.36281599419724</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.7287369542654</v>
+        <v>36.7287369542653</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.42373370554171</v>
+        <v>42.42373370554214</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-3.691122990652106</v>
+        <v>-3.691122990652024</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.94922204430196</v>
+        <v>24.94922204430215</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.0188322510192</v>
+        <v>33.01883225101917</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.751582137639414</v>
+        <v>6.751582137638952</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.22502336136351</v>
+        <v>22.22502336136353</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.35139076948597</v>
+        <v>33.3513907694856</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-6.870646121156634</v>
+        <v>-6.870646121157067</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>13.56133535141651</v>
+        <v>13.5613353514168</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.07341480065447</v>
+        <v>22.07341480065448</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-3.120901714398746</v>
+        <v>-3.120901714398551</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.71859450707823</v>
+        <v>32.71859450707836</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.67675509703322</v>
+        <v>47.67675509703308</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.90955314070263</v>
+        <v>39.90955314070299</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.33535134873205</v>
+        <v>52.33535134873232</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.24409882946112</v>
+        <v>61.24409882946109</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-3.936711136213694</v>
+        <v>-3.936711136213729</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.26215335453514</v>
+        <v>32.26215335453508</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.87555431169391</v>
+        <v>43.8755543116935</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.884603604534284</v>
+        <v>8.884603604534345</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>5.53704090789596</v>
+        <v>5.537040907896126</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.47537652838711</v>
+        <v>13.47537652838719</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1.078454672172894</v>
+        <v>1.078454672173111</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.155842346110964</v>
+        <v>6.155842346111111</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.253410080825009</v>
+        <v>9.253410080824862</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.646900179956015</v>
+        <v>6.646900179956189</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.76527869386222</v>
+        <v>19.76527869386208</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.97986841398877</v>
+        <v>24.97986841398863</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.46567517920539</v>
+        <v>14.46567517920592</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.00913885243628</v>
+        <v>16.00913885243611</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.65526914139595</v>
+        <v>19.65526914139604</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.220340655524517</v>
+        <v>3.220340655525009</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.031005208230557</v>
+        <v>3.031005208230784</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.36152810248199</v>
+        <v>11.3615281024821</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.258927097387096</v>
+        <v>5.258927097386998</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.60096587681486</v>
+        <v>14.60096587681535</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.46382227393107</v>
+        <v>24.46382227393136</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-5.382749630386614</v>
+        <v>-5.382749630386479</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>2.942818011435818</v>
+        <v>2.942818011435479</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>13.5005931466555</v>
+        <v>13.50059314665555</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-4.496779978744209</v>
+        <v>-4.496779978743978</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.04499590649801</v>
+        <v>16.04499590649871</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.4174930571391</v>
+        <v>28.41749305713901</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.05886933102391</v>
+        <v>17.05886933102353</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.46287234179292</v>
+        <v>26.46287234179226</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.50192813247462</v>
+        <v>35.50192813247403</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-6.680049323332439</v>
+        <v>-6.68004932333263</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>13.8007003604165</v>
+        <v>13.80070036041709</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.46851440476342</v>
+        <v>24.46851440476299</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.101373917993628</v>
+        <v>8.101373917993806</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>18.12944086771137</v>
+        <v>18.12944086771128</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.76408223768972</v>
+        <v>28.76408223769003</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-6.460591256111192</v>
+        <v>-6.460591256111178</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>6.71466376643799</v>
+        <v>6.714663766438475</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.51380477713266</v>
+        <v>16.51380477713268</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.8244371428981108</v>
+        <v>-0.82443714289826</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.84271258581642</v>
+        <v>24.84271258581655</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.1262574734582</v>
+        <v>39.12625747345815</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.94820124444011</v>
+        <v>28.94820124444028</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.45877528211334</v>
+        <v>38.45877528211317</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.80435494891049</v>
+        <v>42.80435494891022</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-2.167576555839196</v>
+        <v>-2.167576555839721</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.76589513258216</v>
+        <v>22.76589513258153</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.4825647131725</v>
+        <v>36.48256471317207</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.671073040651132</v>
+        <v>6.671073040650976</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>8.673711988625779</v>
+        <v>8.673711988625508</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>17.62522971118803</v>
+        <v>17.62522971118829</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.3110872675336331</v>
+        <v>0.3110872675329865</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.44177084135407</v>
+        <v>16.4417708413537</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.24850472809398</v>
+        <v>19.24850472809424</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>6.715881849131614</v>
+        <v>6.715881849131456</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.97098022406941</v>
+        <v>28.97098022406933</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.80170214754722</v>
+        <v>34.80170214754647</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.65243759755967</v>
+        <v>20.65243759755968</v>
       </c>
     </row>
     <row r="867">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.2935940426945</v>
+        <v>28.29359404269425</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.158902769788973</v>
+        <v>9.158902769788975</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.92644600229113</v>
+        <v>11.92644600229149</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.10053593734618</v>
+        <v>24.10053593734635</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>5.14811566888392</v>
+        <v>5.148115668884012</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.23656009998452</v>
+        <v>14.23656009998435</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.34803499691961</v>
+        <v>26.34803499691969</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1.937393344969236</v>
+        <v>1.937393344969371</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>9.819356053792303</v>
+        <v>9.819356053791811</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.68543532783727</v>
+        <v>22.68543532783691</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.208314238606841</v>
+        <v>-3.208314238606976</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.45308301923023</v>
+        <v>17.45308301923054</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.81862832420264</v>
+        <v>32.81862832420367</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.32055305208196</v>
+        <v>14.32055305208177</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.9049486032204</v>
+        <v>28.90494860322038</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.46550847947135</v>
+        <v>41.46550847947179</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-3.530903086553407</v>
+        <v>-3.530903086553634</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>12.93003189317505</v>
+        <v>12.93003189317452</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.87214183196603</v>
+        <v>26.87214183196583</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.72292430355032</v>
+        <v>5.722924303550359</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>14.0059793941884</v>
+        <v>14.00597939418846</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.21192869518925</v>
+        <v>25.21192869518914</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.7997022031293266</v>
+        <v>-0.7997022031293195</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>11.22812907339787</v>
+        <v>11.22812907339776</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.71420161649834</v>
+        <v>21.71420161649824</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-3.015646997127918</v>
+        <v>-3.015646997127947</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>22.44154149547284</v>
+        <v>22.44154149547296</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.30808414743648</v>
+        <v>38.30808414743671</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.23062127406573</v>
+        <v>28.2306212740658</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.41925627100095</v>
+        <v>38.41925627100084</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.07378421796796</v>
+        <v>50.07378421796771</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-2.620121740690676</v>
+        <v>-2.620121740690363</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.14898956463767</v>
+        <v>18.14898956463742</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.1577560828414</v>
+        <v>36.15775608284132</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.59880742527207</v>
+        <v>14.59880742527208</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.93359472563979</v>
+        <v>22.93359472564001</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.17236024736376</v>
+        <v>36.17236024736335</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.652176570341039</v>
+        <v>5.652176570340529</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.93981175646993</v>
+        <v>36.93981175646977</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.04093026391399</v>
+        <v>44.04093026391378</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.27282241452565</v>
+        <v>16.27282241452563</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>54.4610442449488</v>
+        <v>54.46104424494926</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>63.72909882200944</v>
+        <v>63.72909882200953</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>37.22111063572772</v>
+        <v>37.2211106357278</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.66468796748856</v>
+        <v>41.6646879674881</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.596164300254</v>
+        <v>46.59616430025371</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.13319520743747</v>
+        <v>25.13319520743774</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>31.1340057135497</v>
+        <v>31.13400571354957</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>53.80603196108879</v>
+        <v>53.80603196108891</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.74072093931997</v>
+        <v>20.74072093932085</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.50424978989129</v>
+        <v>30.50424978989191</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.92339708949415</v>
+        <v>36.92339708949413</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.917049522748734</v>
+        <v>4.917049522748437</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.57795356787138</v>
+        <v>22.5779535678713</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.68220033935488</v>
+        <v>28.68220033935503</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>5.969078138642219</v>
+        <v>5.969078138641878</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.5717032198604</v>
+        <v>36.57170321986082</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>44.48190876152569</v>
+        <v>44.48190876152635</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.24851943823344</v>
+        <v>36.24851943823327</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.52336288146056</v>
+        <v>42.52336288146089</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>49.71285737492313</v>
+        <v>49.71285737492416</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>15.70007842915267</v>
+        <v>15.70007842915286</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.94445566517823</v>
+        <v>34.94445566517806</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.6161621407178</v>
+        <v>43.61616214071796</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.86533585693092</v>
+        <v>19.86533585693115</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.42886413666568</v>
+        <v>29.42886413666595</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.67612802786346</v>
+        <v>39.67612802786363</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>2.474854193317048</v>
+        <v>2.474854193316519</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.15086494346183</v>
+        <v>24.15086494346173</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.63040244405104</v>
+        <v>32.63040244405105</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.37584978633295</v>
+        <v>10.37584978633286</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.3588662057796</v>
+        <v>45.35886620577953</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.09619602626744</v>
+        <v>59.09619602626815</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.24377074039653</v>
+        <v>46.24377074039664</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.92775943887141</v>
+        <v>56.92775943887091</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>65.23169509479408</v>
+        <v>65.23169509479378</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.50737216485215</v>
+        <v>12.50737216485228</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.23333944168879</v>
+        <v>39.23333944168859</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>54.92433798954799</v>
+        <v>54.92433798954804</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>3.57242680256264</v>
+        <v>3.572426802562587</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.68303727666932</v>
+        <v>16.68303727666902</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.35964434520813</v>
+        <v>26.35964434520851</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-3.829528590247593</v>
+        <v>-3.82952859024766</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>18.39638683525244</v>
+        <v>18.39638683525268</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.68908508223462</v>
+        <v>21.68908508223445</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.439724706154667</v>
+        <v>2.439724706155012</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.043993851881</v>
+        <v>38.04399385188064</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.56264145179437</v>
+        <v>44.56264145179404</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.30363824722499</v>
+        <v>37.30363824722492</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.13282801956375</v>
+        <v>40.13282801956417</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.48571232335498</v>
+        <v>41.48571232335542</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-1.210717744134326</v>
+        <v>-1.210717744134206</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>22.95188109489187</v>
+        <v>22.95188109489222</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.64994803900782</v>
+        <v>31.64994803900738</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>7.404087308469368</v>
+        <v>7.404087308468588</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.23417543957815</v>
+        <v>23.2341754395781</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.4243083290711</v>
+        <v>29.42430832907182</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-4.185600761042691</v>
+        <v>-4.185600761042855</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>13.27987422694044</v>
+        <v>13.27987422694019</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>19.39442283920141</v>
+        <v>19.39442283920193</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1.067608472757188</v>
+        <v>-1.067608472757398</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.5172401289145</v>
+        <v>31.51724012891501</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>40.35628123927101</v>
+        <v>40.35628123927047</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.42456200617763</v>
+        <v>31.42456200617767</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.00505192956714</v>
+        <v>40.00505192956717</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.93138763707147</v>
+        <v>44.93138763707083</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-2.664422989154852</v>
+        <v>-2.66442298915487</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>27.13623397030806</v>
+        <v>27.13623397030756</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.77587430966789</v>
+        <v>36.77587430966775</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.700746546412169</v>
+        <v>7.70074654641224</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.55838919572889</v>
+        <v>22.55838919572875</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.55330835371383</v>
+        <v>33.55330835371406</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-6.755344360244257</v>
+        <v>-6.755344360244427</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>13.39761509918153</v>
+        <v>13.39761509918148</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.68207812795354</v>
+        <v>21.68207812795364</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-2.449658905046126</v>
+        <v>-2.449658905046013</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.77816727316825</v>
+        <v>32.77816727316834</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.10175316443816</v>
+        <v>48.10175316443804</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.63881908011857</v>
+        <v>38.63881908011846</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>50.34744185895077</v>
+        <v>50.34744185895057</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>59.56849146836685</v>
+        <v>59.56849146836699</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-4.829171250072184</v>
+        <v>-4.829171250072724</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.74266976984311</v>
+        <v>30.74266976984317</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>44.23698636490068</v>
+        <v>44.2369863649011</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.555</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.571</v>
+        <v>16.377</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.639</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.057</v>
+        <v>15.998</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.635</v>
+        <v>3.978</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.816468484432166</v>
+        <v>7.394469766276305</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.963043977436994</v>
+        <v>9.818014328296286</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.16954632851355</v>
+        <v>16.89890999055446</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.638815304237864</v>
+        <v>0.369379629608062</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.852854291406899</v>
+        <v>10.50709835893467</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.13791537899963</v>
+        <v>15.35515516606291</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.379195628494546</v>
+        <v>3.924083471017564</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.8400672050494</v>
+        <v>21.91708547699112</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.86173218244776</v>
+        <v>25.76133517361812</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.252845920087</v>
+        <v>16.88725716755366</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.47957276716873</v>
+        <v>20.27802461598389</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.58369798732843</v>
+        <v>25.53735860371266</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.84637666888362</v>
+        <v>0.1952575811108126</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.078217884468859</v>
+        <v>7.914972217880546</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.36984215212595</v>
+        <v>18.31704429556027</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.975998756208689</v>
+        <v>10.52609894840598</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.00979872664363</v>
+        <v>23.14611701523916</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.87508612647425</v>
+        <v>35.28240817447055</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.744882782744694</v>
+        <v>-1.799704245180259</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.484577716574249</v>
+        <v>6.937419207817474</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.83740412328937</v>
+        <v>20.03930509838407</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3213775094505689</v>
+        <v>-2.254239263737297</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.27031520242791</v>
+        <v>16.28601390938926</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.17806070660177</v>
+        <v>38.55022777881813</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.6265598940966</v>
+        <v>20.31735198464414</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>37.67665121722664</v>
+        <v>38.37855556288221</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>51.38698277252732</v>
+        <v>55.59389418796354</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.214186064377142</v>
+        <v>1.474351965738457</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.16337732623408</v>
+        <v>26.97299327546207</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.39853556434392</v>
+        <v>41.21633788295983</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.59216705471072</v>
+        <v>10.41528953224499</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.11600591909875</v>
+        <v>25.13587671548089</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.71013579795339</v>
+        <v>35.19313823102817</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.751152225123915</v>
+        <v>-0.2212082721759714</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.88779748543129</v>
+        <v>15.42611091526206</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.42355639623402</v>
+        <v>24.62235986038884</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.296862417043339</v>
+        <v>1.084440084169547</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.33596176645788</v>
+        <v>29.64007087858723</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.12572662889227</v>
+        <v>42.46050924732142</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.21718848857796</v>
+        <v>35.15965705429831</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.92341215630558</v>
+        <v>47.97001465864214</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.72633777279194</v>
+        <v>61.07392293427021</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.50619077198157</v>
+        <v>4.63586812721255</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.9358502630627</v>
+        <v>34.31511963294748</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.81901753794336</v>
+        <v>42.1537550763524</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.666557099874577</v>
+        <v>1.309662346755282</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.82169089963242</v>
+        <v>27.16983485648164</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.80080719892428</v>
+        <v>33.9644459496977</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.7338804713414522</v>
+        <v>4.261384248274503</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.46593501651938</v>
+        <v>33.68558247692899</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.99169778530034</v>
+        <v>37.37201395508992</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.950982968364992</v>
+        <v>9.091402389688138</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>54.89495730913222</v>
+        <v>58.08447396768258</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.2939776552407</v>
+        <v>62.35697232595249</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.21327432994944</v>
+        <v>49.39786280812018</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.25046462455835</v>
+        <v>58.0635744561493</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.85112689045432</v>
+        <v>54.32016002301603</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.928560069992473</v>
+        <v>1.803635881864682</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.70981538701175</v>
+        <v>30.04318446382377</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.8776197587021</v>
+        <v>46.9193727206718</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.612437112439574</v>
+        <v>5.663150441486238</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.19286885436419</v>
+        <v>28.17870016836905</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.16825312092807</v>
+        <v>35.0323507969572</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-5.163251336451003</v>
+        <v>0.5814068056905519</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.8028768273741</v>
+        <v>17.59202309422071</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.7119892405957</v>
+        <v>27.93447337953014</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.524057486678542</v>
+        <v>1.562320415368102</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.07205368529946</v>
+        <v>34.40951425078534</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>49.35972339879945</v>
+        <v>47.15465227285758</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.40682890723035</v>
+        <v>39.14671488743552</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.893856955839</v>
+        <v>50.02455796098144</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.54761171448576</v>
+        <v>58.55014802996696</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3326134805053673</v>
+        <v>0.5225848875182031</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.56670269111974</v>
+        <v>39.81609549301027</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.94050827270237</v>
+        <v>48.26274296116755</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.896196056766</v>
+        <v>5.19391886709348</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.75477812780311</v>
+        <v>31.74802451848398</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.33085054233526</v>
+        <v>39.24274300246806</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-6.659740185402233</v>
+        <v>-0.5100436819419443</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>23.39629398948628</v>
+        <v>26.30836404915439</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.68942860977607</v>
+        <v>34.42194054875755</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.057692766400583</v>
+        <v>4.598606880665486</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48.41826433493819</v>
+        <v>49.01075974407019</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>65.28346644058412</v>
+        <v>66.82705236699923</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49.2870307926286</v>
+        <v>50.07468921128984</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.58152069490785</v>
+        <v>62.90027331402531</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>75.57757194346128</v>
+        <v>71.79450427998044</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.01380454281045651</v>
+        <v>-2.422977367093747</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>46.69573554076812</v>
+        <v>48.27405074248632</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.32366177721518</v>
+        <v>58.78630640621458</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.68867681748912</v>
+        <v>13.97077775636528</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.03264403864265</v>
+        <v>23.04491047172157</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.42267115390364</v>
+        <v>32.66776221327765</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.949111441605428</v>
+        <v>2.979277631390843</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.97870204950172</v>
+        <v>25.73894434294876</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.07384944940316</v>
+        <v>28.79059380314485</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.043839419420209</v>
+        <v>7.46150175543535</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>46.36455191771732</v>
+        <v>49.4341518716743</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.64177049513515</v>
+        <v>51.1759055849806</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.11045502578743</v>
+        <v>37.0777858562974</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.97173240884487</v>
+        <v>45.30562799876568</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.47156257426028</v>
+        <v>43.54470631241492</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.299065724931664</v>
+        <v>8.93572715194901</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.96512743727945</v>
+        <v>23.89758369225475</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.620678913037</v>
+        <v>30.94816746873303</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.03326010180168</v>
+        <v>15.34602373921605</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.79309255101069</v>
+        <v>33.62898407657136</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.42872437892</v>
+        <v>38.04342571180089</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.642945121303617</v>
+        <v>4.242872486422446</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.55561930754684</v>
+        <v>22.31477477943225</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.29263325546291</v>
+        <v>30.00182976021851</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.958465723834363</v>
+        <v>5.09999458493197</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.02499387330614</v>
+        <v>40.8331971182411</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.7761138535819</v>
+        <v>51.52981730596268</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.93972201198953</v>
+        <v>42.91210925046491</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.95881878135323</v>
+        <v>53.66871492592053</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.19242375134136</v>
+        <v>58.02351869331397</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>12.3702577517378</v>
+        <v>15.50073170825801</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.11711833999158</v>
+        <v>40.54580664420223</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>48.4572472152466</v>
+        <v>46.97279422482632</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.72074603220672</v>
+        <v>20.31160590672422</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.76238336220903</v>
+        <v>34.27062706051629</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.24550042291088</v>
+        <v>42.68053939169348</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-2.421949896453215</v>
+        <v>1.897034448424801</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>23.93572886815184</v>
+        <v>26.26045953572667</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.74861546146968</v>
+        <v>32.91785987178364</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.683630162015369</v>
+        <v>5.561150322208263</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.95149771436485</v>
+        <v>47.22363956456333</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>63.91947688619077</v>
+        <v>64.93715372699221</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.6224893759126</v>
+        <v>52.1792347575068</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.08870981320744</v>
+        <v>62.82930748548693</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.66174895942794</v>
+        <v>70.66072894284673</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>10.19569017285347</v>
+        <v>15.80517457111153</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.15352982734962</v>
+        <v>47.58697111987069</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.94324117110236</v>
+        <v>58.13677870924597</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6.018876462340163</v>
+        <v>8.548685104004287</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>7.304985530990914</v>
+        <v>11.31051997916544</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>13.99569661663666</v>
+        <v>17.97984773671587</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2.231729961683753</v>
+        <v>1.266610603014524</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8.636621218452703</v>
+        <v>11.51238072309507</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.26696583660896</v>
+        <v>13.47692483476498</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.252607329301497</v>
+        <v>5.634848163489877</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.94737615154988</v>
+        <v>23.89774336372684</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.89554801047058</v>
+        <v>26.70799210984498</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.78137507993265</v>
+        <v>18.27991075752677</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.09144853984178</v>
+        <v>19.96655691632942</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.47288328083347</v>
+        <v>26.57194394111846</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.15515610888211</v>
+        <v>50.25094046386354</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.84461673200627</v>
+        <v>53.85829526531931</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.37056986291817</v>
+        <v>55.42995804838684</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.318917219173905</v>
+        <v>8.196847424831414</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.36693765611346</v>
+        <v>22.54946350898265</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.87673489252485</v>
+        <v>33.5083152439887</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.550183898712993</v>
+        <v>-5.167605487835164</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.616460557752534</v>
+        <v>2.579758273083087</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.79255730495284</v>
+        <v>15.81605242644804</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1.958627609440514</v>
+        <v>-1.159917422629185</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.02578779608691</v>
+        <v>14.53799310916199</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.56527277104313</v>
+        <v>34.48759082325284</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>15.19839878072948</v>
+        <v>17.47970061229416</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.18089057836421</v>
+        <v>35.9500425972451</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.64809953795331</v>
+        <v>48.36668652504617</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.089332884436004</v>
+        <v>0.604897204560757</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.94495938535616</v>
+        <v>22.95040888836826</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.73157974568833</v>
+        <v>34.6539587430502</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.03377249468424</v>
+        <v>13.36734869687357</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.07771431378509</v>
+        <v>24.72825353432441</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.00850618930667</v>
+        <v>34.61201590753831</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.616465304084953</v>
+        <v>-3.551594029850584</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.80402580111889</v>
+        <v>9.741288801779271</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.28422650960009</v>
+        <v>19.45128680559685</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.273982825524628</v>
+        <v>2.805724457329763</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.20353478597367</v>
+        <v>27.04193529087162</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.99881543101443</v>
+        <v>42.66678336743214</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.294521524663</v>
+        <v>22.89219330535592</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.81906016807901</v>
+        <v>38.81331907799117</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.64557522143675</v>
+        <v>53.63501352212442</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.94825700367632</v>
+        <v>7.70267308730601</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>33.01942814145518</v>
+        <v>34.4616413923099</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.40591309413225</v>
+        <v>41.39679926887436</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.477278891887382</v>
+        <v>5.179941102075922</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.10007451688342</v>
+        <v>15.87344830314905</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.54080901870173</v>
+        <v>25.25073991962628</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.061068732408051</v>
+        <v>2.330953243014761</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.50960215436063</v>
+        <v>25.16075098963351</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.20179052432424</v>
+        <v>31.00439251607167</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.75785259893211</v>
+        <v>6.827074374336757</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.71667313207286</v>
+        <v>57.64077446298047</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>49.7176574000801</v>
+        <v>54.45298525908647</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.272426058462</v>
+        <v>35.84842988309826</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.8596913937452</v>
+        <v>44.40893348248449</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.72578369674149</v>
+        <v>46.04145372034567</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.998427156617693</v>
+        <v>5.958240258678224</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.2293985499414</v>
+        <v>6.576001236158358</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.20961322051135</v>
+        <v>13.34980975827697</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.17739079108102</v>
+        <v>22.41931412173059</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>33.19274976920061</v>
+        <v>37.21828791101696</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.69593403799912</v>
+        <v>40.53870001160523</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.578338271215955</v>
+        <v>5.17808034754577</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.14085779394681</v>
+        <v>24.83441643241355</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.10971577164622</v>
+        <v>31.305651509522</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.40046744605351</v>
+        <v>6.367376043856577</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>43.36023144551068</v>
+        <v>41.97632699655411</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.49454194401063</v>
+        <v>49.66765382281108</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.63548147101162</v>
+        <v>44.10613140654972</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>57.2434666247166</v>
+        <v>55.93233964152045</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.27330432647389</v>
+        <v>63.37848957712413</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.99125445196513</v>
+        <v>24.15405961753155</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>42.11698450012969</v>
+        <v>41.87316631623537</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.61758979744519</v>
+        <v>50.84246113691269</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>17.51462946296743</v>
+        <v>22.36511003328916</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.30686000890397</v>
+        <v>34.66994412175767</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.33684066402542</v>
+        <v>41.90682820804921</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.5925002474315786</v>
+        <v>3.541310813506865</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>20.44281349413361</v>
+        <v>22.54170570542843</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.5735320380565</v>
+        <v>31.26932278891379</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>8.694051232457337</v>
+        <v>8.556854588902072</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.7501360099031</v>
+        <v>43.14130862224117</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.57225064575144</v>
+        <v>59.53993422643573</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.38937134998923</v>
+        <v>46.28431177180717</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.1361599546938</v>
+        <v>59.39782129885935</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.39292619949774</v>
+        <v>67.52927777085046</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.20665880104774</v>
+        <v>23.88916526893497</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44.24825523218885</v>
+        <v>46.1278197619818</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.80589492347968</v>
+        <v>55.96403675838128</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.5031021335940729</v>
+        <v>3.657394825302667</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>14.67992211042186</v>
+        <v>15.25589256129789</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.70735933944851</v>
+        <v>26.94954274890921</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.871386839592832</v>
+        <v>5.601777422450038</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.48360946485813</v>
+        <v>30.03307741249929</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.31975190758077</v>
+        <v>33.68824298671633</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.79957176796459</v>
+        <v>10.56695857305484</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.74891719435295</v>
+        <v>56.19083339233117</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.98722866282348</v>
+        <v>58.58043957338172</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.21863275308161</v>
+        <v>39.42987017467844</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.24946367128866</v>
+        <v>48.67275397580262</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.70399806865006</v>
+        <v>49.52553998907489</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3.277549632527332</v>
+        <v>4.896415326658083</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.159307376962385</v>
+        <v>4.320479272178055</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.05158084031306</v>
+        <v>9.928008836808402</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.54462601721759</v>
+        <v>16.50893373792432</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.17403422175931</v>
+        <v>38.03026909518476</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43.0362122125427</v>
+        <v>40.20574073216392</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-1.926478607959909</v>
+        <v>6.34945525160056</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.7435305520917</v>
+        <v>31.83811289581396</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.74639340310003</v>
+        <v>37.42897329356013</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.131738374661076</v>
+        <v>6.494708449092254</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.72990483512313</v>
+        <v>51.08092235265347</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>59.17955526731589</v>
+        <v>55.5253752135315</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>46.23778015717532</v>
+        <v>47.33999701493585</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.61336302456688</v>
+        <v>58.63174134938252</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.44432743197311</v>
+        <v>63.14662894964388</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.70075315924327</v>
+        <v>16.36445938863098</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.94841928899876</v>
+        <v>52.60954292619034</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.20417463132763</v>
+        <v>57.21421180808098</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.84703580632659</v>
+        <v>20.41173819344584</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.63897416953368</v>
+        <v>38.64828892755224</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.18541616745869</v>
+        <v>44.79078294896568</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-5.364320350030708</v>
+        <v>5.119558860633212</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.19468711765464</v>
+        <v>28.71303168481139</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.27270166956848</v>
+        <v>34.79569445603525</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.080133076949091</v>
+        <v>9.851954066859681</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>53.84403014567314</v>
+        <v>50.75395302777683</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>66.74889148959697</v>
+        <v>63.87090515713358</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.14949382404112</v>
+        <v>54.46279890030962</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.74836066226941</v>
+        <v>65.59040049129341</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>75.05992062984566</v>
+        <v>70.46367146912067</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.678489517752082</v>
+        <v>12.1454908757548</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.76916798082443</v>
+        <v>53.97395981992113</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.40063624925344</v>
+        <v>61.61874002490775</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>6.663793615869684</v>
+        <v>5.80288188870394</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-0.08694124238999379</v>
+        <v>5.375005880228489</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.334279797235244</v>
+        <v>11.20288608600698</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.3994629123078983</v>
+        <v>0.6073501394664795</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5.125293775198909</v>
+        <v>8.949978216547676</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>8.584583198891044</v>
+        <v>11.65482206892267</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.283125995274942</v>
+        <v>3.442704698953467</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.75338858553676</v>
+        <v>17.57345393254412</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.28954531509338</v>
+        <v>20.38314359922224</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.149787543468</v>
+        <v>18.21986150778117</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.13820759531826</v>
+        <v>22.01499910458176</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.73684492045638</v>
+        <v>24.08305769923951</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.999432515465717</v>
+        <v>5.672792471711059</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-0.3051947298553337</v>
+        <v>3.64436455334382</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.568722792367668</v>
+        <v>9.720251458404103</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.563262803890501</v>
+        <v>8.888882307931711</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>18.29699379732224</v>
+        <v>21.17500349481147</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>30.05752581578499</v>
+        <v>29.95400840175767</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.973901316926176</v>
+        <v>0.9453928012634591</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>9.591947384930307</v>
+        <v>11.32367288438489</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.39277254084981</v>
+        <v>21.96250634677688</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-0.3257102929629774</v>
+        <v>2.361905430878572</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.67974991933671</v>
+        <v>20.43636673276183</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.10613275256474</v>
+        <v>37.03745540068513</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.1750699893941</v>
+        <v>25.91989024855994</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.65770741762094</v>
+        <v>37.57871059117454</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.79837345666164</v>
+        <v>44.91754887402729</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.082459350814249</v>
+        <v>6.69474233190461</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.17357449685903</v>
+        <v>27.35415883775292</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.73220361980054</v>
+        <v>36.17836058195885</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.63304833357183</v>
+        <v>9.165937979275983</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.30740961927753</v>
+        <v>24.16990810427528</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.38205737385912</v>
+        <v>32.50745069871846</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-4.917382556109187</v>
+        <v>-0.2046916908710976</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.95189642353558</v>
+        <v>18.64815195701645</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.13557794870762</v>
+        <v>26.79126486792421</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1.013954501182884</v>
+        <v>3.142580453503395</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.40603852422032</v>
+        <v>32.93467653862852</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>48.50583828158399</v>
+        <v>44.73355443228024</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.74826494086954</v>
+        <v>42.23653943996791</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.71370888012988</v>
+        <v>54.39903556452818</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.16265893406706</v>
+        <v>59.04316018629723</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.818251176128795</v>
+        <v>6.719845629171427</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.11390783704724</v>
+        <v>38.07323915858382</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.04337127110053</v>
+        <v>49.72870487805046</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-0.9927097499050053</v>
+        <v>0.4307769071946979</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.4837121052363695</v>
+        <v>4.311904786844504</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7.135627849245013</v>
+        <v>10.14438053927698</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.907505306819266</v>
+        <v>-1.446945402786412</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.011610276852105</v>
+        <v>8.532377717945142</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>7.833637122165932</v>
+        <v>10.88006792201702</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-4.89337963524545</v>
+        <v>-0.6106641020162016</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.75596844094402</v>
+        <v>16.47160421114203</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.99334849930716</v>
+        <v>15.55577083732802</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5.893095001944516</v>
+        <v>11.81823170728755</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>9.62330385862227</v>
+        <v>13.66637525520428</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.42128603614889</v>
+        <v>14.84496942546149</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.2184800363579456</v>
+        <v>2.785219846061036</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-0.2727531476612555</v>
+        <v>10.19460008919326</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.626054977179455</v>
+        <v>13.02151777926496</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1.550381417142335</v>
+        <v>5.127416599108134</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1.907654285323487</v>
+        <v>9.932825595715983</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>12.08666347808183</v>
+        <v>18.63250758122095</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-5.083408997798285</v>
+        <v>0.329444514516549</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-3.493387561961127</v>
+        <v>1.724397063173935</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>7.050508688193188</v>
+        <v>11.51666495439989</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-8.293284654904566</v>
+        <v>0.5378045502075715</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.519631543844346</v>
+        <v>2.499749359871572</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.27787115460104</v>
+        <v>21.83825850530796</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.361093279570639</v>
+        <v>2.167028040867326</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.13690116406882</v>
+        <v>21.49407932174954</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.42440696283867</v>
+        <v>38.26214049318908</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-6.617400090333048</v>
+        <v>-1.454839791247714</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>1.994660340452331</v>
+        <v>5.445458195053313</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.918848696553335</v>
+        <v>10.22663002609992</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.7099575775598179</v>
+        <v>0.3332720158613292</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>3.582867907792702</v>
+        <v>6.046561490051751</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>20.37297990850513</v>
+        <v>19.24857491106753</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-7.502075346427715</v>
+        <v>-1.368587961692882</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-2.331572573467716</v>
+        <v>3.156098616183719</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>13.77250282738931</v>
+        <v>14.93121293039653</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-6.917501815964959</v>
+        <v>-0.7952811086320928</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.02925252502972</v>
+        <v>4.819540179400487</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.84494083850591</v>
+        <v>31.77164144004993</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.58746254320232</v>
+        <v>8.483951036899049</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.13431200703597</v>
+        <v>39.18723166968054</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.05605735063934</v>
+        <v>52.35961748038741</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-9.153625210280746</v>
+        <v>-4.982107734558518</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.797622604827197</v>
+        <v>4.863411665813025</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.83314646173978</v>
+        <v>15.29902177661389</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1.814205732047402</v>
+        <v>4.194572454690167</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.70148689986705</v>
+        <v>11.29338633808</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.71000458696469</v>
+        <v>31.1658098914068</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.02993933063083</v>
+        <v>4.002868824440789</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.1969223423427</v>
+        <v>34.3150490393862</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.38216403557296</v>
+        <v>40.89645786661885</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.511854152025796</v>
+        <v>7.50184389426629</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>56.32632562256648</v>
+        <v>56.43585796054335</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.36838059529994</v>
+        <v>62.48680269063339</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.66211546625561</v>
+        <v>44.40082456601174</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.41986914572162</v>
+        <v>49.68207187378148</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.13233208203742</v>
+        <v>46.77050532415112</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.54899825059451</v>
+        <v>16.82371739066761</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.42133535846523</v>
+        <v>26.25647798585621</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.1955128315597</v>
+        <v>57.28819705232422</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7.31161199688705</v>
+        <v>8.879933363285254</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.59133668323337</v>
+        <v>28.31222210964305</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.80015457604408</v>
+        <v>32.05781894762158</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-5.10708528345585</v>
+        <v>3.514060221563945</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>19.93894700465008</v>
+        <v>23.10178416505353</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.18660501613679</v>
+        <v>27.49445883749849</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.517649147986338</v>
+        <v>4.541849670319809</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.95250494052851</v>
+        <v>38.60851610157693</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>47.45026291690625</v>
+        <v>44.71810690736311</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.02365167900081</v>
+        <v>37.56203171596675</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.66862749301443</v>
+        <v>47.34797060571455</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>51.56174660970993</v>
+        <v>50.13098162717598</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.802265913095025</v>
+        <v>16.49276134515713</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.52596291229241</v>
+        <v>39.27644064241562</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.64128216682578</v>
+        <v>44.71255446976765</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.907645520210151</v>
+        <v>12.60847573519239</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.04380104213472</v>
+        <v>27.8888041877629</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.05456716432198</v>
+        <v>36.58793501660871</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-3.78177708307342</v>
+        <v>4.570621571799666</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.6416897528076</v>
+        <v>28.6110423710812</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.0206612119858</v>
+        <v>34.17410898852732</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>4.141433735676982</v>
+        <v>9.522375981172646</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.38125675537241</v>
+        <v>46.88152943583837</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>64.66419826175374</v>
+        <v>61.77375877021429</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>49.84613558858327</v>
+        <v>50.63845390892095</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>63.18540298873604</v>
+        <v>60.36706588537996</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>70.72922840744717</v>
+        <v>65.51901008455754</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.386877143600657</v>
+        <v>16.56541246972512</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.2071863095672</v>
+        <v>47.26320105637717</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>62.69105698099686</v>
+        <v>60.7337882105076</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.621756138592811</v>
+        <v>6.205833308658775</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.265008728635184</v>
+        <v>8.914938120610621</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>9.283338981991605</v>
+        <v>13.45390725435502</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1.205280693849007</v>
+        <v>1.298031142921811</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.105423560464216</v>
+        <v>5.832618238678329</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>1.790716414234423</v>
+        <v>7.914584643340575</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.6242617126481758</v>
+        <v>4.499456870189483</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.88231432499768</v>
+        <v>13.88766622011185</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.54344403017486</v>
+        <v>18.56804184992018</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>9.217763536326165</v>
+        <v>14.78581239136238</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10.83619576377464</v>
+        <v>16.80500976544223</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.07819983441737</v>
+        <v>21.00853420440185</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-6.478148302406291</v>
+        <v>3.222311089972326</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-3.667179033795128</v>
+        <v>2.820945030135324</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.073467359583214</v>
+        <v>8.172410514488556</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.068753849735744</v>
+        <v>4.552336155906129</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.836774090542798</v>
+        <v>11.9588910586734</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.83144495155254</v>
+        <v>23.08331412545542</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.31457332884605</v>
+        <v>-2.092332117455545</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.534799922969819</v>
+        <v>1.225983912508099</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.70055465998658</v>
+        <v>14.30975479426806</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-6.011869887832725</v>
+        <v>-2.368852366752773</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.41429828583036</v>
+        <v>3.736252461829555</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.07028836048397</v>
+        <v>25.36131660720242</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.957171140416493</v>
+        <v>9.224613031350028</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.39251860951444</v>
+        <v>18.51244346914583</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.92445074601069</v>
+        <v>30.49693788261962</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-9.554186784069492</v>
+        <v>-1.439018900561535</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>7.950934956328246</v>
+        <v>12.09053943669119</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.60813349018994</v>
+        <v>22.51456281541283</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.025422009803847</v>
+        <v>7.66627582898284</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>13.50197216168064</v>
+        <v>16.25576313388861</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.96408430529959</v>
+        <v>28.87714131918777</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-5.59253044634835</v>
+        <v>-1.352625537190434</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>0.4312284490079765</v>
+        <v>6.25895751791845</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.38784389661034</v>
+        <v>17.93035673120667</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1.516906794612728</v>
+        <v>2.358724785294005</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.19996947146797</v>
+        <v>13.84664935134536</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.99578040330188</v>
+        <v>35.10084064939588</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.24025070823061</v>
+        <v>15.69804025162301</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.42551969330087</v>
+        <v>24.31428788316217</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.31815685210577</v>
+        <v>44.41428403323778</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1.107014124416947</v>
+        <v>7.822895957681851</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.46670415299176</v>
+        <v>20.50266349951712</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.10914025724731</v>
+        <v>33.12436650816231</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-4.456587497629974</v>
+        <v>-2.322233918012021</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.325382853499553</v>
+        <v>-2.006543995686812</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.428056752323892</v>
+        <v>5.70688843381313</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-5.429759221679715</v>
+        <v>0.01986266726871833</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1.970516203989122</v>
+        <v>1.944719036831987</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1.775906977914232</v>
+        <v>3.563536114118961</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-5.929752391848668</v>
+        <v>4.482313761628799</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.09193580998161</v>
+        <v>10.0606103254545</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.85308614954857</v>
+        <v>13.43213436553544</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.069737068994524</v>
+        <v>4.131997836220535</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>6.656621863989079</v>
+        <v>3.947658437050301</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>9.134484642100649</v>
+        <v>12.08167369725976</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-11.05467565382206</v>
+        <v>-0.6272513857094708</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-11.96167154437398</v>
+        <v>-2.99662264827418</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-6.948300678303477</v>
+        <v>-3.638752579176852</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.51459906687117</v>
+        <v>14.21331607522428</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.18231840383282</v>
+        <v>29.35782057185563</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.26363635511316</v>
+        <v>32.73860602089893</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.2154229670920866</v>
+        <v>6.020242191559252</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.80676503906708</v>
+        <v>20.27332564503623</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.12088010837354</v>
+        <v>27.59846633255373</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.001389167659926</v>
+        <v>7.804377829782283</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.90355268089981</v>
+        <v>38.06114280551899</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.06335884212641</v>
+        <v>45.29624231070731</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.93798939420314</v>
+        <v>36.47457330668081</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.23890001122433</v>
+        <v>44.53096290995948</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.51203235482426</v>
+        <v>49.77688810478464</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>9.389627180783606</v>
+        <v>13.14834011319754</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>33.52922745558102</v>
+        <v>37.02646155601656</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.13147191445841</v>
+        <v>41.76709020355784</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.27126867617588</v>
+        <v>17.31408390486455</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>30.9933136328284</v>
+        <v>31.10579956175248</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.64051266077487</v>
+        <v>40.75247453761249</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-2.532565347906301</v>
+        <v>2.123065228431852</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.04711794249828</v>
+        <v>23.89111429772978</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.57891312662895</v>
+        <v>31.45972815636553</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.415497115884371</v>
+        <v>5.96577574136494</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.87370318901262</v>
+        <v>43.57179062961212</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>56.56292538557002</v>
+        <v>57.84472720146299</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.8260364857793</v>
+        <v>47.5937137700859</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>58.89183017926143</v>
+        <v>55.83112911560301</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.59793135128949</v>
+        <v>64.02424025003975</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>8.309305524878431</v>
+        <v>9.350817029609564</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.89116251155468</v>
+        <v>44.11039373261951</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.64669866057891</v>
+        <v>51.74504401451755</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.414138037059342</v>
+        <v>9.875337744048123</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>9.842943228348055</v>
+        <v>12.82329862201777</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.93321464117539</v>
+        <v>16.40635950649944</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.155882230784551</v>
+        <v>4.202030463793612</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>7.810993849576667</v>
+        <v>11.59033249237274</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.36694559129639</v>
+        <v>12.45856713157055</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>7.268982356754032</v>
+        <v>11.95985898020046</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.53862433764349</v>
+        <v>24.7957387424867</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.11312360358448</v>
+        <v>22.85768156322844</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.52704086549103</v>
+        <v>20.67552689923139</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.7590586401741</v>
+        <v>22.62654391353297</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.15229416393754</v>
+        <v>26.52973720026395</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.21443392609908</v>
+        <v>10.00640664396535</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>7.663594137433209</v>
+        <v>8.397630388669015</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>14.39772786582347</v>
+        <v>15.96693854649159</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.844281678868192</v>
+        <v>4.039839044790032</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>4.808052095404843</v>
+        <v>10.12412892227626</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>14.21351469494835</v>
+        <v>17.85375687989574</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2.379195922344993</v>
+        <v>-1.80261025681105</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-4.212315792681453</v>
+        <v>-0.2275274414031578</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8.437645541242668</v>
+        <v>10.56043271826167</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-5.226598152357655</v>
+        <v>-1.498756044698304</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>6.795111085500226</v>
+        <v>4.164888411153264</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.441834390515</v>
+        <v>20.05690620200112</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>4.89342979951094</v>
+        <v>7.758374484836594</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>11.96075457079563</v>
+        <v>15.11054921716403</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.12918795347483</v>
+        <v>27.19802895454535</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.940713860998423</v>
+        <v>-0.06744947158979286</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>3.464231997389712</v>
+        <v>8.779265463988896</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>14.28027879279172</v>
+        <v>17.35400800317269</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.81677869851876</v>
+        <v>13.43200189908265</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.26595089843162</v>
+        <v>22.14212007355598</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.41557789613729</v>
+        <v>29.05097219887136</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.838023018080191</v>
+        <v>-0.9893203520771898</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>5.783560180377298</v>
+        <v>10.46769362435323</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.86690299066815</v>
+        <v>18.0386616060342</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.32618736265257</v>
+        <v>5.099884515579451</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.05539118689199</v>
+        <v>26.44170747383789</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.26659464391885</v>
+        <v>40.24033620220251</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.14781578779314</v>
+        <v>24.10138238286957</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.8658584659948</v>
+        <v>33.70320078382734</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.62917669955339</v>
+        <v>45.62034095252879</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.029695612477827</v>
+        <v>9.607977095510577</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.99678317922116</v>
+        <v>24.9496621163794</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.58132998724304</v>
+        <v>31.03165569840525</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.094805790487269</v>
+        <v>3.030465421510758</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.03599026703724562</v>
+        <v>4.563496435405028</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.8024141686463526</v>
+        <v>6.762379457079369</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.713994720627509</v>
+        <v>1.921934907065843</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.523425063418356</v>
+        <v>3.271356257615295</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-0.6247813969985163</v>
+        <v>3.57145338343371</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.391108946023731</v>
+        <v>7.481553101665728</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.715896479421895</v>
+        <v>9.519089658385198</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.854630193715794</v>
+        <v>9.826223699323089</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.789259560887047</v>
+        <v>7.422007456964209</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-0.09153139490556583</v>
+        <v>6.840610172873006</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.716634611313507</v>
+        <v>10.94261791927277</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.11937624376055</v>
+        <v>7.16190765318623</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-3.081710689939237</v>
+        <v>2.675525555583313</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.578601922438322</v>
+        <v>5.63912699643603</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.678078424878809</v>
+        <v>2.277637921590113</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.38766221538312</v>
+        <v>4.476386634112835</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.874686472616402</v>
+        <v>7.10462331075076</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.276347931194421</v>
+        <v>-1.010115804385542</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-6.186314837344346</v>
+        <v>-4.022859975134761</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.1970920488242509</v>
+        <v>1.966724142683667</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-5.290025364507761</v>
+        <v>-0.8770537794272499</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1.196573547354594</v>
+        <v>-3.205705072065943</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.284680859944613</v>
+        <v>3.979443512153946</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-5.823729364510717</v>
+        <v>1.252087031854803</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>0.1169288134653783</v>
+        <v>4.522816204999785</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.121041038280845</v>
+        <v>6.776001305048634</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-5.2844935218149</v>
+        <v>-1.714016082707658</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-4.951027640555933</v>
+        <v>-0.3811188118370517</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1.805127427495416</v>
+        <v>2.342814777456674</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.87284688757737</v>
+        <v>14.20634475792507</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.26484742935442</v>
+        <v>18.27222906460543</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>19.95158147835531</v>
+        <v>23.02776714531813</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>3.385661059554067</v>
+        <v>1.187393037281208</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>2.106193379978272</v>
+        <v>6.604552963020314</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.627290259285385</v>
+        <v>11.62456782941478</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.064595178607645</v>
+        <v>7.745522565552388</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.51959968822272</v>
+        <v>18.61750617593718</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.32920125472548</v>
+        <v>26.90496680801233</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>15.14201838226115</v>
+        <v>18.6418518082892</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.19869663715412</v>
+        <v>23.1092029209189</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.11011841211271</v>
+        <v>30.12251910650676</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.965640157170169</v>
+        <v>13.65005309335684</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>13.94231524561867</v>
+        <v>15.6598724883941</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.34884554657285</v>
+        <v>22.30573304903696</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.33784843992278</v>
+        <v>13.96258781835676</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.71672861373827</v>
+        <v>24.89362486223104</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.35065082349087</v>
+        <v>32.46172519358625</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.501729647015893</v>
+        <v>4.160352622164222</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.74896678595879</v>
+        <v>17.67351591262625</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.26027450756096</v>
+        <v>23.72416710845301</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.73427115835209</v>
+        <v>11.49234159249254</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.76607510068383</v>
+        <v>40.41862500139216</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.7842805422249</v>
+        <v>42.55826925270409</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.00240825858799</v>
+        <v>33.49939053948336</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>33.61858486014754</v>
+        <v>39.19532328126252</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.78394836971928</v>
+        <v>42.14817598442345</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.4347104937079</v>
+        <v>19.85955076520697</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.65756902844603</v>
+        <v>37.22238451154571</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.62733079174144</v>
+        <v>44.98599781572844</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.4781106473808</v>
+        <v>12.89025765432522</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.24088998692453</v>
+        <v>21.95428040602356</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.17993107778045</v>
+        <v>28.37423133712714</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-4.917134710021527</v>
+        <v>-0.6134485121054745</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1.401266550298216</v>
+        <v>2.975001673155948</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.644404112502285</v>
+        <v>9.571148650464044</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-3.339300873438136</v>
+        <v>4.119734216174113</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.31209127819613</v>
+        <v>15.04804944617742</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.26675604968973</v>
+        <v>24.99446770513519</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.4107795668176</v>
+        <v>14.2882281595389</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.3652319275062</v>
+        <v>23.93641982900337</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.48419135512812</v>
+        <v>30.98343543047981</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.221869437093051</v>
+        <v>9.588797885348949</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.11513919994572</v>
+        <v>18.1752312388844</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.58027142740256</v>
+        <v>26.18049238803461</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>17.08415929391025</v>
+        <v>15.42697976709064</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.77876567751692</v>
+        <v>26.18704047629319</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.1887895467636</v>
+        <v>36.84870497011762</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.962438458735276</v>
+        <v>1.890598329645179</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>8.104993566607911</v>
+        <v>14.16119906670195</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.10671610876861</v>
+        <v>20.18940930675482</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>4.059069580897043</v>
+        <v>6.466378355062286</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.85129625942205</v>
+        <v>29.86255199586114</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.44934111812812</v>
+        <v>41.66176859335345</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.97154040073039</v>
+        <v>36.41408763666283</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>43.62125513592542</v>
+        <v>45.3409109404051</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>51.38703647916065</v>
+        <v>50.76304988177205</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.70587689465062</v>
+        <v>16.41650121658298</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.00815653116499</v>
+        <v>33.062064287277</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.04811193839807</v>
+        <v>38.85450894134837</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.98494960703479</v>
+        <v>11.37280145850499</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.1458304762031</v>
+        <v>27.72326000991604</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.7004489183264</v>
+        <v>34.01992830180397</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.262823984103543</v>
+        <v>7.673098574693462</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.22562235347657</v>
+        <v>29.25634680532433</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.34063454980016</v>
+        <v>32.39684734002493</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.69865819948667</v>
+        <v>14.06778206169268</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>48.79286167482922</v>
+        <v>51.63067643189228</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>57.52345669864552</v>
+        <v>56.3869243460584</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>45.96459464461557</v>
+        <v>47.84342859838127</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.10276817728512</v>
+        <v>48.95701801933743</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.04829775044213</v>
+        <v>56.02459812488861</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.363854540760849</v>
+        <v>12.21953772097829</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.10349512718786</v>
+        <v>32.83876313417953</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.5798089131689</v>
+        <v>43.30192770652518</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.237510525619633</v>
+        <v>10.57477422405885</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.33430999194536</v>
+        <v>25.66245480466825</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.55560072038637</v>
+        <v>31.41119940081124</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-2.273621328323726</v>
+        <v>3.910220244112253</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>12.48649573188542</v>
+        <v>16.16398911072172</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.96946600867901</v>
+        <v>24.4364422823488</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-0.138795787874157</v>
+        <v>3.833780633165652</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.86523700446719</v>
+        <v>28.86827063533023</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.96617517253198</v>
+        <v>39.8268187914274</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.68141667214496</v>
+        <v>33.55142202409441</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.20939833771369</v>
+        <v>40.51288977226729</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.77223245561868</v>
+        <v>47.13634252451779</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1.998978511813197</v>
+        <v>6.877874919614676</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.13284187510962</v>
+        <v>30.14039971782417</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.11255706632262</v>
+        <v>38.99010375064952</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.704631918522937</v>
+        <v>9.274053681987064</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.87449386798368</v>
+        <v>26.19379441745141</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.86059688418592</v>
+        <v>35.94212757326279</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-6.434667385897511</v>
+        <v>0.9994577332272634</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>14.32727058042776</v>
+        <v>20.28209280920152</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.17232946929679</v>
+        <v>29.33448376653737</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-0.4735431638918879</v>
+        <v>2.798470446946201</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.36005953597169</v>
+        <v>33.88507185487627</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>52.00278758720647</v>
+        <v>53.35100733707098</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.31025951900423</v>
+        <v>39.32741109665483</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.40329310385867</v>
+        <v>49.58802391764574</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>62.97806915179282</v>
+        <v>63.40472877989049</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-1.68009237171818</v>
+        <v>3.543254714648906</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.02455865518785</v>
+        <v>36.73136055216465</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.3941442732327</v>
+        <v>49.39031957581754</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>6.780938970149428</v>
+        <v>6.225205580040388</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.09358460592136</v>
+        <v>20.09898086200554</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.47633120940702</v>
+        <v>32.86558059892901</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2.669653164475241</v>
+        <v>4.616226590604331</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.88755980846491</v>
+        <v>34.97442622613205</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.96368039226262</v>
+        <v>42.08545438730515</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.01777778641863</v>
+        <v>8.456689730440374</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>50.28305824917591</v>
+        <v>60.60288310452849</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.34400261749493</v>
+        <v>62.66250762342952</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.20734690685026</v>
+        <v>44.37057373111062</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.41396284777875</v>
+        <v>43.15901558894586</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.43498603600559</v>
+        <v>48.2180391264142</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>11.46542417605245</v>
+        <v>2.557865696945004</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.91145529738701</v>
+        <v>22.75825879283633</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>42.27770075666654</v>
+        <v>59.62195653787673</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>8.319161346471766</v>
+        <v>15.50014629900809</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>23.89578907654359</v>
+        <v>30.7041221699502</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.89079164728491</v>
+        <v>36.18704820815095</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2.70234717671415</v>
+        <v>2.500963537394437</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>15.06775965181946</v>
+        <v>17.76279376925668</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.48309617588141</v>
+        <v>22.78725894134034</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-0.1400067080471938</v>
+        <v>1.876356223306125</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.51186061229606</v>
+        <v>31.29370950246917</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.77691177548532</v>
+        <v>40.37352892975397</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.33990246954932</v>
+        <v>29.69825719523851</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.92376119452246</v>
+        <v>41.6918874198236</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.72541339904029</v>
+        <v>49.57605696893143</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.258037262553337</v>
+        <v>7.422162217743427</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.27919935096159</v>
+        <v>28.50160273821583</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.94088962916018</v>
+        <v>40.61885849275798</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.35031583016075</v>
+        <v>11.76293208905796</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.0043133449077</v>
+        <v>27.34787835524635</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.6928420500659</v>
+        <v>36.83317421581292</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2.63604394519958</v>
+        <v>3.615386621839882</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>19.53541697422888</v>
+        <v>23.92760449068794</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.39070669285683</v>
+        <v>31.20226514614051</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2.117269233777266</v>
+        <v>4.896106383226488</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.5774732000416</v>
+        <v>39.38584431309853</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.73345736918059</v>
+        <v>55.16351416174309</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.83646521016683</v>
+        <v>44.35064625747488</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.01940916382136</v>
+        <v>54.64185858401163</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.90718223804464</v>
+        <v>64.60618452189513</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.126417457066283</v>
+        <v>2.824869513826535</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.83570933252101</v>
+        <v>34.34792712865802</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.31267928147317</v>
+        <v>48.00140768752189</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.64968109854641</v>
+        <v>15.36561286532062</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.90659393801181</v>
+        <v>24.31517231364045</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.19995768257839</v>
+        <v>36.52447951887333</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.84596455155889</v>
+        <v>12.5250128708663</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>38.67321682751372</v>
+        <v>46.94673884212651</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>42.60486798974558</v>
+        <v>49.15098575952472</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.70313037969464</v>
+        <v>17.77204969463942</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>48.464034681985</v>
+        <v>63.3622170009128</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>55.35984472015362</v>
+        <v>67.71444953843286</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.00051339822522</v>
+        <v>41.09870965730599</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.89467206584725</v>
+        <v>41.44335535078363</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.62889142148698</v>
+        <v>42.6596274903503</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.6348224877125</v>
+        <v>10.57696484609545</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.78988280681492</v>
+        <v>18.320109302198</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.16027374163868</v>
+        <v>43.37118986483401</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>18.43696682917633</v>
+        <v>24.06305347633875</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.24133639871045</v>
+        <v>33.73784147000251</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.11157586396192</v>
+        <v>40.61263141896532</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.47268233709196</v>
+        <v>33.93305279790834</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.51901495659631</v>
+        <v>42.83711592861863</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>41.0874914082704</v>
+        <v>46.52908611278654</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.07645491900579</v>
+        <v>14.24752117949006</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.8283752500239</v>
+        <v>36.33852765635076</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>46.33494174481658</v>
+        <v>47.78277833953845</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.78141212651976</v>
+        <v>34.206551836561</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.56043904706443</v>
+        <v>43.60646795649598</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.06517083372731</v>
+        <v>50.87000216086832</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>14.38517537687144</v>
+        <v>18.6814304579726</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.71073251054293</v>
+        <v>31.34721620577783</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.54270064717451</v>
+        <v>42.38659355118986</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.5564792223041</v>
+        <v>19.00741119409948</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.65506344099865</v>
+        <v>31.8611974145767</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.0680039389507</v>
+        <v>39.44664617558617</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.48876930219369</v>
+        <v>33.74695343671463</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.48777893586959</v>
+        <v>50.54624463717808</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>43.29029832610599</v>
+        <v>50.53372684807506</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.1777060278585</v>
+        <v>14.1021663482234</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.58359645152442</v>
+        <v>46.77991508512656</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>55.34736897111384</v>
+        <v>59.75979279647058</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.83722975565883</v>
+        <v>47.45793685894662</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>55.42584807389614</v>
+        <v>57.8647761828309</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>65.35839255891365</v>
+        <v>67.57046282297651</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>14.47838703330711</v>
+        <v>16.22149994943285</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.41348894069424</v>
+        <v>37.46900418927108</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.57132650569358</v>
+        <v>50.23931245148668</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>5.520289897161698</v>
+        <v>5.596788259175185</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.38693667980528</v>
+        <v>19.85622196448143</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.44053050164666</v>
+        <v>30.91876942666507</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3.419831507051606</v>
+        <v>0.4561903381195762</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>18.74602035401612</v>
+        <v>20.95409555667631</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.30578537438867</v>
+        <v>22.99698585456887</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4.853693303819687</v>
+        <v>3.582061871728822</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.41209751507078</v>
+        <v>41.04987537018651</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.19614940515726</v>
+        <v>47.18062684423609</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.00446761146705</v>
+        <v>43.00624721358963</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.82631648316615</v>
+        <v>42.2807961567983</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.81386969943043</v>
+        <v>45.50120818210361</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>0.4875467633703572</v>
+        <v>-3.616431391261294</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.59466136629294</v>
+        <v>25.58862158200048</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.02446238693114</v>
+        <v>33.81679379452125</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.262898530071558</v>
+        <v>9.432791135549806</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>23.12303149448611</v>
+        <v>25.10567545884233</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.70272549127345</v>
+        <v>29.76125518327903</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-5.009729390328433</v>
+        <v>2.068204746849187</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.07185597669281</v>
+        <v>16.69896270585644</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.22106407246367</v>
+        <v>21.67129161820364</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.273710002155306</v>
+        <v>2.039233948906446</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.19986533926829</v>
+        <v>28.19780055382144</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.60194098144164</v>
+        <v>38.60926907769428</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.36281599419724</v>
+        <v>31.37161008848174</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.7287369542653</v>
+        <v>38.33994645513009</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.42373370554214</v>
+        <v>44.47478483479284</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-3.691122990652024</v>
+        <v>3.713938852316886</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.94922204430215</v>
+        <v>28.70116491592723</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.01883225101917</v>
+        <v>35.96090301749249</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.751582137638952</v>
+        <v>8.60399470511085</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.22502336136353</v>
+        <v>24.83263718075814</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.3513907694856</v>
+        <v>34.09373660568399</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-6.870646121157067</v>
+        <v>-0.3703822847097484</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>13.5613353514168</v>
+        <v>20.38654254602411</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.07341480065448</v>
+        <v>25.30283270575271</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-3.120901714398551</v>
+        <v>1.376969413174248</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>32.71859450707836</v>
+        <v>33.73054906216911</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.67675509703308</v>
+        <v>49.88993532888138</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.90955314070299</v>
+        <v>43.11401900393005</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.33535134873232</v>
+        <v>52.66248140386921</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.24409882946109</v>
+        <v>60.85445241004224</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-3.936711136213729</v>
+        <v>-1.359544005718593</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.26215335453508</v>
+        <v>36.22450059027935</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.8755543116935</v>
+        <v>46.86542686419993</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.884603604534345</v>
+        <v>9.33616744624238</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>5.537040907896126</v>
+        <v>12.46109257295309</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.47537652838719</v>
+        <v>17.9960812287134</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>1.078454672173111</v>
+        <v>3.942465734044454</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.155842346111111</v>
+        <v>12.0647971724713</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.253410080824862</v>
+        <v>15.25814033562948</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>6.646900179956189</v>
+        <v>8.158901180316928</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>19.76527869386208</v>
+        <v>22.24696345871112</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.97986841398863</v>
+        <v>25.61805483142052</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>14.46567517920592</v>
+        <v>18.47275707119786</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.00913885243611</v>
+        <v>20.85751607715226</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.65526914139604</v>
+        <v>24.26866411738828</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.220340655525009</v>
+        <v>4.82503178016594</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.031005208230784</v>
+        <v>9.661314876513803</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.3615281024821</v>
+        <v>18.6254616424006</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.258927097386998</v>
+        <v>7.990141319939578</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.60096587681535</v>
+        <v>18.59355290596272</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.46382227393136</v>
+        <v>27.10722935404153</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-5.382749630386479</v>
+        <v>-0.5507322988325392</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>2.942818011435479</v>
+        <v>7.731025129997445</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>13.50059314665555</v>
+        <v>17.34348066001572</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-4.496779978743978</v>
+        <v>-2.159439632252283</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.04499590649871</v>
+        <v>13.21679347672524</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.41749305713901</v>
+        <v>29.61953833298096</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.05886933102353</v>
+        <v>20.74528812815687</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.46287234179226</v>
+        <v>28.96255855272691</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.50192813247403</v>
+        <v>37.43991711290948</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-6.68004932333263</v>
+        <v>0.1876689002628744</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>13.80070036041709</v>
+        <v>19.23715035503976</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.46851440476299</v>
+        <v>28.88203556627315</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.101373917993806</v>
+        <v>9.720601974184909</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>18.12944086771128</v>
+        <v>22.49058526909777</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.76408223769003</v>
+        <v>30.3567488268574</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-6.460591256111178</v>
+        <v>-1.067704490889859</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>6.714663766438475</v>
+        <v>15.8905450013958</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.51380477713268</v>
+        <v>21.64873163480246</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.82443714289826</v>
+        <v>2.095729854988736</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.84271258581655</v>
+        <v>26.14511700227256</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.12625747345815</v>
+        <v>37.30392536150134</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.94820124444028</v>
+        <v>31.11220800170125</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.45877528211317</v>
+        <v>39.03156002351308</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.80435494891022</v>
+        <v>44.0946680728733</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-2.167576555839721</v>
+        <v>-0.9423092655337086</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.76589513258153</v>
+        <v>26.94341777716608</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.48256471317207</v>
+        <v>38.70185797592941</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.671073040650976</v>
+        <v>12.66701418758378</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>8.673711988625508</v>
+        <v>17.12239995020418</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>17.62522971118829</v>
+        <v>24.46219371180047</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.3110872675329865</v>
+        <v>6.483484029518419</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.4417708413537</v>
+        <v>21.24334424549456</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.24850472809424</v>
+        <v>22.14011281631872</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>6.715881849131456</v>
+        <v>16.65434529366964</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.97098022406933</v>
+        <v>43.41035474777841</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.80170214754647</v>
+        <v>43.16519876088407</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.65243759755968</v>
+        <v>24.71757294305826</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.176209518036</v>
+        <v>29.45365090644209</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.29359404269425</v>
+        <v>36.2945046508791</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.158902769788975</v>
+        <v>4.806704358034505</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>11.92644600229149</v>
+        <v>22.90669415657439</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.10053593734635</v>
+        <v>33.40205007179492</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>5.148115668884012</v>
+        <v>10.65738260842033</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.23656009998435</v>
+        <v>19.83404218519554</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.34803499691969</v>
+        <v>33.07779612530549</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1.937393344969371</v>
+        <v>4.517487014355485</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>9.819356053791811</v>
+        <v>7.561403684457094</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.68543532783691</v>
+        <v>27.37566354829045</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.208314238606976</v>
+        <v>4.088971703532248</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.45308301923054</v>
+        <v>17.73760813377887</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.81862832420367</v>
+        <v>36.15235891133879</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.32055305208177</v>
+        <v>14.47377896662769</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.90494860322038</v>
+        <v>31.22022062103568</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.46550847947179</v>
+        <v>42.48276590838901</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-3.530903086553634</v>
+        <v>1.291442495943418</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>12.93003189317452</v>
+        <v>17.69937652826653</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.87214183196583</v>
+        <v>30.87483449006405</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>5.722924303550359</v>
+        <v>10.3336533515097</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>14.00597939418846</v>
+        <v>20.30485676598305</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.21192869518914</v>
+        <v>28.26299279923821</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.7997022031293195</v>
+        <v>5.633870575970871</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>11.22812907339776</v>
+        <v>16.56997945635919</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.71420161649824</v>
+        <v>25.40743638096059</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-3.015646997127947</v>
+        <v>4.570830230153462</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>22.44154149547296</v>
+        <v>27.32279480927181</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.30808414743671</v>
+        <v>37.45448251452052</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.2306212740658</v>
+        <v>31.86234060672714</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.41925627100084</v>
+        <v>41.67627547946768</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.07378421796771</v>
+        <v>51.78519356805025</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-2.620121740690363</v>
+        <v>-1.028064562890052</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.14898956463742</v>
+        <v>18.18281131572376</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.15775608284132</v>
+        <v>31.77289181459182</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.59880742527208</v>
+        <v>13.91045849768372</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.93359472564001</v>
+        <v>23.04683050118069</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.17236024736335</v>
+        <v>34.11715838229374</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.652176570340529</v>
+        <v>6.222189993798295</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.93981175646977</v>
+        <v>34.15433098565774</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>44.04093026391378</v>
+        <v>40.96238599014649</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.27282241452563</v>
+        <v>15.42543751372973</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>54.46104424494926</v>
+        <v>56.28578116346218</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>63.72909882200953</v>
+        <v>59.66018507255433</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>37.2211106357278</v>
+        <v>44.51503896075559</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.6646879674881</v>
+        <v>42.27632771890658</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.59616430025371</v>
+        <v>46.04703241635553</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.13319520743774</v>
+        <v>12.03936145809006</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>31.13400571354957</v>
+        <v>12.55715410009952</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>53.80603196108891</v>
+        <v>55.01721497463511</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.74072093932085</v>
+        <v>21.41503727914812</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.50424978989191</v>
+        <v>32.84682603964613</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.92339708949413</v>
+        <v>36.16216599191628</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.917049522748437</v>
+        <v>7.348234103530011</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.5779535678713</v>
+        <v>23.29704695571937</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.68220033935503</v>
+        <v>28.02330740292635</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>5.969078138641878</v>
+        <v>9.232107982020203</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.57170321986082</v>
+        <v>36.57640041663721</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>44.48190876152635</v>
+        <v>42.93147493616543</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.24851943823327</v>
+        <v>38.05179691933584</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.52336288146089</v>
+        <v>43.67937994115358</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>49.71285737492416</v>
+        <v>48.40240096669002</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>15.70007842915286</v>
+        <v>17.45746145118498</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>34.94445566517806</v>
+        <v>33.55319673679773</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.61616214071796</v>
+        <v>42.34353182095828</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.86533585693115</v>
+        <v>18.65190479345489</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.42886413666595</v>
+        <v>31.38611143573647</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.67612802786363</v>
+        <v>38.56831537085953</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>2.474854193316519</v>
+        <v>4.718230347595039</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.15086494346173</v>
+        <v>26.61002571593331</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.63040244405105</v>
+        <v>31.56856293605101</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.37584978633286</v>
+        <v>8.507432972234268</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.35886620577953</v>
+        <v>44.53193444305656</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>59.09619602626815</v>
+        <v>56.27536670916582</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.24377074039664</v>
+        <v>47.12242516468921</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.92775943887091</v>
+        <v>55.38013616822589</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>65.23169509479378</v>
+        <v>64.46675275743752</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.50737216485228</v>
+        <v>14.15161637744608</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.23333944168859</v>
+        <v>39.66362501673295</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>54.92433798954804</v>
+        <v>51.47498512413522</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>3.572426802562587</v>
+        <v>4.688437395385346</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.68303727666902</v>
+        <v>16.41778425937391</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.35964434520851</v>
+        <v>26.9775267124452</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-3.82952859024766</v>
+        <v>0.8286903444671694</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>18.39638683525268</v>
+        <v>20.28658418488555</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.68908508223445</v>
+        <v>22.07560794486752</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.439724706155012</v>
+        <v>2.626494101666118</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.04399385188064</v>
+        <v>36.78480179359218</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.56264145179404</v>
+        <v>43.89051837363303</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.30363824722492</v>
+        <v>38.87884225572157</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.13282801956417</v>
+        <v>42.42516816673261</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.48571232335542</v>
+        <v>42.46470036441244</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-1.210717744134206</v>
+        <v>-5.728029853196421</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>22.95188109489222</v>
+        <v>22.45750802384298</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.64994803900738</v>
+        <v>30.12958138087826</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>7.404087308468588</v>
+        <v>10.16595901552933</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>23.2341754395781</v>
+        <v>25.7130143595497</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.42430832907182</v>
+        <v>29.94241352914903</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-4.185600761042855</v>
+        <v>3.317337210180348</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>13.27987422694019</v>
+        <v>17.37439509500476</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>19.39442283920193</v>
+        <v>23.30267102728827</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1.067608472757398</v>
+        <v>5.256166023061098</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.51724012891501</v>
+        <v>31.53194175976572</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>40.35628123927047</v>
+        <v>42.68079248577935</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.42456200617767</v>
+        <v>33.41884817940399</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.00505192956717</v>
+        <v>40.49272933329242</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>44.93138763707083</v>
+        <v>46.2413906172946</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-2.66442298915487</v>
+        <v>3.735137821750097</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>27.13623397030756</v>
+        <v>29.27424800129101</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.77587430966775</v>
+        <v>37.74908693453593</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.70074654641224</v>
+        <v>8.07371801647437</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.55838919572875</v>
+        <v>24.09948992514271</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.55330835371406</v>
+        <v>32.99166984849192</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-6.755344360244427</v>
+        <v>0.05946989173330763</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>13.39761509918148</v>
+        <v>20.78353165144235</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.68207812795364</v>
+        <v>23.98438745460797</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-2.449658905046013</v>
+        <v>1.695353768622859</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.77816727316834</v>
+        <v>33.0798014553848</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.10175316443804</v>
+        <v>48.31098791573127</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>38.63881908011846</v>
+        <v>40.80550818155912</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>50.34744185895057</v>
+        <v>49.95808968928847</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>59.56849146836699</v>
+        <v>58.9121295441503</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-4.829171250072724</v>
+        <v>-0.2203405740108408</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.74266976984317</v>
+        <v>33.72806641410678</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>44.2369863649011</v>
+        <v>46.32279072152333</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.377</v>
+        <v>16.844</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.998</v>
+        <v>16.427</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.978</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.394469766276305</v>
+        <v>11.30926048772152</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.818014328296286</v>
+        <v>13.8663074384999</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.89890999055446</v>
+        <v>17.00852016808376</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.369379629608062</v>
+        <v>6.032739991649969</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.50709835893467</v>
+        <v>11.04464314197313</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.35515516606291</v>
+        <v>12.41367336503607</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.924083471017564</v>
+        <v>9.479354197620193</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.91708547699112</v>
+        <v>17.99898969515586</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.76133517361812</v>
+        <v>20.86380832685571</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.88725716755366</v>
+        <v>17.3295724279278</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.27802461598389</v>
+        <v>20.56437724861281</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.53735860371266</v>
+        <v>25.02733504804941</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1952575811108126</v>
+        <v>9.721076795255247</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.914972217880546</v>
+        <v>13.0810937579123</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.31704429556027</v>
+        <v>15.22911255220211</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.52609894840598</v>
+        <v>11.06392311939797</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.14611701523916</v>
+        <v>25.3151320268374</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.28240817447055</v>
+        <v>36.70742524763534</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.799704245180259</v>
+        <v>5.037762710287698</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.937419207817474</v>
+        <v>9.904507779288025</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.03930509838407</v>
+        <v>21.80150053354358</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.254239263737297</v>
+        <v>5.838634705007593</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.28601390938926</v>
+        <v>24.1057862480626</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.55022777881813</v>
+        <v>40.02008919766729</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.31735198464414</v>
+        <v>24.43043981817798</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.37855556288221</v>
+        <v>39.74318899616681</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.59389418796354</v>
+        <v>57.47789365244871</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.474351965738457</v>
+        <v>5.949622406783377</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.97299327546207</v>
+        <v>27.0464493218255</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.21633788295983</v>
+        <v>41.29929278149923</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.41528953224499</v>
+        <v>12.90772070080661</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.13587671548089</v>
+        <v>28.97979936210705</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.19313823102817</v>
+        <v>37.20169397123085</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.2212082721759714</v>
+        <v>5.152659730150454</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15.42611091526206</v>
+        <v>17.13258850254778</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.62235986038884</v>
+        <v>25.98079720945711</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.084440084169547</v>
+        <v>5.009805027621155</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.64007087858723</v>
+        <v>29.31524974605358</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.46050924732142</v>
+        <v>40.41977075130092</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.15965705429831</v>
+        <v>36.05121990710582</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>47.97001465864214</v>
+        <v>49.69605706211228</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.07392293427021</v>
+        <v>59.19974387298904</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.63586812721255</v>
+        <v>11.74830918032438</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.31511963294748</v>
+        <v>36.76098413387821</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.1537550763524</v>
+        <v>43.16131707607507</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.309662346755282</v>
+        <v>6.796552216078634</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.16983485648164</v>
+        <v>27.48955664983174</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.9644459496977</v>
+        <v>36.81118827116252</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.261384248274503</v>
+        <v>6.514452836996913</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.68558247692899</v>
+        <v>31.75542830998593</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.37201395508992</v>
+        <v>36.356704301661</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.091402389688138</v>
+        <v>7.745189574367036</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.08447396768258</v>
+        <v>52.13554020092622</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.35697232595249</v>
+        <v>59.30422195752038</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>49.39786280812018</v>
+        <v>47.24075401813958</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.0635744561493</v>
+        <v>50.89937862095959</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.32016002301603</v>
+        <v>50.6455905522393</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.803635881864682</v>
+        <v>7.395740648192348</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.04318446382377</v>
+        <v>31.53262930527378</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.9193727206718</v>
+        <v>41.98045276456695</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.663150441486238</v>
+        <v>8.068764234320732</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.17870016836905</v>
+        <v>33.81421190050487</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.0323507969572</v>
+        <v>38.13518346184783</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5814068056905519</v>
+        <v>5.304714489656583</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.59202309422071</v>
+        <v>17.54019782335064</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.93447337953014</v>
+        <v>26.7753126009499</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.562320415368102</v>
+        <v>4.977689930344653</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.40951425078534</v>
+        <v>33.71159476827093</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>47.15465227285758</v>
+        <v>42.85363732428328</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.14671488743552</v>
+        <v>35.09357419904001</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.02455796098144</v>
+        <v>51.30043792358882</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>58.55014802996696</v>
+        <v>58.78106759452218</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5225848875182031</v>
+        <v>6.041408736190643</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.81609549301027</v>
+        <v>39.41144205425996</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.26274296116755</v>
+        <v>45.0154059944489</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.19391886709348</v>
+        <v>7.394531999195689</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.74802451848398</v>
+        <v>33.22040309864288</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.24274300246806</v>
+        <v>40.76581170936199</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.5100436819419443</v>
+        <v>5.232059548047417</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.30836404915439</v>
+        <v>25.08488534653966</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.42194054875755</v>
+        <v>32.11766132019196</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.598606880665486</v>
+        <v>6.628915912083841</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49.01075974407019</v>
+        <v>43.45324576381105</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.82705236699923</v>
+        <v>62.31028633181015</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.07468921128984</v>
+        <v>44.37832328312781</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>62.90027331402531</v>
+        <v>64.00448171162461</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>71.79450427998044</v>
+        <v>69.17634578782391</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-2.422977367093747</v>
+        <v>5.272613078088646</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.27405074248632</v>
+        <v>47.98544525552192</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.78630640621458</v>
+        <v>55.18442052010086</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.97077775636528</v>
+        <v>15.23493147298079</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.04491047172157</v>
+        <v>24.61510670160833</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.66776221327765</v>
+        <v>33.52496543070543</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.979277631390843</v>
+        <v>5.782166132887184</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.73894434294876</v>
+        <v>27.13679979244031</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.79059380314485</v>
+        <v>29.48234435316796</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.46150175543535</v>
+        <v>8.794273696283454</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49.4341518716743</v>
+        <v>50.88435030287538</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.1759055849806</v>
+        <v>51.99156294106636</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.0777858562974</v>
+        <v>36.71280137134007</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.30562799876568</v>
+        <v>43.24028871104566</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.54470631241492</v>
+        <v>42.43985579271704</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.93572715194901</v>
+        <v>12.21240119060692</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.89758369225475</v>
+        <v>23.87147857915544</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.94816746873303</v>
+        <v>28.23834661593867</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.34602373921605</v>
+        <v>20.99115218334799</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.62898407657136</v>
+        <v>36.7719677476794</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.04342571180089</v>
+        <v>39.15373456651053</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.242872486422446</v>
+        <v>6.686629656520683</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.31477477943225</v>
+        <v>24.75452270398462</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.00182976021851</v>
+        <v>28.60299173543543</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.09999458493197</v>
+        <v>7.954646125738936</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>40.8331971182411</v>
+        <v>43.46400747348342</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.52981730596268</v>
+        <v>46.25942646039557</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.91210925046491</v>
+        <v>41.763090662767</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.66871492592053</v>
+        <v>53.47548023691843</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.02351869331397</v>
+        <v>58.27060835815359</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.50073170825801</v>
+        <v>18.63927672559756</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.54580664420223</v>
+        <v>40.10327503024412</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.97279422482632</v>
+        <v>47.13987737260451</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.31160590672422</v>
+        <v>18.50521610953919</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.27062706051629</v>
+        <v>35.10504511367319</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.68053939169348</v>
+        <v>39.86340399659299</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.897034448424801</v>
+        <v>6.154979188979535</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.26045953572667</v>
+        <v>26.06867841075049</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.91785987178364</v>
+        <v>31.84423353477525</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.561150322208263</v>
+        <v>8.157729333428204</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.22363956456333</v>
+        <v>48.28719185142066</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.93715372699221</v>
+        <v>61.80218188211845</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.1792347575068</v>
+        <v>48.83448600288723</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>62.82930748548693</v>
+        <v>61.28761932122958</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.66072894284673</v>
+        <v>67.79215357426901</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.80517457111153</v>
+        <v>16.14338325827262</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.58697111987069</v>
+        <v>47.21179663378064</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.13677870924597</v>
+        <v>54.66445842790196</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>8.548685104004287</v>
+        <v>12.48294560580732</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11.31051997916544</v>
+        <v>15.00715375817939</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.97984773671587</v>
+        <v>16.64576360472857</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.266610603014524</v>
+        <v>6.714749901624128</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.51238072309507</v>
+        <v>11.14321332795113</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.47692483476498</v>
+        <v>11.74851823709104</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.634848163489877</v>
+        <v>10.57757557181551</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.89774336372684</v>
+        <v>20.71549012041499</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.70799210984498</v>
+        <v>21.69540522370284</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.27991075752677</v>
+        <v>19.00489074196835</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.96655691632942</v>
+        <v>20.34808867080435</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.57194394111846</v>
+        <v>25.75895091201988</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>50.25094046386354</v>
+        <v>53.45657363905745</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.85829526531931</v>
+        <v>56.27272970236603</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.42995804838684</v>
+        <v>55.0830974964604</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.196847424831414</v>
+        <v>11.65664545184912</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.54946350898265</v>
+        <v>25.2035434521902</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.5083152439887</v>
+        <v>35.91031925803684</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-5.167605487835164</v>
+        <v>4.663869086666956</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.579758273083087</v>
+        <v>6.142733477718458</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.81605242644804</v>
+        <v>15.73828939036241</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1.159917422629185</v>
+        <v>5.254417585496977</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>14.53799310916199</v>
+        <v>17.87748861207547</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.48759082325284</v>
+        <v>35.6274341680064</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>17.47970061229416</v>
+        <v>20.76282245167669</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.9500425972451</v>
+        <v>34.99631137708282</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.36668652504617</v>
+        <v>49.54251717813391</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.604897204560757</v>
+        <v>6.393273774011718</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.95040888836826</v>
+        <v>26.06182217438162</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.6539587430502</v>
+        <v>33.59239346479074</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.36734869687357</v>
+        <v>20.97300055989857</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.72825353432441</v>
+        <v>27.27219225894506</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.61201590753831</v>
+        <v>35.38056727680283</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.551594029850584</v>
+        <v>5.070994841522207</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>9.741288801779271</v>
+        <v>10.82107413214092</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.45128680559685</v>
+        <v>19.15380712212522</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.805724457329763</v>
+        <v>8.825047381538035</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.04193529087162</v>
+        <v>26.1277981528085</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.66678336743214</v>
+        <v>42.97052225079065</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22.89219330535592</v>
+        <v>29.49393730526416</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.81331907799117</v>
+        <v>38.04951046146266</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.63501352212442</v>
+        <v>52.97475038946335</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7.70267308730601</v>
+        <v>16.89884155879695</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.4616413923099</v>
+        <v>37.52350279208069</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>41.39679926887436</v>
+        <v>44.75610833005246</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.179941102075922</v>
+        <v>5.730180039877133</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.87344830314905</v>
+        <v>14.738581546124</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.25073991962628</v>
+        <v>25.55107523278415</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.330953243014761</v>
+        <v>5.770010667935303</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.16075098963351</v>
+        <v>21.79116829344244</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.00439251607167</v>
+        <v>28.24741016838405</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.827074374336757</v>
+        <v>10.97699908983669</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.64077446298047</v>
+        <v>50.29910785837255</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.45298525908647</v>
+        <v>53.36701566881055</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.84842988309826</v>
+        <v>34.89865419358013</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.40893348248449</v>
+        <v>40.50931043110779</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.04145372034567</v>
+        <v>43.2113744943818</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5.958240258678224</v>
+        <v>15.16888024329284</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.576001236158358</v>
+        <v>14.63841006634222</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.34980975827697</v>
+        <v>16.39659357223606</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.41931412173059</v>
+        <v>22.73430553558201</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.21828791101696</v>
+        <v>35.72187347481561</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.53870001160523</v>
+        <v>36.48106554557212</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.17808034754577</v>
+        <v>7.460561622554874</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.83441643241355</v>
+        <v>25.65394953797015</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.305651509522</v>
+        <v>32.32182181097764</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.367376043856577</v>
+        <v>8.97778159177966</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.97632699655411</v>
+        <v>44.74442929962461</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.66765382281108</v>
+        <v>48.34140986259187</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>44.10613140654972</v>
+        <v>45.08429879293267</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>55.93233964152045</v>
+        <v>57.32995731303589</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.37848957712413</v>
+        <v>61.12134072800072</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.15405961753155</v>
+        <v>25.5035280156186</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>41.87316631623537</v>
+        <v>45.77002635205066</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.84246113691269</v>
+        <v>50.42309191822487</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.36511003328916</v>
+        <v>23.10355769174971</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>34.66994412175767</v>
+        <v>36.89292570319869</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.90682820804921</v>
+        <v>40.07620992674981</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3.541310813506865</v>
+        <v>6.424245217936324</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.54170570542843</v>
+        <v>19.90132494952771</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.26932278891379</v>
+        <v>28.53958884974393</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>8.556854588902072</v>
+        <v>11.1815542279701</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.14130862224117</v>
+        <v>43.28099932412042</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>59.53993422643573</v>
+        <v>57.27332904012806</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>46.28431177180717</v>
+        <v>47.5103048619503</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.39782129885935</v>
+        <v>58.57540058660292</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.52927777085046</v>
+        <v>63.88155103009336</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>23.88916526893497</v>
+        <v>24.09149105823321</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.1278197619818</v>
+        <v>47.09096476990729</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.96403675838128</v>
+        <v>56.68288698577095</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3.657394825302667</v>
+        <v>4.364829218382681</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.25589256129789</v>
+        <v>13.95390847360702</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.94954274890921</v>
+        <v>28.04207478187799</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5.601777422450038</v>
+        <v>6.685505145728097</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>30.03307741249929</v>
+        <v>32.9313111901203</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.68824298671633</v>
+        <v>32.71759408291911</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.56695857305484</v>
+        <v>10.60991876586568</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>56.19083339233117</v>
+        <v>55.89696465002576</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.58043957338172</v>
+        <v>58.44615189527661</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.42987017467844</v>
+        <v>36.90379495430519</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>48.67275397580262</v>
+        <v>46.05764694310174</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.52553998907489</v>
+        <v>47.57958650757365</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4.896415326658083</v>
+        <v>9.777495833470542</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>4.320479272178055</v>
+        <v>12.11098529988257</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.928008836808402</v>
+        <v>13.9300047072057</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.50893373792432</v>
+        <v>16.20610741008965</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.03026909518476</v>
+        <v>39.36497958907759</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.20574073216392</v>
+        <v>40.08047539710248</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.34945525160056</v>
+        <v>6.791359699374649</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.83811289581396</v>
+        <v>31.5387372760673</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.42897329356013</v>
+        <v>38.07824337547423</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.494708449092254</v>
+        <v>7.048126378277942</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>51.08092235265347</v>
+        <v>52.44885383936471</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>55.5253752135315</v>
+        <v>54.81143834659207</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.33999701493585</v>
+        <v>42.3972387754531</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.63174134938252</v>
+        <v>56.28898479458291</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.14662894964388</v>
+        <v>62.43901308515142</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.36445938863098</v>
+        <v>14.79515918971246</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>52.60954292619034</v>
+        <v>50.54069132162356</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.21421180808098</v>
+        <v>55.09394631577636</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.41173819344584</v>
+        <v>19.0617157200793</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.64828892755224</v>
+        <v>39.78419601585068</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.79078294896568</v>
+        <v>41.81332932375776</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.119558860633212</v>
+        <v>6.894853121431748</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.71303168481139</v>
+        <v>28.56251766421132</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.79569445603525</v>
+        <v>32.05403591078892</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.851954066859681</v>
+        <v>9.007787129900802</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>50.75395302777683</v>
+        <v>50.33365416925603</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>63.87090515713358</v>
+        <v>60.45796871672905</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.46279890030962</v>
+        <v>51.57696023297739</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65.59040049129341</v>
+        <v>64.65269316576462</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>70.46367146912067</v>
+        <v>69.3353071301653</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.1454908757548</v>
+        <v>13.78834819840965</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.97395981992113</v>
+        <v>52.15454395923015</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.61874002490775</v>
+        <v>58.08073221970039</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.80288188870394</v>
+        <v>10.75611123394703</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.375005880228489</v>
+        <v>10.97891544011216</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.20288608600698</v>
+        <v>12.71951392872971</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.6073501394664795</v>
+        <v>6.233539210820954</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.949978216547676</v>
+        <v>10.8255771861231</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.65482206892267</v>
+        <v>10.31228258106686</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.442704698953467</v>
+        <v>9.225629583072308</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.57345393254412</v>
+        <v>16.76114061192181</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.38314359922224</v>
+        <v>19.23088731362055</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.21986150778117</v>
+        <v>21.24188392168956</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.01499910458176</v>
+        <v>24.09343110613776</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.08305769923951</v>
+        <v>26.51011263628082</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.672792471711059</v>
+        <v>8.627472801039364</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>3.64436455334382</v>
+        <v>8.54442813788831</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.720251458404103</v>
+        <v>11.96726451303326</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.888882307931711</v>
+        <v>12.44767459580294</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.17500349481147</v>
+        <v>26.74619005133937</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.95400840175767</v>
+        <v>32.4849062777249</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.9453928012634591</v>
+        <v>6.00778134885778</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.32367288438489</v>
+        <v>14.65016830812584</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.96250634677688</v>
+        <v>24.03654466434583</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2.361905430878572</v>
+        <v>9.712949434622985</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.43636673276183</v>
+        <v>27.92031950367605</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>37.03745540068513</v>
+        <v>40.13118057412148</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.91989024855994</v>
+        <v>28.34116723902198</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.57871059117454</v>
+        <v>40.19084306710433</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.91754887402729</v>
+        <v>45.80486262747969</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.69474233190461</v>
+        <v>10.03281048885366</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.35415883775292</v>
+        <v>31.83399212462842</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.17836058195885</v>
+        <v>40.96986136937836</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>9.165937979275983</v>
+        <v>10.12438752806431</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.16990810427528</v>
+        <v>24.24086293743586</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.50745069871846</v>
+        <v>34.14677900883365</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-0.2046916908710976</v>
+        <v>4.725246411234071</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.64815195701645</v>
+        <v>18.25865888245581</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.79126486792421</v>
+        <v>25.6851899252018</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3.142580453503395</v>
+        <v>7.765358729277477</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.93467653862852</v>
+        <v>33.63264009025504</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.73355443228024</v>
+        <v>44.74791525705717</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.23653943996791</v>
+        <v>43.18364782593201</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>54.39903556452818</v>
+        <v>57.26708470357588</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>59.04316018629723</v>
+        <v>57.92352195839371</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.719845629171427</v>
+        <v>9.26420393864537</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>38.07323915858382</v>
+        <v>39.09056900896375</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.72870487805046</v>
+        <v>49.03499353956413</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.4307769071946979</v>
+        <v>5.724807168147446</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>4.311904786844504</v>
+        <v>12.03044225221075</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.14438053927698</v>
+        <v>14.2370253212188</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1.446945402786412</v>
+        <v>5.684426446509068</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>8.532377717945142</v>
+        <v>9.984863040834817</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.88006792201702</v>
+        <v>13.75386962703778</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.6106641020162016</v>
+        <v>5.266434588319893</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.47160421114203</v>
+        <v>14.93469600536424</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.55577083732802</v>
+        <v>12.90629698121823</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.81823170728755</v>
+        <v>12.74662358213356</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.66637525520428</v>
+        <v>14.44200390048011</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.84496942546149</v>
+        <v>15.54716964360236</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>2.785219846061036</v>
+        <v>8.32082746415081</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>10.19460008919326</v>
+        <v>14.40971370600432</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.02151777926496</v>
+        <v>15.45707416509689</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.127416599108134</v>
+        <v>5.632625473648272</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>9.932825595715983</v>
+        <v>9.308141557900012</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>18.63250758122095</v>
+        <v>21.03988224500552</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.329444514516549</v>
+        <v>6.835335345046357</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1.724397063173935</v>
+        <v>5.132788302334092</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.51666495439989</v>
+        <v>12.39056050828669</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.5378045502075715</v>
+        <v>7.390210235197038</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>2.499749359871572</v>
+        <v>7.773441728032513</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.83825850530796</v>
+        <v>23.38424303323492</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>2.167028040867326</v>
+        <v>10.02651555280638</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.49407932174954</v>
+        <v>22.61025503911146</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.26214049318908</v>
+        <v>37.03033049037839</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1.454839791247714</v>
+        <v>4.99050504056677</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.445458195053313</v>
+        <v>10.65407128625016</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.22663002609992</v>
+        <v>13.47857208755508</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.3332720158613292</v>
+        <v>4.899258887774351</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>6.046561490051751</v>
+        <v>10.64216963431475</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.24857491106753</v>
+        <v>23.42647814335751</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.368587961692882</v>
+        <v>6.337144963837197</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.156098616183719</v>
+        <v>5.755757886759909</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.93121293039653</v>
+        <v>17.53568365225453</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.7952811086320928</v>
+        <v>6.734510762454342</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>4.819540179400487</v>
+        <v>9.59005571463025</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.77164144004993</v>
+        <v>33.88336315521094</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>8.483951036899049</v>
+        <v>15.15755120362347</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.18723166968054</v>
+        <v>40.27615418918941</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>52.35961748038741</v>
+        <v>51.69674299745054</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.982107734558518</v>
+        <v>4.117975200789598</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4.863411665813025</v>
+        <v>13.63903614451083</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.29902177661389</v>
+        <v>17.76082237595189</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.194572454690167</v>
+        <v>13.36561607543831</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.29338633808</v>
+        <v>17.39440267589256</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.1658098914068</v>
+        <v>35.00160781281261</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.002868824440789</v>
+        <v>6.82508477757915</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.3150490393862</v>
+        <v>38.67364277215779</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.89645786661885</v>
+        <v>39.60989941000554</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.50184389426629</v>
+        <v>9.81412879290804</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>56.43585796054335</v>
+        <v>53.97844768635817</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>62.48680269063339</v>
+        <v>59.02478459540698</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>44.40082456601174</v>
+        <v>40.06592248941604</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.68207187378148</v>
+        <v>43.58266183982271</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>46.77050532415112</v>
+        <v>45.12760754064928</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.82371739066761</v>
+        <v>26.09864448154365</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.25647798585621</v>
+        <v>29.37616286033921</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>57.28819705232422</v>
+        <v>60.46049898117211</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.879933363285254</v>
+        <v>10.06549505885623</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.31222210964305</v>
+        <v>29.82239032281349</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.05781894762158</v>
+        <v>31.77308588920812</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.514060221563945</v>
+        <v>6.042846294630927</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.10178416505353</v>
+        <v>24.79260310601946</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.49445883749849</v>
+        <v>27.72239126108084</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.541849670319809</v>
+        <v>8.920991546753445</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.60851610157693</v>
+        <v>39.62350605500385</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>44.71810690736311</v>
+        <v>42.51304379534069</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.56203171596675</v>
+        <v>34.9694532084673</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.34797060571455</v>
+        <v>44.86477663701282</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.13098162717598</v>
+        <v>48.188881653698</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.49276134515713</v>
+        <v>16.8727257511904</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.27644064241562</v>
+        <v>37.28881015596656</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.71255446976765</v>
+        <v>42.27963375341749</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.60847573519239</v>
+        <v>14.61786927474231</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.8888041877629</v>
+        <v>27.58945543238566</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.58793501660871</v>
+        <v>38.62159321737559</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.570621571799666</v>
+        <v>6.183847891021866</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.6110423710812</v>
+        <v>28.71038585395586</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.17410898852732</v>
+        <v>33.56141238583234</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.522375981172646</v>
+        <v>10.1841849786883</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.88152943583837</v>
+        <v>46.27556008133941</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>61.77375877021429</v>
+        <v>60.30487638335753</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.63845390892095</v>
+        <v>46.16674146606085</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.36706588537996</v>
+        <v>58.0930622273542</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>65.51901008455754</v>
+        <v>62.18940713457122</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>16.56541246972512</v>
+        <v>14.98536186288961</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.26320105637717</v>
+        <v>48.24804545630128</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>60.7337882105076</v>
+        <v>58.33177909241224</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.205833308658775</v>
+        <v>10.81313569475124</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.914938120610621</v>
+        <v>11.84042721374671</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.45390725435502</v>
+        <v>13.3257789719264</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>1.298031142921811</v>
+        <v>7.485978968199625</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.832618238678329</v>
+        <v>9.510045790363851</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.914584643340575</v>
+        <v>11.8861793633423</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>4.499456870189483</v>
+        <v>10.18991496907907</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.88766622011185</v>
+        <v>15.11564136174387</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.56804184992018</v>
+        <v>17.05533884651346</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>14.78581239136238</v>
+        <v>15.06449392925271</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.80500976544223</v>
+        <v>17.14112726160635</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.00853420440185</v>
+        <v>19.11828228274059</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.222311089972326</v>
+        <v>9.595052361717833</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2.820945030135324</v>
+        <v>9.475293628563765</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.172410514488556</v>
+        <v>12.13612221603085</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.552336155906129</v>
+        <v>8.567477675237892</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.9588910586734</v>
+        <v>15.0479416219563</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.08331412545542</v>
+        <v>26.08647695860592</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.092332117455545</v>
+        <v>4.771473867045042</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1.225983912508099</v>
+        <v>4.606042684819908</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.30975479426806</v>
+        <v>18.4321611965476</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.368852366752773</v>
+        <v>6.78715418076365</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.736252461829555</v>
+        <v>7.542348430296645</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.36131660720242</v>
+        <v>28.12644876181932</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.224613031350028</v>
+        <v>11.80681900853315</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.51244346914583</v>
+        <v>20.54074735699797</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>30.49693788261962</v>
+        <v>34.56917609696237</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.439018900561535</v>
+        <v>4.47607774615966</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.09053943669119</v>
+        <v>12.35718373919358</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.51456281541283</v>
+        <v>21.35206644548294</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.66627582898284</v>
+        <v>11.31772909632859</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.25576313388861</v>
+        <v>19.58798753262448</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.87714131918777</v>
+        <v>30.08583431451624</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.352625537190434</v>
+        <v>5.54821239671713</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>6.25895751791845</v>
+        <v>9.733512532122546</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.93035673120667</v>
+        <v>21.58912062200935</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.358724785294005</v>
+        <v>9.723712309250679</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.84664935134536</v>
+        <v>17.48818180843171</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.10084064939588</v>
+        <v>36.44291691131986</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>15.69804025162301</v>
+        <v>19.42524408612593</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.31428788316217</v>
+        <v>25.71379573467214</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.41428403323778</v>
+        <v>44.51016876716247</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.822895957681851</v>
+        <v>15.05142828187468</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.50266349951712</v>
+        <v>20.34383965557429</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.12436650816231</v>
+        <v>33.26950658627557</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2.322233918012021</v>
+        <v>4.848351372452367</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.006543995686812</v>
+        <v>4.908848221565254</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.70688843381313</v>
+        <v>11.11985061234711</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.01986266726871833</v>
+        <v>6.647231839264517</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1.944719036831987</v>
+        <v>5.638386901577562</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.563536114118961</v>
+        <v>6.462217417256667</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.482313761628799</v>
+        <v>9.85432945130556</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.0606103254545</v>
+        <v>10.33700866971378</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.43213436553544</v>
+        <v>11.69662274285084</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.131997836220535</v>
+        <v>6.349216175607769</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3.947658437050301</v>
+        <v>8.094136749491291</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.08167369725976</v>
+        <v>16.86556042251439</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-0.6272513857094708</v>
+        <v>5.699581929948714</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-2.99662264827418</v>
+        <v>4.771406190712327</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-3.638752579176852</v>
+        <v>4.533553138235028</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.21331607522428</v>
+        <v>17.95506334133647</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.35782057185563</v>
+        <v>30.16592558750621</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.73860602089893</v>
+        <v>33.17537173178871</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.020242191559252</v>
+        <v>6.928649700139861</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.27332564503623</v>
+        <v>20.40725770448318</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.59846633255373</v>
+        <v>26.62272974222724</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.804377829782283</v>
+        <v>11.02493063912082</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.06114280551899</v>
+        <v>41.46939083117408</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.29624231070731</v>
+        <v>46.31112581044728</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.47457330668081</v>
+        <v>36.02659152251871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.53096290995948</v>
+        <v>46.59511784691797</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.77688810478464</v>
+        <v>45.79749453442227</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.14834011319754</v>
+        <v>16.76122373230319</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.02646155601656</v>
+        <v>36.39259138151989</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.76709020355784</v>
+        <v>43.29907759585537</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.31408390486455</v>
+        <v>18.66532782118547</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.10579956175248</v>
+        <v>31.94809038002393</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.75247453761249</v>
+        <v>42.50116363509076</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.123065228431852</v>
+        <v>5.50555585989472</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.89111429772978</v>
+        <v>23.33586824702698</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.45972815636553</v>
+        <v>27.374023075242</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.96577574136494</v>
+        <v>9.564909925060832</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.57179062961212</v>
+        <v>42.67424021080515</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>57.84472720146299</v>
+        <v>54.9382743039329</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.5937137700859</v>
+        <v>46.26329098989862</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>55.83112911560301</v>
+        <v>57.37111270399915</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>64.02424025003975</v>
+        <v>61.38467065295136</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.350817029609564</v>
+        <v>11.60554317791453</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>44.11039373261951</v>
+        <v>43.65394229054332</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.74504401451755</v>
+        <v>49.81171038070619</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.875337744048123</v>
+        <v>14.03862365506292</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.82329862201777</v>
+        <v>15.08121729475507</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.40635950649944</v>
+        <v>16.03267259813641</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.202030463793612</v>
+        <v>8.689618127243165</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.59033249237274</v>
+        <v>15.11463783444719</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.45856713157055</v>
+        <v>15.84323621378576</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>11.95985898020046</v>
+        <v>15.90817687507663</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.7957387424867</v>
+        <v>23.45413802642531</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.85768156322844</v>
+        <v>22.64327498482463</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.67552689923139</v>
+        <v>20.32600509240969</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.62654391353297</v>
+        <v>23.31211691040759</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.52973720026395</v>
+        <v>25.25608525459865</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.00640664396535</v>
+        <v>17.6197395090719</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>8.397630388669015</v>
+        <v>12.74224112973758</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.96693854649159</v>
+        <v>15.99663648057913</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.039839044790032</v>
+        <v>7.209781932283335</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.12412892227626</v>
+        <v>13.23009377198819</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>17.85375687989574</v>
+        <v>21.44462109698958</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.80261025681105</v>
+        <v>5.539855532352309</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-0.2275274414031578</v>
+        <v>5.649273020957608</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.56043271826167</v>
+        <v>14.36518633324734</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.498756044698304</v>
+        <v>5.177997485369684</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>4.164888411153264</v>
+        <v>8.268081635016799</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.05690620200112</v>
+        <v>19.81622359153889</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>7.758374484836594</v>
+        <v>11.96550808095554</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>15.11054921716403</v>
+        <v>17.02854924141165</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.19802895454535</v>
+        <v>26.62449769534088</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.06744947158979286</v>
+        <v>5.44254704635604</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8.779265463988896</v>
+        <v>9.305804410315353</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.35400800317269</v>
+        <v>15.13841942789224</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.43200189908265</v>
+        <v>16.47582178621632</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.14212007355598</v>
+        <v>26.81379183430323</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.05097219887136</v>
+        <v>29.48264023099046</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.9893203520771898</v>
+        <v>6.297417092942467</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.46769362435323</v>
+        <v>16.62482417631069</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>18.0386616060342</v>
+        <v>19.92346461826067</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.099884515579451</v>
+        <v>9.04695960093235</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.44170747383789</v>
+        <v>28.10624705670271</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.24033620220251</v>
+        <v>39.8024179168421</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.10138238286957</v>
+        <v>29.4012262125413</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.70320078382734</v>
+        <v>34.14189809538677</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.62034095252879</v>
+        <v>44.44512424919056</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.607977095510577</v>
+        <v>9.037386840825235</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.9496621163794</v>
+        <v>27.1996737806054</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.03165569840525</v>
+        <v>31.2250429227156</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.030465421510758</v>
+        <v>6.892166303838675</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.563496435405028</v>
+        <v>7.802754183460159</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.762379457079369</v>
+        <v>8.238555182287158</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.921934907065843</v>
+        <v>7.059494154913491</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.271356257615295</v>
+        <v>7.783757782339336</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.57145338343371</v>
+        <v>8.148474702181172</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.481553101665728</v>
+        <v>10.56522975447586</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.519089658385198</v>
+        <v>11.59843328655372</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>9.826223699323089</v>
+        <v>10.60615815025978</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.422007456964209</v>
+        <v>8.35596139905488</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.840610172873006</v>
+        <v>7.228341726770978</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.94261791927277</v>
+        <v>11.30223344467499</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.16190765318623</v>
+        <v>6.870246286010598</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>2.675525555583313</v>
+        <v>7.758955778604008</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.63912699643603</v>
+        <v>8.148391227220738</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.277637921590113</v>
+        <v>6.033232236697284</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.476386634112835</v>
+        <v>7.686087187138156</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>7.10462331075076</v>
+        <v>8.417850317704083</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.010115804385542</v>
+        <v>6.506388792964962</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.022859975134761</v>
+        <v>4.952853729599074</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.966724142683667</v>
+        <v>7.097156428406254</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.8770537794272499</v>
+        <v>6.536144046004907</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-3.205705072065943</v>
+        <v>6.064334042867358</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>3.979443512153946</v>
+        <v>7.890744115435709</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.252087031854803</v>
+        <v>5.714866995752885</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.522816204999785</v>
+        <v>5.902958812992633</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.776001305048634</v>
+        <v>7.547579810543581</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.714016082707658</v>
+        <v>6.106706707079027</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-0.3811188118370517</v>
+        <v>5.17498026850059</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.342814777456674</v>
+        <v>6.246857712603315</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.20634475792507</v>
+        <v>18.57653547215025</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>18.27222906460543</v>
+        <v>22.71086527759178</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.02776714531813</v>
+        <v>22.52384699443108</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.187393037281208</v>
+        <v>7.094738628501052</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>6.604552963020314</v>
+        <v>12.61691585345781</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.62456782941478</v>
+        <v>14.30254457640301</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.745522565552388</v>
+        <v>12.28395679326206</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>18.61750617593718</v>
+        <v>23.24246537408216</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.90496680801233</v>
+        <v>26.8721837308338</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.6418518082892</v>
+        <v>21.5988694780338</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.1092029209189</v>
+        <v>24.24255935864615</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.12251910650676</v>
+        <v>26.14355499412279</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.65005309335684</v>
+        <v>16.48503253879875</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>15.6598724883941</v>
+        <v>21.02378678973298</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.30573304903696</v>
+        <v>24.05127398279652</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.96258781835676</v>
+        <v>17.55715796739756</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.89362486223104</v>
+        <v>27.16352349707085</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.46172519358625</v>
+        <v>35.287337252204</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.160352622164222</v>
+        <v>6.871780931895</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.67351591262625</v>
+        <v>17.67974708706629</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.72416710845301</v>
+        <v>20.64527334615991</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.49234159249254</v>
+        <v>13.50410677474597</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>40.41862500139216</v>
+        <v>35.85189718825049</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.55826925270409</v>
+        <v>41.13454091846874</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.49939053948336</v>
+        <v>32.85926802887266</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.19532328126252</v>
+        <v>37.59044062051088</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.14817598442345</v>
+        <v>40.04689733473995</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.85955076520697</v>
+        <v>24.01513035631227</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>37.22238451154571</v>
+        <v>38.55459178050906</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>44.98599781572844</v>
+        <v>43.30346032515905</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.89025765432522</v>
+        <v>15.79610146475037</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.95428040602356</v>
+        <v>24.67047431737989</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.37423133712714</v>
+        <v>30.0256955370463</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.6134485121054745</v>
+        <v>6.90952096171004</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>2.975001673155948</v>
+        <v>8.971866999335674</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.571148650464044</v>
+        <v>12.92612485870604</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.119734216174113</v>
+        <v>10.75514445222423</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.04804944617742</v>
+        <v>21.86625524149587</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.99446770513519</v>
+        <v>26.7108781072409</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.2882281595389</v>
+        <v>19.084837599161</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.93641982900337</v>
+        <v>24.21577469191866</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.98343543047981</v>
+        <v>28.07076684467193</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.588797885348949</v>
+        <v>14.86011334934552</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.1752312388844</v>
+        <v>25.57070575627</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.18049238803461</v>
+        <v>29.10866767349243</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>15.42697976709064</v>
+        <v>20.54478941539666</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.18704047629319</v>
+        <v>29.43581844600623</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.84870497011762</v>
+        <v>39.34957064261236</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1.890598329645179</v>
+        <v>6.049171662670481</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.16119906670195</v>
+        <v>15.52332815569495</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.18940930675482</v>
+        <v>19.10014167201504</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.466378355062286</v>
+        <v>11.87264144213005</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.86255199586114</v>
+        <v>31.98757064851249</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.66176859335345</v>
+        <v>42.43171374703059</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.41408763666283</v>
+        <v>38.17496687697201</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.3409109404051</v>
+        <v>45.15833593802647</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>50.76304988177205</v>
+        <v>48.24542843207475</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.41650121658298</v>
+        <v>19.75213244315699</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.062064287277</v>
+        <v>35.22703590295508</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>38.85450894134837</v>
+        <v>40.18622059712641</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.37280145850499</v>
+        <v>16.1654459947197</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.72326000991604</v>
+        <v>28.23000132606151</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.01992830180397</v>
+        <v>35.63757012639768</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.673098574693462</v>
+        <v>6.971096880523891</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.25634680532433</v>
+        <v>28.97175936261824</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.39684734002493</v>
+        <v>33.65619069845734</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.06778206169268</v>
+        <v>12.07501504987581</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>51.63067643189228</v>
+        <v>49.57528924806958</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.3869243460584</v>
+        <v>56.85060519394126</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.84342859838127</v>
+        <v>45.12304702995229</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>48.95701801933743</v>
+        <v>49.29901764966402</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>56.02459812488861</v>
+        <v>53.18845652214108</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.21953772097829</v>
+        <v>14.15158221915308</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.83876313417953</v>
+        <v>29.71542394153367</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.30192770652518</v>
+        <v>42.13885385714131</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.57477422405885</v>
+        <v>12.09912352771168</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.66245480466825</v>
+        <v>29.83586970560961</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.41119940081124</v>
+        <v>33.10994029566879</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.910220244112253</v>
+        <v>6.660907148579547</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.16398911072172</v>
+        <v>18.35714663247769</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.4364422823488</v>
+        <v>27.40022341813259</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.833780633165652</v>
+        <v>7.805349608196316</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.86827063533023</v>
+        <v>34.13152466578749</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.8268187914274</v>
+        <v>38.63867222822157</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.55142202409441</v>
+        <v>33.6111415377046</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.51288977226729</v>
+        <v>42.13120050308841</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.13634252451779</v>
+        <v>48.55421986802197</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.877874919614676</v>
+        <v>8.502613336063526</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.14039971782417</v>
+        <v>30.44082288383121</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.99010375064952</v>
+        <v>38.49317522027738</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.274053681987064</v>
+        <v>8.555761305381356</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.19379441745141</v>
+        <v>26.45628609034329</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.94212757326279</v>
+        <v>34.96078687892758</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.9994577332272634</v>
+        <v>5.035249120522906</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.28209280920152</v>
+        <v>17.68002104809422</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.33448376653737</v>
+        <v>31.23094416045893</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.798470446946201</v>
+        <v>6.947487371675582</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.88507185487627</v>
+        <v>31.8710499004269</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.35100733707098</v>
+        <v>53.23753830725404</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.32741109665483</v>
+        <v>37.88543682300849</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.58802391764574</v>
+        <v>51.73436429745215</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>63.40472877989049</v>
+        <v>63.51295586189907</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>3.543254714648906</v>
+        <v>5.707271238152011</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.73136055216465</v>
+        <v>37.21540520029788</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.39031957581754</v>
+        <v>50.2982870130054</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>6.225205580040388</v>
+        <v>11.9575849175697</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.09898086200554</v>
+        <v>19.20897784373186</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.86558059892901</v>
+        <v>34.06879707011738</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.616226590604331</v>
+        <v>6.775800752469216</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>34.97442622613205</v>
+        <v>37.60116083716801</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.08545438730515</v>
+        <v>43.04075340058588</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>8.456689730440374</v>
+        <v>10.45693155442583</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.60288310452849</v>
+        <v>55.52366778598437</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>62.66250762342952</v>
+        <v>59.77673606364984</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.37057373111062</v>
+        <v>38.74523416842388</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.15901558894586</v>
+        <v>40.30424796399407</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>48.2180391264142</v>
+        <v>42.38231443963549</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>2.557865696945004</v>
+        <v>14.22723721495274</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>22.75825879283633</v>
+        <v>25.62325145227103</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>59.62195653787673</v>
+        <v>55.63170523952574</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>15.50014629900809</v>
+        <v>14.80793219706367</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.7041221699502</v>
+        <v>30.6744636376887</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.18704820815095</v>
+        <v>33.77457501286125</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2.500963537394437</v>
+        <v>7.026192093955704</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.76279376925668</v>
+        <v>21.85616210659922</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.78725894134034</v>
+        <v>26.73894895406754</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.876356223306125</v>
+        <v>8.262343148539411</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.29370950246917</v>
+        <v>34.0673608157983</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.37352892975397</v>
+        <v>38.69573692187012</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.69825719523851</v>
+        <v>32.09047022961359</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.6918874198236</v>
+        <v>40.6754405451146</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.57605696893143</v>
+        <v>46.04380002578017</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.422162217743427</v>
+        <v>9.765787041419788</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.50160273821583</v>
+        <v>30.61449407812623</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.61885849275798</v>
+        <v>36.76001835584752</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.76293208905796</v>
+        <v>11.1470084691943</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.34787835524635</v>
+        <v>27.55928754032673</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.83317421581292</v>
+        <v>35.87254639428141</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.615386621839882</v>
+        <v>6.689989477685216</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.92760449068794</v>
+        <v>24.92907976087303</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.20226514614051</v>
+        <v>31.18811451114934</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.896106383226488</v>
+        <v>8.49839686924831</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.38584431309853</v>
+        <v>39.6058065516613</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.16351416174309</v>
+        <v>53.81105716278476</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.35064625747488</v>
+        <v>45.14507946692751</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>54.64185858401163</v>
+        <v>55.1025463407512</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.60618452189513</v>
+        <v>62.72856577955753</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2.824869513826535</v>
+        <v>9.237597026094914</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.34792712865802</v>
+        <v>40.12038883798399</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>48.00140768752189</v>
+        <v>51.8163741444467</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.36561286532062</v>
+        <v>19.9533153120991</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.31517231364045</v>
+        <v>21.25611867766155</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.52447951887333</v>
+        <v>35.74350823150827</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.5250128708663</v>
+        <v>12.3633594631707</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>46.94673884212651</v>
+        <v>43.50694029511163</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.15098575952472</v>
+        <v>48.28030210961235</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.77204969463942</v>
+        <v>15.88814262555397</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.3622170009128</v>
+        <v>52.98495799925936</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>67.71444953843286</v>
+        <v>59.18262211505228</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>41.09870965730599</v>
+        <v>37.29173824105538</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.44335535078363</v>
+        <v>38.80381248520628</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42.6596274903503</v>
+        <v>40.74383734620516</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.57696484609545</v>
+        <v>28.73756908424611</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.320109302198</v>
+        <v>22.49311428444611</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.37118986483401</v>
+        <v>41.14903958126479</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.06305347633875</v>
+        <v>22.03614553387075</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>33.73784147000251</v>
+        <v>31.48173449919947</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.61263141896532</v>
+        <v>36.77980367565112</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.93305279790834</v>
+        <v>35.62741733613043</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.83711592861863</v>
+        <v>44.42977155912239</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>46.52908611278654</v>
+        <v>45.10278840994088</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.24752117949006</v>
+        <v>12.59740144100712</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.33852765635076</v>
+        <v>36.23436259463994</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>47.78277833953845</v>
+        <v>41.53857366595383</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>34.206551836561</v>
+        <v>35.86544475586658</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.60646795649598</v>
+        <v>41.44228610640711</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>50.87000216086832</v>
+        <v>46.18875960958562</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.6814304579726</v>
+        <v>20.38264247146549</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.34721620577783</v>
+        <v>33.27619826481386</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.38659355118986</v>
+        <v>38.74198098644915</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.00741119409948</v>
+        <v>19.70606641238213</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.8611974145767</v>
+        <v>28.62119196098504</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.44664617558617</v>
+        <v>36.91222635147637</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.74695343671463</v>
+        <v>36.34549467189336</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.54624463717808</v>
+        <v>47.89660190001258</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.53372684807506</v>
+        <v>48.79552584555356</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>14.1021663482234</v>
+        <v>13.86952771582508</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.77991508512656</v>
+        <v>43.54722204541618</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>59.75979279647058</v>
+        <v>55.04406422942357</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.45793685894662</v>
+        <v>46.84198736341138</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>57.8647761828309</v>
+        <v>56.87918912948619</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>67.57046282297651</v>
+        <v>64.12344256867343</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.22149994943285</v>
+        <v>19.16271327712027</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.46900418927108</v>
+        <v>40.86269118854393</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.23931245148668</v>
+        <v>52.43558993376413</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>5.596788259175185</v>
+        <v>7.493674470462917</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>19.85622196448143</v>
+        <v>21.1271059058428</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.91876942666507</v>
+        <v>31.99823853763871</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.4561903381195762</v>
+        <v>5.414377431644663</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.95409555667631</v>
+        <v>21.44827263019607</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.99698585456887</v>
+        <v>22.5460547199975</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3.582061871728822</v>
+        <v>7.61102692975895</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.04987537018651</v>
+        <v>40.7848264120976</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.18062684423609</v>
+        <v>47.61854735671189</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.00624721358963</v>
+        <v>42.10470956469629</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.2807961567983</v>
+        <v>42.4058249373787</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.50120818210361</v>
+        <v>44.46963383102459</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-3.616431391261294</v>
+        <v>4.958112097826476</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.58862158200048</v>
+        <v>23.98912043658484</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.81679379452125</v>
+        <v>30.63578290092254</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>9.432791135549806</v>
+        <v>11.00902550710925</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.10567545884233</v>
+        <v>28.20930622464655</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.76125518327903</v>
+        <v>29.56622769554558</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.068204746849187</v>
+        <v>6.17718049221283</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.69896270585644</v>
+        <v>19.8536410482186</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.67129161820364</v>
+        <v>24.17079130779268</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.039233948906446</v>
+        <v>7.686188459499416</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.19780055382144</v>
+        <v>30.81936019558512</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.60926907769428</v>
+        <v>36.22242020082293</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.37161008848174</v>
+        <v>31.10413066616323</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.33994645513009</v>
+        <v>38.70455777586557</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.47478483479284</v>
+        <v>43.51697213801137</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.713938852316886</v>
+        <v>7.467360513196791</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.70116491592723</v>
+        <v>30.67085976024121</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.96090301749249</v>
+        <v>35.54280531701788</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.60399470511085</v>
+        <v>9.124436519044142</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.83263718075814</v>
+        <v>25.90056169352772</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.09373660568399</v>
+        <v>34.65854879240633</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-0.3703822847097484</v>
+        <v>5.810672594566068</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>20.38654254602411</v>
+        <v>19.04135200687822</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.30283270575271</v>
+        <v>25.74004747978381</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.376969413174248</v>
+        <v>7.345695809528276</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.73054906216911</v>
+        <v>30.74166277558395</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.88993532888138</v>
+        <v>47.07221963675295</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.11401900393005</v>
+        <v>40.21987378393494</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.66248140386921</v>
+        <v>56.08241567236544</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>60.85445241004224</v>
+        <v>59.56483145883544</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1.359544005718593</v>
+        <v>7.532571223296326</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.22450059027935</v>
+        <v>37.23035007420798</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.86542686419993</v>
+        <v>47.02009460121013</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.33616744624238</v>
+        <v>14.1377987717598</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.46109257295309</v>
+        <v>16.12027895775324</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.9960812287134</v>
+        <v>17.57426318366596</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3.942465734044454</v>
+        <v>7.995159140060593</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.0647971724713</v>
+        <v>13.68397003670165</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.25814033562948</v>
+        <v>13.59044470347128</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>8.158901180316928</v>
+        <v>13.73466449140159</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.24696345871112</v>
+        <v>20.53100684465487</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.61805483142052</v>
+        <v>22.82258281660344</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.47275707119786</v>
+        <v>19.71030129118575</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.85751607715226</v>
+        <v>22.01520724702562</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.26866411738828</v>
+        <v>24.12177899113708</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.82503178016594</v>
+        <v>13.44958929465219</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>9.661314876513803</v>
+        <v>14.80001955490939</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.6254616424006</v>
+        <v>17.31613526836878</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.990141319939578</v>
+        <v>10.76371185368794</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.59355290596272</v>
+        <v>20.39638137621369</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.10722935404153</v>
+        <v>27.28930118204794</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.5507322988325392</v>
+        <v>4.94063035910202</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>7.731025129997445</v>
+        <v>7.650192402041696</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.34348066001572</v>
+        <v>17.95113174347919</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-2.159439632252283</v>
+        <v>6.422777843258469</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.21679347672524</v>
+        <v>13.88729958196795</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.61953833298096</v>
+        <v>30.63963040221639</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>20.74528812815687</v>
+        <v>19.33425494466172</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.96255855272691</v>
+        <v>28.45531781449749</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.43991711290948</v>
+        <v>37.62428695562875</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.1876689002628744</v>
+        <v>5.31056743475412</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.23715035503976</v>
+        <v>20.33136805700224</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.88203556627315</v>
+        <v>28.80355980375875</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>9.720601974184909</v>
+        <v>14.22043971576826</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.49058526909777</v>
+        <v>25.82187126545618</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.3567488268574</v>
+        <v>31.20216683602344</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1.067704490889859</v>
+        <v>4.476757547303212</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>15.8905450013958</v>
+        <v>14.99617192121382</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.64873163480246</v>
+        <v>22.72471880170144</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2.095729854988736</v>
+        <v>6.86877061773199</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.14511700227256</v>
+        <v>24.29722349533013</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.30392536150134</v>
+        <v>38.68412201507323</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.11220800170125</v>
+        <v>31.1579614895155</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.03156002351308</v>
+        <v>39.85652524954752</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.0946680728733</v>
+        <v>43.27508448809477</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-0.9423092655337086</v>
+        <v>4.276713746000418</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.94341777716608</v>
+        <v>25.11449603830354</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.70185797592941</v>
+        <v>39.96998121680339</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.66701418758378</v>
+        <v>15.70942137515832</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.12239995020418</v>
+        <v>19.62641139497639</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.46219371180047</v>
+        <v>22.33852582129341</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>6.483484029518419</v>
+        <v>7.080217681005522</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.24334424549456</v>
+        <v>21.52127421121273</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.14011281631872</v>
+        <v>21.97542488097152</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.65434529366964</v>
+        <v>15.64203037135792</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>43.41035474777841</v>
+        <v>31.50836815696032</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.16519876088407</v>
+        <v>33.14961633392852</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.71757294305826</v>
+        <v>25.54253472059018</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.45365090644209</v>
+        <v>28.11315298421482</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.2945046508791</v>
+        <v>31.59718749456101</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>4.806704358034505</v>
+        <v>13.22739970009805</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.90669415657439</v>
+        <v>19.77320620272643</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.40205007179492</v>
+        <v>25.45991427507512</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.65738260842033</v>
+        <v>8.366297558450775</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.83404218519554</v>
+        <v>21.63041424508938</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.07779612530549</v>
+        <v>32.60376746106974</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.517487014355485</v>
+        <v>6.921848694177374</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>7.561403684457094</v>
+        <v>13.67944265973327</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.37566354829045</v>
+        <v>29.44540570456669</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>4.088971703532248</v>
+        <v>8.706191209472738</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.73760813377887</v>
+        <v>21.92365616893433</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.15235891133879</v>
+        <v>34.56103676282069</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>14.47377896662769</v>
+        <v>21.25011851340099</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.22022062103568</v>
+        <v>32.21024377252874</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.48276590838901</v>
+        <v>44.6449297640474</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1.291442495943418</v>
+        <v>6.183750211701266</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.69937652826653</v>
+        <v>23.64890863502808</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.87483449006405</v>
+        <v>28.68841699971361</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.3336533515097</v>
+        <v>9.630161208560274</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.30485676598305</v>
+        <v>20.07933040648825</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.26299279923821</v>
+        <v>29.67956965915495</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.633870575970871</v>
+        <v>6.584594316683045</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.56997945635919</v>
+        <v>18.75652250307329</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.40743638096059</v>
+        <v>22.35947611425484</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.570830230153462</v>
+        <v>7.886841998357003</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.32279480927181</v>
+        <v>28.52716855281844</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.45448251452052</v>
+        <v>36.86742604503908</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.86234060672714</v>
+        <v>33.67591075552824</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.67627547946768</v>
+        <v>39.7222731683291</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.78519356805025</v>
+        <v>47.78672396712611</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1.028064562890052</v>
+        <v>4.404346155475498</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.18281131572376</v>
+        <v>20.31703606063654</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.77289181459182</v>
+        <v>36.20930952141865</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.91045849768372</v>
+        <v>17.6445745295719</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.04683050118069</v>
+        <v>22.35050954907039</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.11715838229374</v>
+        <v>32.94012758778499</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>6.222189993798295</v>
+        <v>7.17424526338722</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.15433098565774</v>
+        <v>38.46139602117955</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>40.96238599014649</v>
+        <v>40.98916447613257</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.42543751372973</v>
+        <v>14.91605393886903</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>56.28578116346218</v>
+        <v>57.850679027182</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.66018507255433</v>
+        <v>58.95026255975588</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>44.51503896075559</v>
+        <v>42.04861858598193</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.27632771890658</v>
+        <v>42.39212506609321</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.04703241635553</v>
+        <v>45.29256219909475</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.03936145809006</v>
+        <v>23.39477405506516</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.55715410009952</v>
+        <v>22.4267777659353</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>55.01721497463511</v>
+        <v>57.20954171155861</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.41503727914812</v>
+        <v>22.79168083459087</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.84682603964613</v>
+        <v>31.55095815834354</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.16216599191628</v>
+        <v>33.3380384010928</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.348234103530011</v>
+        <v>8.082008948889307</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.29704695571937</v>
+        <v>24.32210341864455</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.02330740292635</v>
+        <v>29.4028833475858</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.232107982020203</v>
+        <v>12.26279643594739</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.57640041663721</v>
+        <v>39.34855808277813</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.93147493616543</v>
+        <v>44.16190643398617</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.05179691933584</v>
+        <v>37.68304398748994</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.67937994115358</v>
+        <v>46.79455732563542</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.40240096669002</v>
+        <v>46.58075187698043</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>17.45746145118498</v>
+        <v>18.80916311835099</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.55319673679773</v>
+        <v>37.73767634356202</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.34353182095828</v>
+        <v>43.47587804442941</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.65190479345489</v>
+        <v>23.07321129785488</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.38611143573647</v>
+        <v>31.9669961241815</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.56831537085953</v>
+        <v>36.83528594989122</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.718230347595039</v>
+        <v>7.0532058099596</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.61002571593331</v>
+        <v>25.72972433804133</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.56856293605101</v>
+        <v>30.55983602038038</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>8.507432972234268</v>
+        <v>11.27103923204308</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.53193444305656</v>
+        <v>43.32744314694523</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>56.27536670916582</v>
+        <v>55.29121220871467</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.12242516468921</v>
+        <v>45.80507673662348</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>55.38013616822589</v>
+        <v>55.24059559307969</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>64.46675275743752</v>
+        <v>61.65183530774235</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.15161637744608</v>
+        <v>12.8295523965191</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.66362501673295</v>
+        <v>41.34388320175096</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>51.47498512413522</v>
+        <v>50.3616869901979</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.688437395385346</v>
+        <v>7.776079603793423</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.41778425937391</v>
+        <v>19.36079455050212</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.9775267124452</v>
+        <v>29.03190965512817</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.8286903444671694</v>
+        <v>5.722000560292731</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.28658418488555</v>
+        <v>21.80032583208822</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.07560794486752</v>
+        <v>22.05269427415529</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.626494101666118</v>
+        <v>7.826760125971624</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.78480179359218</v>
+        <v>36.00298399571777</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.89051837363303</v>
+        <v>42.07248000565792</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>38.87884225572157</v>
+        <v>40.3080662131688</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.42516816673261</v>
+        <v>44.65203088766614</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.46470036441244</v>
+        <v>42.50590126144585</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-5.728029853196421</v>
+        <v>4.87665163696418</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>22.45750802384298</v>
+        <v>24.39469405934411</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.12958138087826</v>
+        <v>27.62859536540574</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>10.16595901552933</v>
+        <v>11.42113560521173</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.7130143595497</v>
+        <v>29.63132411619566</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.94241352914903</v>
+        <v>29.69601146062393</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.317337210180348</v>
+        <v>6.581241494377423</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.37439509500476</v>
+        <v>19.78163338086931</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.30267102728827</v>
+        <v>26.3335152916682</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.256166023061098</v>
+        <v>9.409074375088384</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.53194175976572</v>
+        <v>34.42255969705067</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.68079248577935</v>
+        <v>43.9659718040882</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.41884817940399</v>
+        <v>34.1099060754603</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>40.49272933329242</v>
+        <v>41.53629671519457</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.2413906172946</v>
+        <v>45.9170025479429</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>3.735137821750097</v>
+        <v>8.126839181947361</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.27424800129101</v>
+        <v>33.13367723902996</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.74908693453593</v>
+        <v>39.86134302423542</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>8.07371801647437</v>
+        <v>10.40250830932355</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.09948992514271</v>
+        <v>28.5016571331279</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.99166984849192</v>
+        <v>36.10574948416364</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.05946989173330763</v>
+        <v>5.352527872912226</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>20.78353165144235</v>
+        <v>18.16245063894689</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.98438745460797</v>
+        <v>23.29787276900562</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1.695353768622859</v>
+        <v>7.206333791298725</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>33.0798014553848</v>
+        <v>31.23074297316035</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.31098791573127</v>
+        <v>45.2265702891026</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.80550818155912</v>
+        <v>40.99402183620987</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.95808968928847</v>
+        <v>51.39536139777215</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>58.9121295441503</v>
+        <v>57.86909687133289</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-0.2203405740108408</v>
+        <v>6.62863363566931</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>33.72806641410678</v>
+        <v>32.66912541198339</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.32279072152333</v>
+        <v>46.41109192188866</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.548</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.844</v>
+        <v>16.327</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.665</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.427</v>
+        <v>16.164</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.18</v>
+        <v>5.043</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.30926048772152</v>
+        <v>5.770550917822895</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.8663074384999</v>
+        <v>7.902586585066903</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.00852016808376</v>
+        <v>15.78730277454784</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.032739991649969</v>
+        <v>-1.356935460608785</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.04464314197313</v>
+        <v>10.33926378749256</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.41367336503607</v>
+        <v>13.49669357433607</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.479354197620193</v>
+        <v>2.269607174158629</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.99898969515586</v>
+        <v>19.77204397703043</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20.86380832685571</v>
+        <v>23.96853983799924</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.3295724279278</v>
+        <v>14.79707310089956</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.56437724861281</v>
+        <v>16.95287141602082</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.02733504804941</v>
+        <v>23.1689557227635</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.721076795255247</v>
+        <v>2.306382826738307</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.0810937579123</v>
+        <v>7.433643620748445</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.22911255220211</v>
+        <v>16.6476430467827</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.06392311939797</v>
+        <v>8.412262883667422</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.3151320268374</v>
+        <v>23.40205561432063</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.70742524763534</v>
+        <v>33.60163603167823</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.037762710287698</v>
+        <v>-1.076857077627935</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.904507779288025</v>
+        <v>8.325247004214445</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.80150053354358</v>
+        <v>20.94542870637471</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.838634705007593</v>
+        <v>0.194665330279495</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.1057862480626</v>
+        <v>23.57407668687589</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.02008919766729</v>
+        <v>38.49516408537534</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.43043981817798</v>
+        <v>24.2924611418428</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.74318899616681</v>
+        <v>38.16971231952732</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.47789365244871</v>
+        <v>56.95681665909658</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.949622406783377</v>
+        <v>-0.8101977931253366</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.0464493218255</v>
+        <v>26.66311879323514</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.29929278149923</v>
+        <v>41.20571831232861</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.90772070080661</v>
+        <v>10.01657782894631</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.97979936210705</v>
+        <v>24.84863141349754</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.20169397123085</v>
+        <v>35.85783404152149</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.152659730150454</v>
+        <v>-0.5847334328624783</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>17.13258850254778</v>
+        <v>12.68202030546184</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.98079720945711</v>
+        <v>23.95068995117494</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.009805027621155</v>
+        <v>0.2044557786659276</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.31524974605358</v>
+        <v>31.25468398520778</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.41977075130092</v>
+        <v>44.34773772691029</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.05121990710582</v>
+        <v>35.1298944729149</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.69605706211228</v>
+        <v>48.11036927039503</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.19974387298904</v>
+        <v>62.18969483067252</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>11.74830918032438</v>
+        <v>3.133115689676451</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.76098413387821</v>
+        <v>33.73102298633378</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43.16131707607507</v>
+        <v>46.44429187654688</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.796552216078634</v>
+        <v>2.53680466325098</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.48955664983174</v>
+        <v>27.06656194046228</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.81118827116252</v>
+        <v>37.18851089093648</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.514452836996913</v>
+        <v>1.386559847713183</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.75542830998593</v>
+        <v>33.08181354610916</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.356704301661</v>
+        <v>38.26446130072202</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.745189574367036</v>
+        <v>5.939595018093133</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>52.13554020092622</v>
+        <v>57.51291641645818</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.30422195752038</v>
+        <v>63.07789606482923</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47.24075401813958</v>
+        <v>49.46097837135841</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.89937862095959</v>
+        <v>50.3220451325033</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>50.6455905522393</v>
+        <v>52.45116551181931</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.395740648192348</v>
+        <v>1.656946965505856</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.53262930527378</v>
+        <v>31.98261578318564</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.98045276456695</v>
+        <v>45.88693360045075</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.068764234320732</v>
+        <v>2.068146685696696</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.81421190050487</v>
+        <v>26.66671078982269</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.13518346184783</v>
+        <v>34.24055524974291</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.304714489656583</v>
+        <v>-3.432539666194728</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17.54019782335064</v>
+        <v>16.21991882192413</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.7753126009499</v>
+        <v>26.4433819026827</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.977689930344653</v>
+        <v>-1.75972709103786</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.71159476827093</v>
+        <v>36.48428749564378</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.85363732428328</v>
+        <v>48.10417729669729</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.09357419904001</v>
+        <v>38.77730031963221</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>51.30043792358882</v>
+        <v>50.03125892731086</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>58.78106759452218</v>
+        <v>59.69764076287262</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.041408736190643</v>
+        <v>-2.801609548500799</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.41144205425996</v>
+        <v>39.29476497015615</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.0154059944489</v>
+        <v>48.12249252351077</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.394531999195689</v>
+        <v>2.768985536140761</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.22040309864288</v>
+        <v>30.51257438508718</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.76581170936199</v>
+        <v>40.85833716500289</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5.232059548047417</v>
+        <v>-3.783612493767833</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.08488534653966</v>
+        <v>25.08604091497449</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>32.11766132019196</v>
+        <v>33.72592003719237</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.628915912083841</v>
+        <v>0.9874317580779177</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.45324576381105</v>
+        <v>49.45898264302227</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>62.31028633181015</v>
+        <v>68.3754062508747</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.37832328312781</v>
+        <v>50.01671935431276</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.00448171162461</v>
+        <v>64.49317379013559</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>69.17634578782391</v>
+        <v>74.69848322624384</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.272613078088646</v>
+        <v>-4.111544008082742</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.98544525552192</v>
+        <v>48.28302269977104</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.18442052010086</v>
+        <v>59.50691338229225</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.23493147298079</v>
+        <v>14.60277593924848</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.61510670160833</v>
+        <v>26.02137756519525</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.52496543070543</v>
+        <v>35.37851001446104</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.782166132887184</v>
+        <v>2.198926781535992</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.13679979244031</v>
+        <v>25.26672004979782</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.48234435316796</v>
+        <v>28.71569205700556</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>8.794273696283454</v>
+        <v>7.055389072351108</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50.88435030287538</v>
+        <v>50.02592451105951</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.99156294106636</v>
+        <v>51.8280405329055</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.71280137134007</v>
+        <v>36.77108437423796</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.24028871104566</v>
+        <v>45.01327559082431</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.43985579271704</v>
+        <v>44.39696264214227</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.21240119060692</v>
+        <v>11.3369437546345</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.87147857915544</v>
+        <v>24.6879066760062</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.23834661593867</v>
+        <v>31.21745834585641</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.99115218334799</v>
+        <v>14.27699458945606</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.7719677476794</v>
+        <v>32.93928489020372</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.15373456651053</v>
+        <v>38.4430586356213</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.686629656520683</v>
+        <v>1.565398282374183</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.75452270398462</v>
+        <v>21.51385758089595</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.60299173543543</v>
+        <v>28.46398248768729</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.954646125738936</v>
+        <v>3.179330554982879</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.46400747348342</v>
+        <v>41.69859466316594</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.25942646039557</v>
+        <v>52.06194341450045</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.763090662767</v>
+        <v>43.03680180560245</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.47548023691843</v>
+        <v>54.37189456788211</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.27060835815359</v>
+        <v>60.05205347717521</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.63927672559756</v>
+        <v>14.2246641559845</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.10327503024412</v>
+        <v>40.17260018428554</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.13987737260451</v>
+        <v>46.86354898290691</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.50521610953919</v>
+        <v>18.03202801810117</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.10504511367319</v>
+        <v>33.97919319110788</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.86340399659299</v>
+        <v>44.51304079382133</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6.154979188979535</v>
+        <v>0.2303830725233489</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.06867841075049</v>
+        <v>25.92667939992124</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.84423353477525</v>
+        <v>32.61993010134215</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.157729333428204</v>
+        <v>4.265834289263779</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.28719185142066</v>
+        <v>48.38898753410759</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.80218188211845</v>
+        <v>66.5667913920328</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.83448600288723</v>
+        <v>53.50649466473382</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>61.28761932122958</v>
+        <v>65.61958712554903</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.79215357426901</v>
+        <v>74.6193193960604</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.14338325827262</v>
+        <v>15.46265467406741</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.21179663378064</v>
+        <v>48.63847511458253</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.66445842790196</v>
+        <v>59.44923039469167</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.48294560580732</v>
+        <v>7.201553167150555</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.00715375817939</v>
+        <v>9.051833788644576</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.64576360472857</v>
+        <v>16.73517461317178</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6.714749901624128</v>
+        <v>-0.7271560291412236</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.14321332795113</v>
+        <v>9.248824435401833</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.74851823709104</v>
+        <v>10.56938111694381</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.57757557181551</v>
+        <v>3.926588430242386</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.71549012041499</v>
+        <v>20.39021381159814</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.69540522370284</v>
+        <v>24.3806384076521</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.00489074196835</v>
+        <v>18.91191546267065</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.34808867080435</v>
+        <v>18.83573210747558</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.75895091201988</v>
+        <v>25.72855580953304</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>53.45657363905745</v>
+        <v>45.55251234925592</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>56.27272970236603</v>
+        <v>44.35796380756137</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.0830974964604</v>
+        <v>50.00519716583118</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.65664545184912</v>
+        <v>6.625737995061964</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.2035434521902</v>
+        <v>23.18033442237416</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.91031925803684</v>
+        <v>32.90514868385132</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.663869086666956</v>
+        <v>-4.068592173102473</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.142733477718458</v>
+        <v>6.984876625408397</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.73828939036241</v>
+        <v>16.41705525705408</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5.254417585496977</v>
+        <v>-0.9353419273620034</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.87748861207547</v>
+        <v>19.95477558958701</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.6274341680064</v>
+        <v>36.73541105838002</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.76282245167669</v>
+        <v>16.96215440866642</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.99631137708282</v>
+        <v>36.01225946524885</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.54251717813391</v>
+        <v>49.49712323793137</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.393273774011718</v>
+        <v>-1.413406107480775</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.06182217438162</v>
+        <v>25.69886441686867</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.59239346479074</v>
+        <v>33.47458503417746</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.97300055989857</v>
+        <v>13.75852884404026</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.27219225894506</v>
+        <v>25.15017869248478</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.38056727680283</v>
+        <v>34.91796331111655</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.070994841522207</v>
+        <v>-2.710322556878573</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.82107413214092</v>
+        <v>10.9343051458695</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.15380712212522</v>
+        <v>17.88707489248593</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>8.825047381538035</v>
+        <v>2.294863711370173</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.1277981528085</v>
+        <v>27.87633412628308</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.97052225079065</v>
+        <v>44.61646520996827</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.49393730526416</v>
+        <v>28.53146203138991</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.04951046146266</v>
+        <v>41.07485850395074</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.97475038946335</v>
+        <v>55.5540466838778</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.89884155879695</v>
+        <v>8.177800803828458</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>37.52350279208069</v>
+        <v>34.41156570223364</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.75610833005246</v>
+        <v>44.01605449314787</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.730180039877133</v>
+        <v>5.518608919078183</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.738581546124</v>
+        <v>19.80561715104747</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.55107523278415</v>
+        <v>28.28875257465833</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.770010667935303</v>
+        <v>0.3733734865594975</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.79116829344244</v>
+        <v>25.04055008995253</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.24741016838405</v>
+        <v>29.15974064114</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.97699908983669</v>
+        <v>8.467997969011023</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>50.29910785837255</v>
+        <v>51.15697086449975</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.36701566881055</v>
+        <v>54.345219377718</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.89865419358013</v>
+        <v>32.65809868053496</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.50931043110779</v>
+        <v>36.60529596586325</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.2113744943818</v>
+        <v>39.78578093108288</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.16888024329284</v>
+        <v>9.064991580613</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>14.63841006634222</v>
+        <v>12.00832850745904</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.39659357223606</v>
+        <v>16.8492926772533</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.73430553558201</v>
+        <v>20.247724821888</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.72187347481561</v>
+        <v>37.41530483973529</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.48106554557212</v>
+        <v>39.63262978814441</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.460561622554874</v>
+        <v>4.83914260995256</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.65394953797015</v>
+        <v>24.2689719157294</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.32182181097764</v>
+        <v>31.6846048247463</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.97778159177966</v>
+        <v>8.686406221629982</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.74442929962461</v>
+        <v>44.76258315580557</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>48.34140986259187</v>
+        <v>52.29791046783824</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.08429879293267</v>
+        <v>44.56147573623831</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>57.32995731303589</v>
+        <v>57.47774411700262</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.12134072800072</v>
+        <v>66.22607535647276</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.5035280156186</v>
+        <v>23.39237305351867</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>45.77002635205066</v>
+        <v>42.63639359887088</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.42309191822487</v>
+        <v>49.97583755096196</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.10355769174971</v>
+        <v>20.37767489201453</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.89292570319869</v>
+        <v>35.04973753041929</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.07620992674981</v>
+        <v>42.04580199709994</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>6.424245217936324</v>
+        <v>2.327640076768297</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.90132494952771</v>
+        <v>21.36518379403804</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.53958884974393</v>
+        <v>29.68762537976091</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>11.1815542279701</v>
+        <v>7.147712598100238</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.28099932412042</v>
+        <v>46.08728266074547</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.27332904012806</v>
+        <v>60.33459110179285</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.5103048619503</v>
+        <v>46.41328263634826</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>58.57540058660292</v>
+        <v>60.03114340060275</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>63.88155103009336</v>
+        <v>69.23229563308311</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.09149105823321</v>
+        <v>20.4623443764204</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.09096476990729</v>
+        <v>45.99916805543369</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>56.68288698577095</v>
+        <v>58.4464393592337</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.364829218382681</v>
+        <v>1.570179971893655</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.95390847360702</v>
+        <v>16.37958367290427</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.04207478187799</v>
+        <v>27.82112959427172</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.685505145728097</v>
+        <v>3.883720246822502</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>32.9313111901203</v>
+        <v>30.59737834436705</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.71759408291911</v>
+        <v>34.77275940404729</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.60991876586568</v>
+        <v>9.906798870032498</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>55.89696465002576</v>
+        <v>58.63237457926628</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.44615189527661</v>
+        <v>60.40468415209344</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.90379495430519</v>
+        <v>38.15002055136425</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.05764694310174</v>
+        <v>40.95305017771506</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>47.57958650757365</v>
+        <v>41.16129976083325</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>9.777495833470542</v>
+        <v>8.395891335599845</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.11098529988257</v>
+        <v>5.434401998814373</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13.9300047072057</v>
+        <v>8.481355058950001</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.20610741008965</v>
+        <v>14.1549328995366</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.36497958907759</v>
+        <v>38.56947881682426</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.08047539710248</v>
+        <v>40.94310433940899</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.791359699374649</v>
+        <v>2.805654680605294</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.5387372760673</v>
+        <v>30.91804106778907</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.07824337547423</v>
+        <v>36.35178357416319</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>7.048126378277942</v>
+        <v>4.892334686921554</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>52.44885383936471</v>
+        <v>53.95276339488727</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>54.81143834659207</v>
+        <v>57.19204331572514</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>42.3972387754531</v>
+        <v>47.5709455944051</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>56.28898479458291</v>
+        <v>58.93147930755526</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>62.43901308515142</v>
+        <v>65.42358919172219</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.79515918971246</v>
+        <v>14.38787567183382</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.54069132162356</v>
+        <v>53.12009121208972</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>55.09394631577636</v>
+        <v>58.25159997795103</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.0617157200793</v>
+        <v>18.14714320526223</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.78419601585068</v>
+        <v>39.4349961831905</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>41.81332932375776</v>
+        <v>46.39698119278263</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>6.894853121431748</v>
+        <v>0.6992021453461597</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.56251766421132</v>
+        <v>28.6698888098435</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.05403591078892</v>
+        <v>33.58000730291767</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.007787129900802</v>
+        <v>7.130167241514659</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>50.33365416925603</v>
+        <v>54.34934531823925</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>60.45796871672905</v>
+        <v>66.34360771168798</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>51.57696023297739</v>
+        <v>53.21700653726302</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>64.65269316576462</v>
+        <v>67.5294986528157</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>69.3353071301653</v>
+        <v>73.67254258307092</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.78834819840965</v>
+        <v>10.43213809504035</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>52.15454395923015</v>
+        <v>54.83827406573142</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>58.08073221970039</v>
+        <v>62.87334033764046</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.75611123394703</v>
+        <v>5.803615987382504</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.97891544011216</v>
+        <v>3.221434982154616</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.71951392872971</v>
+        <v>11.03443387751698</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>6.233539210820954</v>
+        <v>-0.8140848921511363</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.8255771861231</v>
+        <v>6.296193929299353</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>10.31228258106686</v>
+        <v>9.343154047225843</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.225629583072308</v>
+        <v>2.194437858368307</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.76114061192181</v>
+        <v>17.39095147757843</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.23088731362055</v>
+        <v>20.08434531079703</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.24188392168956</v>
+        <v>15.86766595050034</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.09343110613776</v>
+        <v>21.05032666241289</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.51011263628082</v>
+        <v>22.84968375558866</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>8.627472801039364</v>
+        <v>5.00163456066813</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.54442813788831</v>
+        <v>1.938638358570302</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.96726451303326</v>
+        <v>8.984314050670832</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.44767459580294</v>
+        <v>6.269103811626072</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.74619005133937</v>
+        <v>19.95555832968549</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.4849062777249</v>
+        <v>29.12959910498729</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.00778134885778</v>
+        <v>-1.083266346650532</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.65016830812584</v>
+        <v>11.5018661197116</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.03654466434583</v>
+        <v>21.82419913624534</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.712949434622985</v>
+        <v>1.117298784055823</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.92031950367605</v>
+        <v>23.96340418728936</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.13118057412148</v>
+        <v>37.02304298824397</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.34116723902198</v>
+        <v>26.55814799027357</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.19084306710433</v>
+        <v>38.16784397403833</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.80486262747969</v>
+        <v>49.09435771812056</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10.03281048885366</v>
+        <v>3.731023230022625</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.83399212462842</v>
+        <v>26.60915201784274</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.96986136937836</v>
+        <v>35.91802484714702</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>10.12438752806431</v>
+        <v>7.764231111952709</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.24086293743586</v>
+        <v>22.02875284673716</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.14677900883365</v>
+        <v>32.99265513869967</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>4.725246411234071</v>
+        <v>-1.815734818939074</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.25865888245581</v>
+        <v>15.99686234157505</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.6851899252018</v>
+        <v>26.09999968318277</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>7.765358729277477</v>
+        <v>2.259222191723776</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.63264009025504</v>
+        <v>32.94447490716404</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.74791525705717</v>
+        <v>47.03859609929508</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.18364782593201</v>
+        <v>41.93163078992933</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.26708470357588</v>
+        <v>54.93944260861198</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.92352195839371</v>
+        <v>61.81432820855574</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>9.26420393864537</v>
+        <v>8.356020539764248</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.09056900896375</v>
+        <v>37.83487661237192</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.03499353956413</v>
+        <v>50.81389613479264</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5.724807168147446</v>
+        <v>1.008115865616091</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.03044225221075</v>
+        <v>2.914616448364718</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>14.2370253212188</v>
+        <v>8.975921123613329</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5.684426446509068</v>
+        <v>-2.087316115575408</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.984863040834817</v>
+        <v>7.258027323996828</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.75386962703778</v>
+        <v>7.75876755248254</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>5.266434588319893</v>
+        <v>-0.3842415593135833</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.93469600536424</v>
+        <v>15.16170256791913</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.90629698121823</v>
+        <v>14.99731872756906</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.74662358213356</v>
+        <v>10.08359764820795</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.44200390048011</v>
+        <v>11.33670943087368</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.54716964360236</v>
+        <v>14.49334162075589</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.32082746415081</v>
+        <v>4.083705864877643</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.40971370600432</v>
+        <v>5.420426507028598</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>15.45707416509689</v>
+        <v>9.22372904519829</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.632625473648272</v>
+        <v>1.093282533366644</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>9.308141557900012</v>
+        <v>5.294578180442116</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.03988224500552</v>
+        <v>15.3336803226361</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6.835335345046357</v>
+        <v>-0.3459681113316826</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>5.132788302334092</v>
+        <v>-0.3537663276426564</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.39056050828669</v>
+        <v>9.576657332106256</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>7.390210235197038</v>
+        <v>-2.343959861603174</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.773441728032513</v>
+        <v>4.182038381156062</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.38424303323492</v>
+        <v>20.82347136130347</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.02651555280638</v>
+        <v>0.6925343434454838</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.61025503911146</v>
+        <v>19.51316863798055</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.03033049037839</v>
+        <v>38.42792409021637</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.99050504056677</v>
+        <v>-3.260232568439037</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.65407128625016</v>
+        <v>4.20282561682837</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.47857208755508</v>
+        <v>7.703743992691674</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.899258887774351</v>
+        <v>-1.971883180520685</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>10.64216963431475</v>
+        <v>2.40528832192819</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.42647814335751</v>
+        <v>21.27056340146474</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.337144963837197</v>
+        <v>-2.650854257736135</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>5.755757886759909</v>
+        <v>1.041418545363904</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.53568365225453</v>
+        <v>14.73845239203891</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>6.734510762454342</v>
+        <v>-2.953653127142189</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>9.59005571463025</v>
+        <v>8.305203911445131</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.88336315521094</v>
+        <v>39.00039789049694</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>15.15755120362347</v>
+        <v>8.340746882199054</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.27615418918941</v>
+        <v>39.1633846083736</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>51.69674299745054</v>
+        <v>54.20564802556967</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>4.117975200789598</v>
+        <v>-8.216700592539738</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.63903614451083</v>
+        <v>9.134955123235351</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.76082237595189</v>
+        <v>17.96375931599886</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.36561607543831</v>
+        <v>5.440630208896881</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.39440267589256</v>
+        <v>15.35740842040767</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.00160781281261</v>
+        <v>33.43681289321329</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.82508477757915</v>
+        <v>3.942776384247157</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.67364277215779</v>
+        <v>35.30606816404917</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.60989941000554</v>
+        <v>41.73967976607272</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.81412879290804</v>
+        <v>7.502283860124962</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.97844768635817</v>
+        <v>58.24199045464542</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>59.02478459540698</v>
+        <v>65.03370586824946</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.06592248941604</v>
+        <v>42.25306024375102</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>43.58266183982271</v>
+        <v>46.16344899585235</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.12760754064928</v>
+        <v>47.13437875680071</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.09864448154365</v>
+        <v>27.43985659067118</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.37616286033921</v>
+        <v>31.85998516434474</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>60.46049898117211</v>
+        <v>59.31974622440903</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.06549505885623</v>
+        <v>6.229778224726378</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.82239032281349</v>
+        <v>24.73841641669835</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.77308588920812</v>
+        <v>28.95103094480255</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.042846294630927</v>
+        <v>-0.9393715337180772</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.79260310601946</v>
+        <v>21.04732481691652</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.72239126108084</v>
+        <v>24.10028906258965</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.920991546753445</v>
+        <v>0.7375447727909403</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.62350605500385</v>
+        <v>38.25238094852219</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>42.51304379534069</v>
+        <v>43.98331100445014</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.9694532084673</v>
+        <v>36.95069215792626</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>44.86477663701282</v>
+        <v>45.63214394719361</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.188881653698</v>
+        <v>50.92590863506704</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.8727257511904</v>
+        <v>15.77291901563826</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.28881015596656</v>
+        <v>38.99763451131974</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>42.27963375341749</v>
+        <v>44.04096567789709</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>14.61786927474231</v>
+        <v>11.08546392606676</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.58945543238566</v>
+        <v>25.59153900582077</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>38.62159321737559</v>
+        <v>37.03477141956139</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6.183847891021866</v>
+        <v>1.814387984222577</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.71038585395586</v>
+        <v>27.40641245473246</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.56141238583234</v>
+        <v>32.55271385047837</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.1841849786883</v>
+        <v>5.639912939301151</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>46.27556008133941</v>
+        <v>46.87021762265817</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>60.30487638335753</v>
+        <v>63.60156779392925</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>46.16674146606085</v>
+        <v>49.81388183681438</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>58.0930622273542</v>
+        <v>59.55807830160354</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>62.18940713457122</v>
+        <v>68.19546079195997</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.98536186288961</v>
+        <v>15.3130851115967</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.24804545630128</v>
+        <v>46.25544108003768</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>58.33177909241224</v>
+        <v>61.74970391506942</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.81313569475124</v>
+        <v>5.045118643528841</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.84042721374671</v>
+        <v>6.057578285050798</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.3257789719264</v>
+        <v>11.83736064971907</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.485978968199625</v>
+        <v>-1.434042627584091</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.510045790363851</v>
+        <v>0.8539080081853285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.8861793633423</v>
+        <v>3.694898056521886</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.18991496907907</v>
+        <v>2.071832745235834</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.11564136174387</v>
+        <v>12.40123518969986</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.05533884651346</v>
+        <v>16.69723409294414</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.06449392925271</v>
+        <v>11.85534277219514</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>17.14112726160635</v>
+        <v>14.00403119569593</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.11828228274059</v>
+        <v>18.20059322662407</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>9.595052361717833</v>
+        <v>1.673342273307714</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.475293628563765</v>
+        <v>-1.256738208824441</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.13612221603085</v>
+        <v>4.393164690055833</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.567477675237892</v>
+        <v>0.6014619915063157</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.0479416219563</v>
+        <v>11.04298387440431</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.08647695860592</v>
+        <v>21.54645472509089</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>4.771473867045042</v>
+        <v>-5.457501789099034</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.606042684819908</v>
+        <v>-0.4697596474530421</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.4321611965476</v>
+        <v>12.63781160988579</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>6.78715418076365</v>
+        <v>-4.547712578268737</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.542348430296645</v>
+        <v>9.380533492050885</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.12644876181932</v>
+        <v>24.7853836908844</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>11.80681900853315</v>
+        <v>6.479567543142164</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.54074735699797</v>
+        <v>18.36129448740102</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.56917609696237</v>
+        <v>30.92409757018489</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.47607774615966</v>
+        <v>-6.45277658368493</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.35718373919358</v>
+        <v>10.62918524751646</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.35206644548294</v>
+        <v>21.02252826122766</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.31772909632859</v>
+        <v>5.544522987176933</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.58798753262448</v>
+        <v>14.51692611520045</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.08583431451624</v>
+        <v>27.84312153320408</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>5.54821239671713</v>
+        <v>-3.486627971125397</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>9.733512532122546</v>
+        <v>3.479098001248257</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.58912062200935</v>
+        <v>16.01002611426979</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.723712309250679</v>
+        <v>1.063057334426439</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>17.48818180843171</v>
+        <v>16.38091551794706</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.44291691131986</v>
+        <v>34.64194912448887</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.42524408612593</v>
+        <v>18.08860182644305</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.71379573467214</v>
+        <v>31.34740643375517</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.51016876716247</v>
+        <v>45.78322681790304</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.05142828187468</v>
+        <v>4.985768429495991</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.34383965557429</v>
+        <v>22.30711028834201</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.26950658627557</v>
+        <v>34.28857442887151</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.848351372452367</v>
+        <v>-0.3582068729956873</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.908848221565254</v>
+        <v>-2.056631807456906</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.11985061234711</v>
+        <v>5.319966364096313</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.647231839264517</v>
+        <v>-2.826793000118847</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.638386901577562</v>
+        <v>-0.100849693765209</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>6.462217417256667</v>
+        <v>2.052291960305567</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.85432945130556</v>
+        <v>-1.555947441959255</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.33700866971378</v>
+        <v>10.22588954568599</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.69662274285084</v>
+        <v>11.31735992585477</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.349216175607769</v>
+        <v>5.46530272441267</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8.094136749491291</v>
+        <v>5.643464464312331</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.86556042251439</v>
+        <v>9.700324310282609</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.699581929948714</v>
+        <v>-1.91829669725179</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>4.771406190712327</v>
+        <v>-6.827924938254792</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.533553138235028</v>
+        <v>-6.214688922741225</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>17.95506334133647</v>
+        <v>12.74240480946715</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.16592558750621</v>
+        <v>28.22087670467342</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.17537173178871</v>
+        <v>32.32245040297768</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.928649700139861</v>
+        <v>3.731543659801126</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.40725770448318</v>
+        <v>19.4258156706987</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.62272974222724</v>
+        <v>26.051729057586</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.02493063912082</v>
+        <v>6.560502970243915</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.46939083117408</v>
+        <v>39.05601277010513</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.31112581044728</v>
+        <v>45.8926471653119</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.02659152251871</v>
+        <v>36.54999887951666</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.59511784691797</v>
+        <v>44.91051159727772</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.79749453442227</v>
+        <v>51.82304434752797</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.76122373230319</v>
+        <v>11.35689625447342</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.39259138151989</v>
+        <v>37.01066378232049</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>43.29907759585537</v>
+        <v>42.87426592113134</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.66532782118547</v>
+        <v>15.10021548712123</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.94809038002393</v>
+        <v>30.33485915401073</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.50116363509076</v>
+        <v>41.17579040009092</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>5.50555585989472</v>
+        <v>0.2430178317783138</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.33586824702698</v>
+        <v>22.84433814214943</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.374023075242</v>
+        <v>31.23088233074894</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>9.564909925060832</v>
+        <v>4.335773184711616</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.67424021080515</v>
+        <v>43.23911680911004</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>54.9382743039329</v>
+        <v>58.83041229818301</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.26329098989862</v>
+        <v>47.40720108752188</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.37111270399915</v>
+        <v>57.2050723307478</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>61.38467065295136</v>
+        <v>66.97010920983679</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>11.60554317791453</v>
+        <v>8.139219956195175</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.65394229054332</v>
+        <v>44.69342585405775</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.81171038070619</v>
+        <v>52.64738375586975</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.03862365506292</v>
+        <v>10.02426962187043</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.08121729475507</v>
+        <v>10.31304170901098</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.03267259813641</v>
+        <v>15.01952406964134</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.689618127243165</v>
+        <v>2.531442418284183</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.11463783444719</v>
+        <v>7.863371244247947</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.84323621378576</v>
+        <v>10.18882132736121</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.90817687507663</v>
+        <v>10.22813882788259</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.45413802642531</v>
+        <v>22.57002554662472</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.64327498482463</v>
+        <v>21.71639392125127</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.32600509240969</v>
+        <v>18.93424062699768</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.31211691040759</v>
+        <v>21.43306715501033</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.25608525459865</v>
+        <v>24.52512164726062</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.6197395090719</v>
+        <v>8.571776967796557</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>12.74224112973758</v>
+        <v>7.583179606729274</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>15.99663648057913</v>
+        <v>14.57880691161576</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.209781932283335</v>
+        <v>1.316718896293565</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.23009377198819</v>
+        <v>6.474164527264138</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.44462109698958</v>
+        <v>14.99715969561614</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>5.539855532352309</v>
+        <v>-3.243005204967762</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>5.649273020957608</v>
+        <v>-2.739839807591714</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.36518633324734</v>
+        <v>8.344412997834583</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>5.177997485369684</v>
+        <v>-3.777897836304209</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>8.268081635016799</v>
+        <v>3.871375453795935</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>19.81622359153889</v>
+        <v>18.33379193356642</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.96550808095554</v>
+        <v>6.139987921844728</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>17.02854924141165</v>
+        <v>13.74060197704601</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.62449769534088</v>
+        <v>26.92332657732454</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>5.44254704635604</v>
+        <v>-2.513004757625424</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.305804410315353</v>
+        <v>6.726825016112985</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>15.13841942789224</v>
+        <v>15.49771121313529</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.47582178621632</v>
+        <v>12.8533997971619</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.81379183430323</v>
+        <v>21.08930839659157</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.48264023099046</v>
+        <v>28.70223658443294</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.297417092942467</v>
+        <v>-1.865109977028652</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.62482417631069</v>
+        <v>8.678216409850403</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.92346461826067</v>
+        <v>16.17699282423024</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>9.04695960093235</v>
+        <v>4.477522992881724</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.10624705670271</v>
+        <v>26.03506939509113</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.8024179168421</v>
+        <v>40.24665012283432</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.4012262125413</v>
+        <v>24.93438582426025</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.14189809538677</v>
+        <v>34.03349209569869</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.44512424919056</v>
+        <v>46.97930111686453</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.037386840825235</v>
+        <v>9.049877320518977</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.1996737806054</v>
+        <v>24.25923208193519</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.2250429227156</v>
+        <v>30.8968449310496</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.892166303838675</v>
+        <v>3.909212585594453</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.802754183460159</v>
+        <v>0.9981694078873566</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.238555182287158</v>
+        <v>4.244919488319312</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.059494154913491</v>
+        <v>0.07495915269155162</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.783757782339336</v>
+        <v>-1.618589774774918</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>8.148474702181172</v>
+        <v>-0.0602497474021817</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.56522975447586</v>
+        <v>6.770008758872379</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.59843328655372</v>
+        <v>7.824784351866304</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.60615815025978</v>
+        <v>7.130272848703093</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.35596139905488</v>
+        <v>4.287326851567908</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.228341726770978</v>
+        <v>2.493015103441333</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.30223344467499</v>
+        <v>4.794179390879361</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.870246286010598</v>
+        <v>3.824236506073117</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.758955778604008</v>
+        <v>-1.134405350292823</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>8.148391227220738</v>
+        <v>2.562200059034076</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.033232236697284</v>
+        <v>0.6931324610412233</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.686087187138156</v>
+        <v>1.779298917338721</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.417850317704083</v>
+        <v>3.933909805625703</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.506388792964962</v>
+        <v>-1.309084594742792</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>4.952853729599074</v>
+        <v>-4.907461793711963</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.097156428406254</v>
+        <v>-0.1885769628897727</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.536144046004907</v>
+        <v>-1.273610280870248</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>6.064334042867358</v>
+        <v>-1.772398984896981</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.890744115435709</v>
+        <v>2.431536291653131</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>5.714866995752885</v>
+        <v>-2.062688388425371</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>5.902958812992633</v>
+        <v>2.513689317761337</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.547579810543581</v>
+        <v>4.847161086778044</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.106706707079027</v>
+        <v>-3.642308212135617</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>5.17498026850059</v>
+        <v>-2.257117243616914</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.246857712603315</v>
+        <v>-0.1358997077901236</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.57653547215025</v>
+        <v>14.24572162847604</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.71086527759178</v>
+        <v>16.92552945829846</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.52384699443108</v>
+        <v>21.62409831177077</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>7.094738628501052</v>
+        <v>1.09813455440419</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>12.61691585345781</v>
+        <v>5.48848673357606</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.30254457640301</v>
+        <v>10.48445342718522</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.28395679326206</v>
+        <v>7.877313174699717</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>23.24246537408216</v>
+        <v>18.58649369473316</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.8721837308338</v>
+        <v>27.18622032475721</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.5988694780338</v>
+        <v>18.36615159026075</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.24255935864615</v>
+        <v>23.32968159908258</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.14355499412279</v>
+        <v>30.71272442828077</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.48503253879875</v>
+        <v>11.67033825687773</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.02378678973298</v>
+        <v>15.84843729279887</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.05127398279652</v>
+        <v>22.07311522124227</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>17.55715796739756</v>
+        <v>15.36939592728226</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.16352349707085</v>
+        <v>23.82634983913109</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.287337252204</v>
+        <v>32.92759128393293</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>6.871780931895</v>
+        <v>1.804325693366732</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.67974708706629</v>
+        <v>16.6432778792681</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.64527334615991</v>
+        <v>21.99821052614753</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.50410677474597</v>
+        <v>10.48630314686713</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.85189718825049</v>
+        <v>36.76474242352272</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.13454091846874</v>
+        <v>41.35604946316057</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.85926802887266</v>
+        <v>30.73531619160068</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.59044062051088</v>
+        <v>34.43279312930025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>40.04689733473995</v>
+        <v>38.15072844657944</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.01513035631227</v>
+        <v>20.80665021383332</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.55459178050906</v>
+        <v>33.83974979456148</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.30346032515905</v>
+        <v>41.43750367245515</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.79610146475037</v>
+        <v>10.91392950370776</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.67047431737989</v>
+        <v>19.01892423738147</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.0256955370463</v>
+        <v>25.56130428221297</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>6.90952096171004</v>
+        <v>-2.178470538019472</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.971866999335674</v>
+        <v>0.7752218941103273</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.92612485870604</v>
+        <v>8.206755584165409</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.75514445222423</v>
+        <v>2.08099013464043</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.86625524149587</v>
+        <v>14.98683854933005</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.7108781072409</v>
+        <v>23.55337451812953</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.084837599161</v>
+        <v>14.71902505056498</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.21577469191866</v>
+        <v>21.74067125386677</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.07076684467193</v>
+        <v>30.40189062080101</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.86011334934552</v>
+        <v>6.771001222479832</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.57070575627</v>
+        <v>16.46283904846128</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.10866767349243</v>
+        <v>22.78393278126239</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>20.54478941539666</v>
+        <v>16.1648548908675</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.43581844600623</v>
+        <v>24.93095937479732</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.34957064261236</v>
+        <v>37.43659379518834</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.049171662670481</v>
+        <v>0.7839920883476594</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.52332815569495</v>
+        <v>10.62761315531447</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>19.10014167201504</v>
+        <v>17.92235125315673</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>11.87264144213005</v>
+        <v>5.275313593993896</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.98757064851249</v>
+        <v>29.92031004351179</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.43171374703059</v>
+        <v>42.76839023217762</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>38.17496687697201</v>
+        <v>34.87654897026183</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.15833593802647</v>
+        <v>44.98759815445956</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>48.24542843207475</v>
+        <v>51.31468632308083</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.75213244315699</v>
+        <v>14.13512145274805</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.22703590295508</v>
+        <v>31.84856744381333</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.18622059712641</v>
+        <v>40.78980239396006</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.1654459947197</v>
+        <v>12.50451086149653</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.23000132606151</v>
+        <v>29.32643631223509</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.63757012639768</v>
+        <v>37.97568950036518</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.971096880523891</v>
+        <v>5.955567255953994</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.97175936261824</v>
+        <v>28.93203946740434</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.65619069845734</v>
+        <v>33.46302526083859</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.07501504987581</v>
+        <v>12.21410180551109</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>49.57528924806958</v>
+        <v>51.78030563673792</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.85060519394126</v>
+        <v>57.19702450568499</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>45.12304702995229</v>
+        <v>47.0077660008137</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.29901764966402</v>
+        <v>47.91744136573368</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>53.18845652214108</v>
+        <v>55.37583692720768</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.15158221915308</v>
+        <v>10.46328011406911</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.71542394153367</v>
+        <v>32.59537985729796</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.13885385714131</v>
+        <v>43.40234853544975</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.09912352771168</v>
+        <v>8.297358359526772</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.83586970560961</v>
+        <v>24.89480571208654</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.10994029566879</v>
+        <v>31.93891659773816</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.660907148579547</v>
+        <v>1.077296166787804</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.35714663247769</v>
+        <v>14.36360399995269</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.40022341813259</v>
+        <v>23.03587036502085</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.805349608196316</v>
+        <v>1.300973647910943</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.13152466578749</v>
+        <v>29.15619717195281</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.63867222822157</v>
+        <v>40.53728015632753</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.6111415377046</v>
+        <v>32.68175459746644</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.13120050308841</v>
+        <v>39.99447914260057</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.55421986802197</v>
+        <v>48.26808790913167</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>8.502613336063526</v>
+        <v>3.592056868607401</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.44082288383121</v>
+        <v>29.51749350344508</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.49317522027738</v>
+        <v>38.98134053236267</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.555761305381356</v>
+        <v>7.658320706286124</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.45628609034329</v>
+        <v>25.34784020514003</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>34.96078687892758</v>
+        <v>36.84844840972261</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>5.035249120522906</v>
+        <v>-1.836434265465996</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.68002104809422</v>
+        <v>18.52930155085487</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.23094416045893</v>
+        <v>27.98855116169213</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.947487371675582</v>
+        <v>-0.01103929625031341</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.8710499004269</v>
+        <v>33.99465007450523</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.23753830725404</v>
+        <v>53.78410485477613</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>37.88543682300849</v>
+        <v>40.00709262365814</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.73436429745215</v>
+        <v>51.20263049117933</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>63.51295586189907</v>
+        <v>65.97241063745207</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>5.707271238152011</v>
+        <v>-0.07278030318888185</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.21540520029788</v>
+        <v>36.66857872886445</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>50.2982870130054</v>
+        <v>49.67530069086938</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>11.9575849175697</v>
+        <v>6.458062076930409</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.20897784373186</v>
+        <v>19.66840800635908</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.06879707011738</v>
+        <v>32.99288226789677</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6.775800752469216</v>
+        <v>4.266930975385741</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.60116083716801</v>
+        <v>34.84922647734795</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.04075340058588</v>
+        <v>39.79598066753556</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.45693155442583</v>
+        <v>9.420129591446212</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>55.52366778598437</v>
+        <v>52.53551800088974</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.77673606364984</v>
+        <v>59.60681322785442</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.74523416842388</v>
+        <v>38.46561022297706</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.30424796399407</v>
+        <v>39.2546692253873</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.38231443963549</v>
+        <v>41.82523443520644</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>14.22723721495274</v>
+        <v>13.16722915247558</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.62325145227103</v>
+        <v>27.67812022070417</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>55.63170523952574</v>
+        <v>50.37963383847458</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.80793219706367</v>
+        <v>11.63834509701003</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.6744636376887</v>
+        <v>27.42056643719654</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.77457501286125</v>
+        <v>32.39461048454777</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>7.026192093955704</v>
+        <v>1.084363031017265</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.85616210659922</v>
+        <v>17.2912063908617</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.73894895406754</v>
+        <v>22.171614087188</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>8.262343148539411</v>
+        <v>1.16297983239923</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.0673608157983</v>
+        <v>32.55072607064102</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.69573692187012</v>
+        <v>41.05766193442433</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.09047022961359</v>
+        <v>29.90219489969004</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.6754405451146</v>
+        <v>39.71636101152291</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>46.04380002578017</v>
+        <v>50.2696822815103</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.765787041419788</v>
+        <v>4.862494577387807</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.61449407812623</v>
+        <v>29.26676560562566</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.76001835584752</v>
+        <v>38.95372048658641</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.1470084691943</v>
+        <v>11.04016358779267</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.55928754032673</v>
+        <v>26.44763844438771</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.87254639428141</v>
+        <v>36.81343663940501</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>6.689989477685216</v>
+        <v>2.108254015905938</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.92907976087303</v>
+        <v>21.95729026354914</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>31.18811451114934</v>
+        <v>28.9140986054414</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>8.49839686924831</v>
+        <v>2.223116689651818</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.6058065516613</v>
+        <v>39.99624004017596</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.81105716278476</v>
+        <v>55.08620842291366</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.14507946692751</v>
+        <v>43.77116560092684</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.1025463407512</v>
+        <v>53.67762794231813</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>62.72856577955753</v>
+        <v>65.04368181812768</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>9.237597026094914</v>
+        <v>2.573526870592559</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.12038883798399</v>
+        <v>34.61396849181019</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.8163741444467</v>
+        <v>49.6248974909821</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.9533153120991</v>
+        <v>17.32307588377676</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.25611867766155</v>
+        <v>23.63715468910917</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.74350823150827</v>
+        <v>36.73013760892673</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.3633594631707</v>
+        <v>14.65471359024726</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>43.50694029511163</v>
+        <v>43.98157462979992</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>48.28030210961235</v>
+        <v>47.7668032180983</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.88814262555397</v>
+        <v>18.26392653593543</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>52.98495799925936</v>
+        <v>50.67616448109176</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.18262211505228</v>
+        <v>57.51841533681863</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.29173824105538</v>
+        <v>37.79180519688634</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.80381248520628</v>
+        <v>39.52367007835957</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.74383734620516</v>
+        <v>43.6428576076682</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.73756908424611</v>
+        <v>25.47924829487938</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.49311428444611</v>
+        <v>25.16423400721582</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.14903958126479</v>
+        <v>42.79822055082531</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.03614553387075</v>
+        <v>20.8242162847765</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.48173449919947</v>
+        <v>31.78165080198673</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.77980367565112</v>
+        <v>38.56314126628195</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.62741733613043</v>
+        <v>32.70907287134384</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>44.42977155912239</v>
+        <v>41.08652860974881</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>45.10278840994088</v>
+        <v>47.95737580231189</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.59740144100712</v>
+        <v>12.96335601600206</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.23436259463994</v>
+        <v>36.40602520689862</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>41.53857366595383</v>
+        <v>47.7816840018924</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.86544475586658</v>
+        <v>33.31122070427415</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>41.44228610640711</v>
+        <v>43.0918706832919</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>46.18875960958562</v>
+        <v>51.29319882825249</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.38264247146549</v>
+        <v>17.44192048062255</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>33.27619826481386</v>
+        <v>31.9694017523751</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.74198098644915</v>
+        <v>41.57006642404787</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.70606641238213</v>
+        <v>19.06455691060712</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.62119196098504</v>
+        <v>29.37490581912462</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.91222635147637</v>
+        <v>37.8086473525781</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.34549467189336</v>
+        <v>32.73261724780745</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.89660190001258</v>
+        <v>45.40746359738388</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.79552584555356</v>
+        <v>46.97046821615568</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.86952771582508</v>
+        <v>13.41169858801535</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.54722204541618</v>
+        <v>44.22235121754969</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>55.04406422942357</v>
+        <v>56.89845836984523</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.84198736341138</v>
+        <v>47.90479866262658</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.87918912948619</v>
+        <v>56.15421762377536</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>64.12344256867343</v>
+        <v>66.65082871897079</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>19.16271327712027</v>
+        <v>15.19155401688677</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.86269118854393</v>
+        <v>36.00593314645164</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>52.43558993376413</v>
+        <v>52.96456826279617</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>7.493674470462917</v>
+        <v>6.00712407058483</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.1271059058428</v>
+        <v>20.73839490102878</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.99823853763871</v>
+        <v>31.45528125286501</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>5.414377431644663</v>
+        <v>-1.357590925460876</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.44827263019607</v>
+        <v>19.92696087788657</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.5460547199975</v>
+        <v>22.40619019749903</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>7.61102692975895</v>
+        <v>2.17180040615025</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.7848264120976</v>
+        <v>41.11011200463909</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.61854735671189</v>
+        <v>47.6811880865142</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.10470956469629</v>
+        <v>43.2473167121868</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.4058249373787</v>
+        <v>41.50186158879705</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.46963383102459</v>
+        <v>44.30347404159923</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>4.958112097826476</v>
+        <v>-2.111526791308535</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.98912043658484</v>
+        <v>25.46141307358756</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.63578290092254</v>
+        <v>33.86098889731702</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>11.00902550710925</v>
+        <v>7.496466925133461</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.20930622464655</v>
+        <v>24.26971390507095</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.56622769554558</v>
+        <v>28.70680631241348</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>6.17718049221283</v>
+        <v>-1.010818184169011</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.8536410482186</v>
+        <v>15.19285041427445</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.17079130779268</v>
+        <v>19.57538988053173</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>7.686188459499416</v>
+        <v>-0.6545992802720768</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.81936019558512</v>
+        <v>29.5472734559978</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.22242020082293</v>
+        <v>38.24783726767612</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.10413066616323</v>
+        <v>31.08958982768678</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.70455777586557</v>
+        <v>37.15142802562163</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.51697213801137</v>
+        <v>44.38369777234333</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.467360513196791</v>
+        <v>-0.5538032898252503</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.67085976024121</v>
+        <v>27.79505152620348</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.54280531701788</v>
+        <v>35.03392247959061</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.124436519044142</v>
+        <v>7.24518201882171</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.90056169352772</v>
+        <v>23.74326851987897</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.65854879240633</v>
+        <v>34.3419964599388</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>5.810672594566068</v>
+        <v>-3.131570608121262</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>19.04135200687822</v>
+        <v>18.02477777465294</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.74004747978381</v>
+        <v>23.56206268868716</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.345695809528276</v>
+        <v>-1.861243814919099</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.74166277558395</v>
+        <v>33.9046733782246</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.07221963675295</v>
+        <v>49.93443762570514</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.21987378393494</v>
+        <v>42.07800408317673</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>56.08241567236544</v>
+        <v>53.596541304299</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>59.56483145883544</v>
+        <v>62.03425153959498</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>7.532571223296326</v>
+        <v>-3.197453781042896</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.23035007420798</v>
+        <v>35.36883676964388</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.02009460121013</v>
+        <v>46.44600357489803</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.1377987717598</v>
+        <v>8.743067673645525</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.12027895775324</v>
+        <v>8.789302541338943</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.57426318366596</v>
+        <v>16.77685546982709</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>7.995159140060593</v>
+        <v>1.450125734430092</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.68397003670165</v>
+        <v>9.219595821556638</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.59044470347128</v>
+        <v>12.40361541062281</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.73466449140159</v>
+        <v>7.603008581929345</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.53100684465487</v>
+        <v>19.85414434406903</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.82258281660344</v>
+        <v>24.87304022709745</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.71030129118575</v>
+        <v>16.23942726100084</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.01520724702562</v>
+        <v>18.00686636624281</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.12177899113708</v>
+        <v>21.4252358872583</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.44958929465219</v>
+        <v>3.526600704865714</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>14.80001955490939</v>
+        <v>6.171219991504806</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.31613526836878</v>
+        <v>13.40037519811255</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.76371185368794</v>
+        <v>3.452029164869842</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.39638137621369</v>
+        <v>15.84614978710829</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.28930118204794</v>
+        <v>24.89598696704918</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>4.94063035910202</v>
+        <v>-3.763973658629485</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>7.650192402041696</v>
+        <v>6.196346632159795</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.95113174347919</v>
+        <v>15.61164717350528</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>6.422777843258469</v>
+        <v>-4.037028312187672</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.88729958196795</v>
+        <v>15.02866417067488</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.63963040221639</v>
+        <v>28.7697880414234</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.33425494466172</v>
+        <v>19.39525550066476</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.45531781449749</v>
+        <v>25.68724764288953</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.62428695562875</v>
+        <v>36.28489207458676</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>5.31056743475412</v>
+        <v>-5.704153235203027</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.33136805700224</v>
+        <v>16.08402855772641</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.80355980375875</v>
+        <v>26.80646734449071</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.22043971576826</v>
+        <v>6.773709861026504</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.82187126545618</v>
+        <v>19.09050348213075</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.20216683602344</v>
+        <v>29.74199536078471</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>4.476757547303212</v>
+        <v>-4.031949264707549</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.99617192121382</v>
+        <v>10.12766324809985</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.72471880170144</v>
+        <v>18.78529082958301</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>6.86877061773199</v>
+        <v>-0.08543385961993266</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.29722349533013</v>
+        <v>25.3463794246149</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.68412201507323</v>
+        <v>38.89285704106251</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.1579614895155</v>
+        <v>29.60497908506268</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.85652524954752</v>
+        <v>38.34305409834611</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>43.27508448809477</v>
+        <v>43.99491580194807</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4.276713746000418</v>
+        <v>-2.828192254442264</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.11449603830354</v>
+        <v>22.81817567375268</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>39.96998121680339</v>
+        <v>38.15540953460012</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.70942137515832</v>
+        <v>9.97938419338505</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.62641139497639</v>
+        <v>11.98495609462361</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.33852582129341</v>
+        <v>21.00037197765737</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>7.080217681005522</v>
+        <v>1.450052062046154</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.52127421121273</v>
+        <v>19.80786623133323</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.97542488097152</v>
+        <v>20.65626143637552</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.64203037135792</v>
+        <v>9.560714363707813</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.50836815696032</v>
+        <v>30.49039459872402</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.14961633392852</v>
+        <v>34.50901308807759</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.54253472059018</v>
+        <v>24.12459443056679</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.11315298421482</v>
+        <v>25.60127047754069</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.59718749456101</v>
+        <v>32.91693866493807</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.22739970009805</v>
+        <v>9.338858539502409</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.77320620272643</v>
+        <v>11.94704630369498</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.45991427507512</v>
+        <v>23.84830400196238</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.366297558450775</v>
+        <v>7.594978985007446</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.63041424508938</v>
+        <v>18.05890072459867</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.60376746106974</v>
+        <v>29.53924209977234</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>6.921848694177374</v>
+        <v>6.247194123230821</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>13.67944265973327</v>
+        <v>11.07225932419504</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.44540570456669</v>
+        <v>26.70485357308265</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>8.706191209472738</v>
+        <v>1.207670972891695</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.92365616893433</v>
+        <v>18.34790859294127</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.56103676282069</v>
+        <v>35.14927800552239</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.25011851340099</v>
+        <v>16.89383433441627</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.21024377252874</v>
+        <v>29.65154067970412</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.6449297640474</v>
+        <v>42.97074267989956</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>6.183750211701266</v>
+        <v>-2.52628361707135</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.64890863502808</v>
+        <v>16.01534457134562</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.68841699971361</v>
+        <v>29.18651126282606</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>9.630161208560274</v>
+        <v>7.635180567040994</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.07933040648825</v>
+        <v>16.16923278180031</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.67956965915495</v>
+        <v>27.01253869648359</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.584594316683045</v>
+        <v>3.521880367619559</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>18.75652250307329</v>
+        <v>13.62101108924874</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.35947611425484</v>
+        <v>20.72191776398187</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>7.886841998357003</v>
+        <v>-0.1064040780658679</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.52716855281844</v>
+        <v>24.18498717357487</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.86742604503908</v>
+        <v>39.41996277981058</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.67591075552824</v>
+        <v>32.97389356115733</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.7222731683291</v>
+        <v>38.98606972041206</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.78672396712611</v>
+        <v>51.7793786055356</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>4.404346155475498</v>
+        <v>-4.639681864269619</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>20.31703606063654</v>
+        <v>16.57316313618002</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.20930952141865</v>
+        <v>37.93419865322028</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.6445745295719</v>
+        <v>15.01206183854449</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.35050954907039</v>
+        <v>23.98416914415009</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>32.94012758778499</v>
+        <v>35.44151959212724</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>7.17424526338722</v>
+        <v>6.39775153988468</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>38.46139602117955</v>
+        <v>36.58943601037825</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>40.98916447613257</v>
+        <v>42.23688190350771</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.91605393886903</v>
+        <v>15.74145348672992</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.850679027182</v>
+        <v>59.6301247992261</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>58.95026255975588</v>
+        <v>61.77606968782151</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.04861858598193</v>
+        <v>39.59851690783651</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>42.39212506609321</v>
+        <v>42.52568338010288</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.29256219909475</v>
+        <v>45.854698761389</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.39477405506516</v>
+        <v>24.43012083943989</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.4267777659353</v>
+        <v>28.94475234822361</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.20954171155861</v>
+        <v>57.67025444810419</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.79168083459087</v>
+        <v>19.64061800792654</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.55095815834354</v>
+        <v>31.29749979033823</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.3380384010928</v>
+        <v>36.34267124387701</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.082008948889307</v>
+        <v>5.507183789646408</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.32210341864455</v>
+        <v>22.61333104274347</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.4028833475858</v>
+        <v>29.05917073355448</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>12.26279643594739</v>
+        <v>7.748773401982731</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.34855808277813</v>
+        <v>37.89765396475015</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>44.16190643398617</v>
+        <v>45.31560400084697</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.68304398748994</v>
+        <v>37.73983356407415</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.79455732563542</v>
+        <v>43.39077301553242</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>46.58075187698043</v>
+        <v>51.11768586289521</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>18.80916311835099</v>
+        <v>16.48323230775365</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.73767634356202</v>
+        <v>35.77841888331722</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.47587804442941</v>
+        <v>44.62004928061662</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>23.07321129785488</v>
+        <v>17.87072739802188</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.9669961241815</v>
+        <v>29.87388273025748</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.83528594989122</v>
+        <v>38.99322924467104</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>7.0532058099596</v>
+        <v>3.317412670584631</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.72972433804133</v>
+        <v>24.40435039937637</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.55983602038038</v>
+        <v>31.76047620328004</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>11.27103923204308</v>
+        <v>6.421018414759809</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>43.32744314694523</v>
+        <v>44.7494947957113</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>55.29121220871467</v>
+        <v>58.25599442731264</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.80507673662348</v>
+        <v>47.06591553712545</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>55.24059559307969</v>
+        <v>56.48987536000955</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>61.65183530774235</v>
+        <v>67.03709102161164</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>12.8295523965191</v>
+        <v>12.74527154882846</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>41.34388320175096</v>
+        <v>39.70683018877411</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.3616869901979</v>
+        <v>55.80613610834892</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.776079603793423</v>
+        <v>4.185868136937692</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>19.36079455050212</v>
+        <v>16.80831792144576</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.03190965512817</v>
+        <v>27.78284767623285</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>5.722000560292731</v>
+        <v>-0.2728698173023929</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>21.80032583208822</v>
+        <v>19.90390292720158</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.05269427415529</v>
+        <v>21.92886508454582</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>7.826760125971624</v>
+        <v>1.329880607795388</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.00298399571777</v>
+        <v>36.68418709862885</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.07248000565792</v>
+        <v>44.62348798156579</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.3080662131688</v>
+        <v>38.34651158307513</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>44.65203088766614</v>
+        <v>41.54100217160624</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.50590126144585</v>
+        <v>43.13024807043172</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>4.87665163696418</v>
+        <v>-3.366480475041513</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.39469405934411</v>
+        <v>24.79362154090642</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>27.62859536540574</v>
+        <v>30.94379934361047</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>11.42113560521173</v>
+        <v>7.761830711081677</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.63132411619566</v>
+        <v>24.80378141373404</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.69601146062393</v>
+        <v>28.98044526744235</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>6.581241494377423</v>
+        <v>0.5201084795425359</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>19.78163338086931</v>
+        <v>16.18675314623167</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.3335152916682</v>
+        <v>21.90135957906573</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>9.409074375088384</v>
+        <v>2.139500368745928</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.42255969705067</v>
+        <v>32.21453221122804</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.9659718040882</v>
+        <v>42.34641820444254</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.1099060754603</v>
+        <v>33.2919560423099</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.53629671519457</v>
+        <v>40.5215669834151</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.9170025479429</v>
+        <v>46.80200646823268</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>8.126839181947361</v>
+        <v>0.1874214309598159</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.13367723902996</v>
+        <v>29.59028745181561</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.86134302423542</v>
+        <v>37.60303670267254</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>10.40250830932355</v>
+        <v>6.887370058629411</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.5016571331279</v>
+        <v>23.29397841367127</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.10574948416364</v>
+        <v>32.88459881281005</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.352527872912226</v>
+        <v>-2.713072261897864</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.16245063894689</v>
+        <v>18.72318331093989</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.29787276900562</v>
+        <v>22.77446793337486</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>7.206333791298725</v>
+        <v>-1.797962935246556</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.23074297316035</v>
+        <v>33.45122438882587</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>45.2265702891026</v>
+        <v>48.18113944116095</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.99402183620987</v>
+        <v>40.26570202640458</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>51.39536139777215</v>
+        <v>52.00397985432357</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>57.86909687133289</v>
+        <v>60.71005075585098</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>6.62863363566931</v>
+        <v>-3.583808992643824</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>32.66912541198339</v>
+        <v>33.91340433524135</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.41109192188866</v>
+        <v>46.84903656539052</v>
       </c>
     </row>
   </sheetData>
